--- a/p-tax/ptax-template.xlsx
+++ b/p-tax/ptax-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dhwani Projects\city finance\perfect-api\p-tax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD91932-3832-427A-AA31-A674031EBC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21A0EF4-7C40-4BE4-83D1-F2EF9465DDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="327">
   <si>
     <t>Property Tax Details</t>
   </si>
@@ -1025,6 +1025,18 @@
   </si>
   <si>
     <t>Educational</t>
+  </si>
+  <si>
+    <t>MoHUA Comments</t>
+  </si>
+  <si>
+    <t>MoHUA Files</t>
+  </si>
+  <si>
+    <t>STATE Files</t>
+  </si>
+  <si>
+    <t>STATE Comments</t>
   </si>
 </sst>
 </file>
@@ -1766,6 +1778,222 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1826,132 +2054,6 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1965,96 +2067,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2332,10 +2344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BBW12"/>
+  <dimension ref="A1:BCA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BBM1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="BCD4" sqref="BCD4"/>
+    <sheetView tabSelected="1" topLeftCell="BBQ1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="BCA1" sqref="BCA1:BCA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2714,19 +2726,23 @@
     <col min="1425" max="1425" width="9" customWidth="1"/>
     <col min="1426" max="1426" width="19.5546875" customWidth="1"/>
     <col min="1427" max="1427" width="22.5546875" customWidth="1"/>
+    <col min="1428" max="1428" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1429" max="1429" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1430" max="1430" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1431" max="1431" width="7.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1427" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="I1" s="121" t="s">
+    <row r="1" spans="1:1431" s="1" customFormat="1" ht="45" customHeight="1">
+      <c r="I1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
       <c r="Q1" s="15" t="s">
         <v>1</v>
       </c>
@@ -3068,1102 +3084,1102 @@
       <c r="MM1" s="35"/>
       <c r="MN1" s="35"/>
       <c r="MO1" s="41"/>
-      <c r="MP1" s="137" t="s">
+      <c r="MP1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="MQ1" s="137"/>
-      <c r="MR1" s="137"/>
-      <c r="MS1" s="137"/>
-      <c r="MT1" s="137"/>
-      <c r="MU1" s="137"/>
-      <c r="MV1" s="137"/>
-      <c r="MW1" s="137"/>
-      <c r="MX1" s="137"/>
-      <c r="MY1" s="137"/>
-      <c r="MZ1" s="137"/>
-      <c r="NA1" s="137"/>
-      <c r="NB1" s="137"/>
-      <c r="NC1" s="137"/>
-      <c r="ND1" s="137"/>
-      <c r="NE1" s="137"/>
-      <c r="NF1" s="137"/>
-      <c r="NG1" s="137"/>
-      <c r="NH1" s="137"/>
-      <c r="NI1" s="137"/>
-      <c r="NJ1" s="54" t="s">
+      <c r="MQ1" s="70"/>
+      <c r="MR1" s="70"/>
+      <c r="MS1" s="70"/>
+      <c r="MT1" s="70"/>
+      <c r="MU1" s="70"/>
+      <c r="MV1" s="70"/>
+      <c r="MW1" s="70"/>
+      <c r="MX1" s="70"/>
+      <c r="MY1" s="70"/>
+      <c r="MZ1" s="70"/>
+      <c r="NA1" s="70"/>
+      <c r="NB1" s="70"/>
+      <c r="NC1" s="70"/>
+      <c r="ND1" s="70"/>
+      <c r="NE1" s="70"/>
+      <c r="NF1" s="70"/>
+      <c r="NG1" s="70"/>
+      <c r="NH1" s="70"/>
+      <c r="NI1" s="70"/>
+      <c r="NJ1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="NK1" s="55"/>
-      <c r="NL1" s="55"/>
-      <c r="NM1" s="55"/>
-      <c r="NN1" s="55"/>
-      <c r="NO1" s="55"/>
-      <c r="NP1" s="55"/>
-      <c r="NQ1" s="55"/>
-      <c r="NR1" s="55"/>
-      <c r="NS1" s="55"/>
-      <c r="NT1" s="55"/>
-      <c r="NU1" s="55"/>
-      <c r="NV1" s="55"/>
-      <c r="NW1" s="55"/>
-      <c r="NX1" s="55"/>
-      <c r="NY1" s="55"/>
-      <c r="NZ1" s="55"/>
-      <c r="OA1" s="55"/>
-      <c r="OB1" s="55"/>
-      <c r="OC1" s="55"/>
-      <c r="OD1" s="55"/>
-      <c r="OE1" s="55"/>
-      <c r="OF1" s="55"/>
-      <c r="OG1" s="55"/>
-      <c r="OH1" s="55"/>
-      <c r="OI1" s="55"/>
-      <c r="OJ1" s="55"/>
-      <c r="OK1" s="55"/>
-      <c r="OL1" s="55"/>
-      <c r="OM1" s="55"/>
-      <c r="ON1" s="55"/>
-      <c r="OO1" s="55"/>
-      <c r="OP1" s="55"/>
-      <c r="OQ1" s="55"/>
-      <c r="OR1" s="55"/>
-      <c r="OS1" s="55"/>
-      <c r="OT1" s="55"/>
-      <c r="OU1" s="55"/>
-      <c r="OV1" s="55"/>
-      <c r="OW1" s="55"/>
-      <c r="OX1" s="55"/>
-      <c r="OY1" s="55"/>
-      <c r="OZ1" s="55"/>
-      <c r="PA1" s="55"/>
-      <c r="PB1" s="55"/>
-      <c r="PC1" s="55"/>
-      <c r="PD1" s="55"/>
-      <c r="PE1" s="55"/>
-      <c r="PF1" s="55"/>
-      <c r="PG1" s="55"/>
-      <c r="PH1" s="55"/>
-      <c r="PI1" s="55"/>
-      <c r="PJ1" s="55"/>
-      <c r="PK1" s="55"/>
-      <c r="PL1" s="55"/>
-      <c r="PM1" s="55"/>
-      <c r="PN1" s="55"/>
-      <c r="PO1" s="55"/>
-      <c r="PP1" s="55"/>
-      <c r="PQ1" s="55"/>
-      <c r="PR1" s="55"/>
-      <c r="PS1" s="55"/>
-      <c r="PT1" s="55"/>
-      <c r="PU1" s="55"/>
-      <c r="PV1" s="55"/>
-      <c r="PW1" s="55"/>
-      <c r="PX1" s="55"/>
-      <c r="PY1" s="55"/>
-      <c r="PZ1" s="55"/>
-      <c r="QA1" s="55"/>
-      <c r="QB1" s="55"/>
-      <c r="QC1" s="55"/>
-      <c r="QD1" s="55"/>
-      <c r="QE1" s="55"/>
-      <c r="QF1" s="55"/>
-      <c r="QG1" s="55"/>
-      <c r="QH1" s="55"/>
-      <c r="QI1" s="55"/>
-      <c r="QJ1" s="55"/>
-      <c r="QK1" s="55"/>
-      <c r="QL1" s="55"/>
-      <c r="QM1" s="55"/>
-      <c r="QN1" s="55"/>
-      <c r="QO1" s="55"/>
-      <c r="QP1" s="55"/>
-      <c r="QQ1" s="55"/>
-      <c r="QR1" s="55"/>
-      <c r="QS1" s="55"/>
-      <c r="QT1" s="55"/>
-      <c r="QU1" s="55"/>
-      <c r="QV1" s="55"/>
-      <c r="QW1" s="55"/>
-      <c r="QX1" s="55"/>
-      <c r="QY1" s="55"/>
-      <c r="QZ1" s="55"/>
-      <c r="RA1" s="55"/>
-      <c r="RB1" s="55"/>
-      <c r="RC1" s="55"/>
-      <c r="RD1" s="55"/>
-      <c r="RE1" s="55"/>
-      <c r="RF1" s="55"/>
-      <c r="RG1" s="55"/>
-      <c r="RH1" s="55"/>
-      <c r="RI1" s="55"/>
-      <c r="RJ1" s="55"/>
-      <c r="RK1" s="55"/>
-      <c r="RL1" s="55"/>
-      <c r="RM1" s="55"/>
-      <c r="RN1" s="55"/>
-      <c r="RO1" s="55"/>
-      <c r="RP1" s="55"/>
-      <c r="RQ1" s="55"/>
-      <c r="RR1" s="55"/>
-      <c r="RS1" s="55"/>
-      <c r="RT1" s="55"/>
-      <c r="RU1" s="55"/>
-      <c r="RV1" s="55"/>
-      <c r="RW1" s="55"/>
-      <c r="RX1" s="55"/>
-      <c r="RY1" s="55"/>
-      <c r="RZ1" s="55"/>
-      <c r="SA1" s="55"/>
-      <c r="SB1" s="55"/>
-      <c r="SC1" s="55"/>
-      <c r="SD1" s="55"/>
-      <c r="SE1" s="55"/>
-      <c r="SF1" s="55"/>
-      <c r="SG1" s="55"/>
-      <c r="SH1" s="55"/>
-      <c r="SI1" s="55"/>
-      <c r="SJ1" s="55"/>
-      <c r="SK1" s="55"/>
-      <c r="SL1" s="55"/>
-      <c r="SM1" s="55"/>
-      <c r="SN1" s="55"/>
-      <c r="SO1" s="55"/>
-      <c r="SP1" s="55"/>
-      <c r="SQ1" s="55"/>
-      <c r="SR1" s="55"/>
-      <c r="SS1" s="55"/>
-      <c r="ST1" s="55"/>
-      <c r="SU1" s="55"/>
-      <c r="SV1" s="55"/>
-      <c r="SW1" s="55"/>
-      <c r="SX1" s="55"/>
-      <c r="SY1" s="55"/>
-      <c r="SZ1" s="55"/>
-      <c r="TA1" s="55"/>
-      <c r="TB1" s="55"/>
-      <c r="TC1" s="55"/>
-      <c r="TD1" s="55"/>
-      <c r="TE1" s="55"/>
-      <c r="TF1" s="55"/>
-      <c r="TG1" s="55"/>
-      <c r="TH1" s="55"/>
-      <c r="TI1" s="55"/>
-      <c r="TJ1" s="55"/>
-      <c r="TK1" s="55"/>
-      <c r="TL1" s="55"/>
-      <c r="TM1" s="55"/>
-      <c r="TN1" s="55"/>
-      <c r="TO1" s="55"/>
-      <c r="TP1" s="55"/>
-      <c r="TQ1" s="55"/>
-      <c r="TR1" s="55"/>
-      <c r="TS1" s="55"/>
-      <c r="TT1" s="55"/>
-      <c r="TU1" s="55"/>
-      <c r="TV1" s="55"/>
-      <c r="TW1" s="55"/>
-      <c r="TX1" s="55"/>
-      <c r="TY1" s="55"/>
-      <c r="TZ1" s="55"/>
-      <c r="UA1" s="55"/>
-      <c r="UB1" s="55"/>
-      <c r="UC1" s="55"/>
-      <c r="UD1" s="55"/>
-      <c r="UE1" s="55"/>
-      <c r="UF1" s="55"/>
-      <c r="UG1" s="55"/>
-      <c r="UH1" s="55"/>
-      <c r="UI1" s="55"/>
-      <c r="UJ1" s="55"/>
-      <c r="UK1" s="55"/>
-      <c r="UL1" s="55"/>
-      <c r="UM1" s="55"/>
-      <c r="UN1" s="55"/>
-      <c r="UO1" s="55"/>
-      <c r="UP1" s="55"/>
-      <c r="UQ1" s="55"/>
-      <c r="UR1" s="55"/>
-      <c r="US1" s="55"/>
-      <c r="UT1" s="55"/>
-      <c r="UU1" s="55"/>
-      <c r="UV1" s="55"/>
-      <c r="UW1" s="55"/>
-      <c r="UX1" s="55"/>
-      <c r="UY1" s="55"/>
-      <c r="UZ1" s="55"/>
-      <c r="VA1" s="55"/>
-      <c r="VB1" s="55"/>
-      <c r="VC1" s="55"/>
-      <c r="VD1" s="55"/>
-      <c r="VE1" s="55"/>
-      <c r="VF1" s="55"/>
-      <c r="VG1" s="55"/>
-      <c r="VH1" s="55"/>
-      <c r="VI1" s="55"/>
-      <c r="VJ1" s="55"/>
-      <c r="VK1" s="55"/>
-      <c r="VL1" s="55"/>
-      <c r="VM1" s="55"/>
-      <c r="VN1" s="55"/>
-      <c r="VO1" s="55"/>
-      <c r="VP1" s="55"/>
-      <c r="VQ1" s="55"/>
-      <c r="VR1" s="55"/>
-      <c r="VS1" s="55"/>
-      <c r="VT1" s="55"/>
-      <c r="VU1" s="55"/>
-      <c r="VV1" s="55"/>
-      <c r="VW1" s="55"/>
-      <c r="VX1" s="55"/>
-      <c r="VY1" s="55"/>
-      <c r="VZ1" s="55"/>
-      <c r="WA1" s="55"/>
-      <c r="WB1" s="55"/>
-      <c r="WC1" s="55"/>
-      <c r="WD1" s="55"/>
-      <c r="WE1" s="55"/>
-      <c r="WF1" s="55"/>
-      <c r="WG1" s="55"/>
-      <c r="WH1" s="55"/>
-      <c r="WI1" s="55"/>
-      <c r="WJ1" s="55"/>
-      <c r="WK1" s="55"/>
-      <c r="WL1" s="55"/>
-      <c r="WM1" s="55"/>
-      <c r="WN1" s="55"/>
-      <c r="WO1" s="55"/>
-      <c r="WP1" s="55"/>
-      <c r="WQ1" s="55"/>
-      <c r="WR1" s="55"/>
-      <c r="WS1" s="55"/>
-      <c r="WT1" s="55"/>
-      <c r="WU1" s="55"/>
-      <c r="WV1" s="55"/>
-      <c r="WW1" s="55"/>
-      <c r="WX1" s="55"/>
-      <c r="WY1" s="55"/>
-      <c r="WZ1" s="55"/>
-      <c r="XA1" s="55"/>
-      <c r="XB1" s="55"/>
-      <c r="XC1" s="55"/>
-      <c r="XD1" s="55"/>
-      <c r="XE1" s="55"/>
-      <c r="XF1" s="55"/>
-      <c r="XG1" s="55"/>
-      <c r="XH1" s="55"/>
-      <c r="XI1" s="55"/>
-      <c r="XJ1" s="55"/>
-      <c r="XK1" s="55"/>
-      <c r="XL1" s="55"/>
-      <c r="XM1" s="55"/>
-      <c r="XN1" s="55"/>
-      <c r="XO1" s="55"/>
-      <c r="XP1" s="55"/>
-      <c r="XQ1" s="55"/>
-      <c r="XR1" s="55"/>
-      <c r="XS1" s="55"/>
-      <c r="XT1" s="55"/>
-      <c r="XU1" s="55"/>
-      <c r="XV1" s="55"/>
-      <c r="XW1" s="55"/>
-      <c r="XX1" s="55"/>
-      <c r="XY1" s="55"/>
-      <c r="XZ1" s="55"/>
-      <c r="YA1" s="55"/>
-      <c r="YB1" s="55"/>
-      <c r="YC1" s="55"/>
-      <c r="YD1" s="55"/>
-      <c r="YE1" s="55"/>
-      <c r="YF1" s="55"/>
-      <c r="YG1" s="55"/>
-      <c r="YH1" s="55"/>
-      <c r="YI1" s="55"/>
-      <c r="YJ1" s="55"/>
-      <c r="YK1" s="55"/>
-      <c r="YL1" s="55"/>
-      <c r="YM1" s="55"/>
-      <c r="YN1" s="55"/>
-      <c r="YO1" s="55"/>
-      <c r="YP1" s="55"/>
-      <c r="YQ1" s="55"/>
-      <c r="YR1" s="55"/>
-      <c r="YS1" s="55"/>
-      <c r="YT1" s="55"/>
-      <c r="YU1" s="55"/>
-      <c r="YV1" s="55"/>
-      <c r="YW1" s="55"/>
-      <c r="YX1" s="55"/>
-      <c r="YY1" s="55"/>
-      <c r="YZ1" s="55"/>
-      <c r="ZA1" s="55"/>
-      <c r="ZB1" s="55"/>
-      <c r="ZC1" s="55"/>
-      <c r="ZD1" s="55"/>
-      <c r="ZE1" s="55"/>
-      <c r="ZF1" s="55"/>
-      <c r="ZG1" s="55"/>
-      <c r="ZH1" s="55"/>
-      <c r="ZI1" s="55"/>
-      <c r="ZJ1" s="55"/>
-      <c r="ZK1" s="55"/>
-      <c r="ZL1" s="55"/>
-      <c r="ZM1" s="55"/>
-      <c r="ZN1" s="55"/>
-      <c r="ZO1" s="55"/>
-      <c r="ZP1" s="55"/>
-      <c r="ZQ1" s="55"/>
-      <c r="ZR1" s="55"/>
-      <c r="ZS1" s="55"/>
-      <c r="ZT1" s="55"/>
-      <c r="ZU1" s="55"/>
-      <c r="ZV1" s="55"/>
-      <c r="ZW1" s="55"/>
-      <c r="ZX1" s="55"/>
-      <c r="ZY1" s="55"/>
-      <c r="ZZ1" s="55"/>
-      <c r="AAA1" s="55"/>
-      <c r="AAB1" s="55"/>
-      <c r="AAC1" s="55"/>
-      <c r="AAD1" s="55"/>
-      <c r="AAE1" s="55"/>
-      <c r="AAF1" s="55"/>
-      <c r="AAG1" s="55"/>
-      <c r="AAH1" s="55"/>
-      <c r="AAI1" s="55"/>
-      <c r="AAJ1" s="55"/>
-      <c r="AAK1" s="56"/>
-      <c r="AAL1" s="131" t="s">
+      <c r="NK1" s="127"/>
+      <c r="NL1" s="127"/>
+      <c r="NM1" s="127"/>
+      <c r="NN1" s="127"/>
+      <c r="NO1" s="127"/>
+      <c r="NP1" s="127"/>
+      <c r="NQ1" s="127"/>
+      <c r="NR1" s="127"/>
+      <c r="NS1" s="127"/>
+      <c r="NT1" s="127"/>
+      <c r="NU1" s="127"/>
+      <c r="NV1" s="127"/>
+      <c r="NW1" s="127"/>
+      <c r="NX1" s="127"/>
+      <c r="NY1" s="127"/>
+      <c r="NZ1" s="127"/>
+      <c r="OA1" s="127"/>
+      <c r="OB1" s="127"/>
+      <c r="OC1" s="127"/>
+      <c r="OD1" s="127"/>
+      <c r="OE1" s="127"/>
+      <c r="OF1" s="127"/>
+      <c r="OG1" s="127"/>
+      <c r="OH1" s="127"/>
+      <c r="OI1" s="127"/>
+      <c r="OJ1" s="127"/>
+      <c r="OK1" s="127"/>
+      <c r="OL1" s="127"/>
+      <c r="OM1" s="127"/>
+      <c r="ON1" s="127"/>
+      <c r="OO1" s="127"/>
+      <c r="OP1" s="127"/>
+      <c r="OQ1" s="127"/>
+      <c r="OR1" s="127"/>
+      <c r="OS1" s="127"/>
+      <c r="OT1" s="127"/>
+      <c r="OU1" s="127"/>
+      <c r="OV1" s="127"/>
+      <c r="OW1" s="127"/>
+      <c r="OX1" s="127"/>
+      <c r="OY1" s="127"/>
+      <c r="OZ1" s="127"/>
+      <c r="PA1" s="127"/>
+      <c r="PB1" s="127"/>
+      <c r="PC1" s="127"/>
+      <c r="PD1" s="127"/>
+      <c r="PE1" s="127"/>
+      <c r="PF1" s="127"/>
+      <c r="PG1" s="127"/>
+      <c r="PH1" s="127"/>
+      <c r="PI1" s="127"/>
+      <c r="PJ1" s="127"/>
+      <c r="PK1" s="127"/>
+      <c r="PL1" s="127"/>
+      <c r="PM1" s="127"/>
+      <c r="PN1" s="127"/>
+      <c r="PO1" s="127"/>
+      <c r="PP1" s="127"/>
+      <c r="PQ1" s="127"/>
+      <c r="PR1" s="127"/>
+      <c r="PS1" s="127"/>
+      <c r="PT1" s="127"/>
+      <c r="PU1" s="127"/>
+      <c r="PV1" s="127"/>
+      <c r="PW1" s="127"/>
+      <c r="PX1" s="127"/>
+      <c r="PY1" s="127"/>
+      <c r="PZ1" s="127"/>
+      <c r="QA1" s="127"/>
+      <c r="QB1" s="127"/>
+      <c r="QC1" s="127"/>
+      <c r="QD1" s="127"/>
+      <c r="QE1" s="127"/>
+      <c r="QF1" s="127"/>
+      <c r="QG1" s="127"/>
+      <c r="QH1" s="127"/>
+      <c r="QI1" s="127"/>
+      <c r="QJ1" s="127"/>
+      <c r="QK1" s="127"/>
+      <c r="QL1" s="127"/>
+      <c r="QM1" s="127"/>
+      <c r="QN1" s="127"/>
+      <c r="QO1" s="127"/>
+      <c r="QP1" s="127"/>
+      <c r="QQ1" s="127"/>
+      <c r="QR1" s="127"/>
+      <c r="QS1" s="127"/>
+      <c r="QT1" s="127"/>
+      <c r="QU1" s="127"/>
+      <c r="QV1" s="127"/>
+      <c r="QW1" s="127"/>
+      <c r="QX1" s="127"/>
+      <c r="QY1" s="127"/>
+      <c r="QZ1" s="127"/>
+      <c r="RA1" s="127"/>
+      <c r="RB1" s="127"/>
+      <c r="RC1" s="127"/>
+      <c r="RD1" s="127"/>
+      <c r="RE1" s="127"/>
+      <c r="RF1" s="127"/>
+      <c r="RG1" s="127"/>
+      <c r="RH1" s="127"/>
+      <c r="RI1" s="127"/>
+      <c r="RJ1" s="127"/>
+      <c r="RK1" s="127"/>
+      <c r="RL1" s="127"/>
+      <c r="RM1" s="127"/>
+      <c r="RN1" s="127"/>
+      <c r="RO1" s="127"/>
+      <c r="RP1" s="127"/>
+      <c r="RQ1" s="127"/>
+      <c r="RR1" s="127"/>
+      <c r="RS1" s="127"/>
+      <c r="RT1" s="127"/>
+      <c r="RU1" s="127"/>
+      <c r="RV1" s="127"/>
+      <c r="RW1" s="127"/>
+      <c r="RX1" s="127"/>
+      <c r="RY1" s="127"/>
+      <c r="RZ1" s="127"/>
+      <c r="SA1" s="127"/>
+      <c r="SB1" s="127"/>
+      <c r="SC1" s="127"/>
+      <c r="SD1" s="127"/>
+      <c r="SE1" s="127"/>
+      <c r="SF1" s="127"/>
+      <c r="SG1" s="127"/>
+      <c r="SH1" s="127"/>
+      <c r="SI1" s="127"/>
+      <c r="SJ1" s="127"/>
+      <c r="SK1" s="127"/>
+      <c r="SL1" s="127"/>
+      <c r="SM1" s="127"/>
+      <c r="SN1" s="127"/>
+      <c r="SO1" s="127"/>
+      <c r="SP1" s="127"/>
+      <c r="SQ1" s="127"/>
+      <c r="SR1" s="127"/>
+      <c r="SS1" s="127"/>
+      <c r="ST1" s="127"/>
+      <c r="SU1" s="127"/>
+      <c r="SV1" s="127"/>
+      <c r="SW1" s="127"/>
+      <c r="SX1" s="127"/>
+      <c r="SY1" s="127"/>
+      <c r="SZ1" s="127"/>
+      <c r="TA1" s="127"/>
+      <c r="TB1" s="127"/>
+      <c r="TC1" s="127"/>
+      <c r="TD1" s="127"/>
+      <c r="TE1" s="127"/>
+      <c r="TF1" s="127"/>
+      <c r="TG1" s="127"/>
+      <c r="TH1" s="127"/>
+      <c r="TI1" s="127"/>
+      <c r="TJ1" s="127"/>
+      <c r="TK1" s="127"/>
+      <c r="TL1" s="127"/>
+      <c r="TM1" s="127"/>
+      <c r="TN1" s="127"/>
+      <c r="TO1" s="127"/>
+      <c r="TP1" s="127"/>
+      <c r="TQ1" s="127"/>
+      <c r="TR1" s="127"/>
+      <c r="TS1" s="127"/>
+      <c r="TT1" s="127"/>
+      <c r="TU1" s="127"/>
+      <c r="TV1" s="127"/>
+      <c r="TW1" s="127"/>
+      <c r="TX1" s="127"/>
+      <c r="TY1" s="127"/>
+      <c r="TZ1" s="127"/>
+      <c r="UA1" s="127"/>
+      <c r="UB1" s="127"/>
+      <c r="UC1" s="127"/>
+      <c r="UD1" s="127"/>
+      <c r="UE1" s="127"/>
+      <c r="UF1" s="127"/>
+      <c r="UG1" s="127"/>
+      <c r="UH1" s="127"/>
+      <c r="UI1" s="127"/>
+      <c r="UJ1" s="127"/>
+      <c r="UK1" s="127"/>
+      <c r="UL1" s="127"/>
+      <c r="UM1" s="127"/>
+      <c r="UN1" s="127"/>
+      <c r="UO1" s="127"/>
+      <c r="UP1" s="127"/>
+      <c r="UQ1" s="127"/>
+      <c r="UR1" s="127"/>
+      <c r="US1" s="127"/>
+      <c r="UT1" s="127"/>
+      <c r="UU1" s="127"/>
+      <c r="UV1" s="127"/>
+      <c r="UW1" s="127"/>
+      <c r="UX1" s="127"/>
+      <c r="UY1" s="127"/>
+      <c r="UZ1" s="127"/>
+      <c r="VA1" s="127"/>
+      <c r="VB1" s="127"/>
+      <c r="VC1" s="127"/>
+      <c r="VD1" s="127"/>
+      <c r="VE1" s="127"/>
+      <c r="VF1" s="127"/>
+      <c r="VG1" s="127"/>
+      <c r="VH1" s="127"/>
+      <c r="VI1" s="127"/>
+      <c r="VJ1" s="127"/>
+      <c r="VK1" s="127"/>
+      <c r="VL1" s="127"/>
+      <c r="VM1" s="127"/>
+      <c r="VN1" s="127"/>
+      <c r="VO1" s="127"/>
+      <c r="VP1" s="127"/>
+      <c r="VQ1" s="127"/>
+      <c r="VR1" s="127"/>
+      <c r="VS1" s="127"/>
+      <c r="VT1" s="127"/>
+      <c r="VU1" s="127"/>
+      <c r="VV1" s="127"/>
+      <c r="VW1" s="127"/>
+      <c r="VX1" s="127"/>
+      <c r="VY1" s="127"/>
+      <c r="VZ1" s="127"/>
+      <c r="WA1" s="127"/>
+      <c r="WB1" s="127"/>
+      <c r="WC1" s="127"/>
+      <c r="WD1" s="127"/>
+      <c r="WE1" s="127"/>
+      <c r="WF1" s="127"/>
+      <c r="WG1" s="127"/>
+      <c r="WH1" s="127"/>
+      <c r="WI1" s="127"/>
+      <c r="WJ1" s="127"/>
+      <c r="WK1" s="127"/>
+      <c r="WL1" s="127"/>
+      <c r="WM1" s="127"/>
+      <c r="WN1" s="127"/>
+      <c r="WO1" s="127"/>
+      <c r="WP1" s="127"/>
+      <c r="WQ1" s="127"/>
+      <c r="WR1" s="127"/>
+      <c r="WS1" s="127"/>
+      <c r="WT1" s="127"/>
+      <c r="WU1" s="127"/>
+      <c r="WV1" s="127"/>
+      <c r="WW1" s="127"/>
+      <c r="WX1" s="127"/>
+      <c r="WY1" s="127"/>
+      <c r="WZ1" s="127"/>
+      <c r="XA1" s="127"/>
+      <c r="XB1" s="127"/>
+      <c r="XC1" s="127"/>
+      <c r="XD1" s="127"/>
+      <c r="XE1" s="127"/>
+      <c r="XF1" s="127"/>
+      <c r="XG1" s="127"/>
+      <c r="XH1" s="127"/>
+      <c r="XI1" s="127"/>
+      <c r="XJ1" s="127"/>
+      <c r="XK1" s="127"/>
+      <c r="XL1" s="127"/>
+      <c r="XM1" s="127"/>
+      <c r="XN1" s="127"/>
+      <c r="XO1" s="127"/>
+      <c r="XP1" s="127"/>
+      <c r="XQ1" s="127"/>
+      <c r="XR1" s="127"/>
+      <c r="XS1" s="127"/>
+      <c r="XT1" s="127"/>
+      <c r="XU1" s="127"/>
+      <c r="XV1" s="127"/>
+      <c r="XW1" s="127"/>
+      <c r="XX1" s="127"/>
+      <c r="XY1" s="127"/>
+      <c r="XZ1" s="127"/>
+      <c r="YA1" s="127"/>
+      <c r="YB1" s="127"/>
+      <c r="YC1" s="127"/>
+      <c r="YD1" s="127"/>
+      <c r="YE1" s="127"/>
+      <c r="YF1" s="127"/>
+      <c r="YG1" s="127"/>
+      <c r="YH1" s="127"/>
+      <c r="YI1" s="127"/>
+      <c r="YJ1" s="127"/>
+      <c r="YK1" s="127"/>
+      <c r="YL1" s="127"/>
+      <c r="YM1" s="127"/>
+      <c r="YN1" s="127"/>
+      <c r="YO1" s="127"/>
+      <c r="YP1" s="127"/>
+      <c r="YQ1" s="127"/>
+      <c r="YR1" s="127"/>
+      <c r="YS1" s="127"/>
+      <c r="YT1" s="127"/>
+      <c r="YU1" s="127"/>
+      <c r="YV1" s="127"/>
+      <c r="YW1" s="127"/>
+      <c r="YX1" s="127"/>
+      <c r="YY1" s="127"/>
+      <c r="YZ1" s="127"/>
+      <c r="ZA1" s="127"/>
+      <c r="ZB1" s="127"/>
+      <c r="ZC1" s="127"/>
+      <c r="ZD1" s="127"/>
+      <c r="ZE1" s="127"/>
+      <c r="ZF1" s="127"/>
+      <c r="ZG1" s="127"/>
+      <c r="ZH1" s="127"/>
+      <c r="ZI1" s="127"/>
+      <c r="ZJ1" s="127"/>
+      <c r="ZK1" s="127"/>
+      <c r="ZL1" s="127"/>
+      <c r="ZM1" s="127"/>
+      <c r="ZN1" s="127"/>
+      <c r="ZO1" s="127"/>
+      <c r="ZP1" s="127"/>
+      <c r="ZQ1" s="127"/>
+      <c r="ZR1" s="127"/>
+      <c r="ZS1" s="127"/>
+      <c r="ZT1" s="127"/>
+      <c r="ZU1" s="127"/>
+      <c r="ZV1" s="127"/>
+      <c r="ZW1" s="127"/>
+      <c r="ZX1" s="127"/>
+      <c r="ZY1" s="127"/>
+      <c r="ZZ1" s="127"/>
+      <c r="AAA1" s="127"/>
+      <c r="AAB1" s="127"/>
+      <c r="AAC1" s="127"/>
+      <c r="AAD1" s="127"/>
+      <c r="AAE1" s="127"/>
+      <c r="AAF1" s="127"/>
+      <c r="AAG1" s="127"/>
+      <c r="AAH1" s="127"/>
+      <c r="AAI1" s="127"/>
+      <c r="AAJ1" s="127"/>
+      <c r="AAK1" s="128"/>
+      <c r="AAL1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="AAM1" s="132"/>
-      <c r="AAN1" s="132"/>
-      <c r="AAO1" s="132"/>
-      <c r="AAP1" s="132"/>
-      <c r="AAQ1" s="132"/>
-      <c r="AAR1" s="132"/>
-      <c r="AAS1" s="132"/>
-      <c r="AAT1" s="132"/>
-      <c r="AAU1" s="133"/>
-      <c r="AAV1" s="116" t="s">
+      <c r="AAM1" s="65"/>
+      <c r="AAN1" s="65"/>
+      <c r="AAO1" s="65"/>
+      <c r="AAP1" s="65"/>
+      <c r="AAQ1" s="65"/>
+      <c r="AAR1" s="65"/>
+      <c r="AAS1" s="65"/>
+      <c r="AAT1" s="65"/>
+      <c r="AAU1" s="66"/>
+      <c r="AAV1" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="AAW1" s="123" t="s">
+      <c r="AAW1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="AAX1" s="124"/>
-      <c r="AAY1" s="124"/>
-      <c r="AAZ1" s="125"/>
-      <c r="ABA1" s="138" t="s">
+      <c r="AAX1" s="57"/>
+      <c r="AAY1" s="57"/>
+      <c r="AAZ1" s="58"/>
+      <c r="ABA1" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="ABB1" s="139"/>
-      <c r="ABC1" s="139"/>
-      <c r="ABD1" s="139"/>
-      <c r="ABE1" s="139"/>
-      <c r="ABF1" s="139"/>
-      <c r="ABG1" s="139"/>
-      <c r="ABH1" s="139"/>
-      <c r="ABI1" s="139"/>
-      <c r="ABJ1" s="139"/>
-      <c r="ABK1" s="139"/>
-      <c r="ABL1" s="139"/>
-      <c r="ABM1" s="139"/>
-      <c r="ABN1" s="139"/>
-      <c r="ABO1" s="139"/>
-      <c r="ABP1" s="139"/>
-      <c r="ABQ1" s="139"/>
-      <c r="ABR1" s="139"/>
-      <c r="ABS1" s="139"/>
-      <c r="ABT1" s="139"/>
-      <c r="ABU1" s="139"/>
-      <c r="ABV1" s="139"/>
-      <c r="ABW1" s="139"/>
-      <c r="ABX1" s="139"/>
-      <c r="ABY1" s="139"/>
-      <c r="ABZ1" s="139"/>
-      <c r="ACA1" s="139"/>
-      <c r="ACB1" s="139"/>
-      <c r="ACC1" s="139"/>
-      <c r="ACD1" s="140"/>
-      <c r="ACE1" s="144" t="s">
+      <c r="ABB1" s="72"/>
+      <c r="ABC1" s="72"/>
+      <c r="ABD1" s="72"/>
+      <c r="ABE1" s="72"/>
+      <c r="ABF1" s="72"/>
+      <c r="ABG1" s="72"/>
+      <c r="ABH1" s="72"/>
+      <c r="ABI1" s="72"/>
+      <c r="ABJ1" s="72"/>
+      <c r="ABK1" s="72"/>
+      <c r="ABL1" s="72"/>
+      <c r="ABM1" s="72"/>
+      <c r="ABN1" s="72"/>
+      <c r="ABO1" s="72"/>
+      <c r="ABP1" s="72"/>
+      <c r="ABQ1" s="72"/>
+      <c r="ABR1" s="72"/>
+      <c r="ABS1" s="72"/>
+      <c r="ABT1" s="72"/>
+      <c r="ABU1" s="72"/>
+      <c r="ABV1" s="72"/>
+      <c r="ABW1" s="72"/>
+      <c r="ABX1" s="72"/>
+      <c r="ABY1" s="72"/>
+      <c r="ABZ1" s="72"/>
+      <c r="ACA1" s="72"/>
+      <c r="ACB1" s="72"/>
+      <c r="ACC1" s="72"/>
+      <c r="ACD1" s="73"/>
+      <c r="ACE1" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="ACF1" s="144"/>
-      <c r="ACG1" s="144"/>
-      <c r="ACH1" s="144"/>
-      <c r="ACI1" s="144"/>
-      <c r="ACJ1" s="144"/>
-      <c r="ACK1" s="144"/>
-      <c r="ACL1" s="144"/>
-      <c r="ACM1" s="144"/>
-      <c r="ACN1" s="145"/>
-      <c r="ACO1" s="57" t="s">
+      <c r="ACF1" s="77"/>
+      <c r="ACG1" s="77"/>
+      <c r="ACH1" s="77"/>
+      <c r="ACI1" s="77"/>
+      <c r="ACJ1" s="77"/>
+      <c r="ACK1" s="77"/>
+      <c r="ACL1" s="77"/>
+      <c r="ACM1" s="77"/>
+      <c r="ACN1" s="78"/>
+      <c r="ACO1" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="ACP1" s="58"/>
-      <c r="ACQ1" s="58"/>
-      <c r="ACR1" s="58"/>
-      <c r="ACS1" s="58"/>
-      <c r="ACT1" s="58"/>
-      <c r="ACU1" s="58"/>
-      <c r="ACV1" s="58"/>
-      <c r="ACW1" s="58"/>
-      <c r="ACX1" s="58"/>
-      <c r="ACY1" s="58"/>
-      <c r="ACZ1" s="58"/>
-      <c r="ADA1" s="58"/>
-      <c r="ADB1" s="58"/>
-      <c r="ADC1" s="58"/>
-      <c r="ADD1" s="58"/>
-      <c r="ADE1" s="58"/>
-      <c r="ADF1" s="58"/>
-      <c r="ADG1" s="58"/>
-      <c r="ADH1" s="58"/>
-      <c r="ADI1" s="58"/>
-      <c r="ADJ1" s="58"/>
-      <c r="ADK1" s="58"/>
-      <c r="ADL1" s="58"/>
-      <c r="ADM1" s="58"/>
-      <c r="ADN1" s="58"/>
-      <c r="ADO1" s="58"/>
-      <c r="ADP1" s="58"/>
-      <c r="ADQ1" s="58"/>
-      <c r="ADR1" s="58"/>
-      <c r="ADS1" s="58"/>
-      <c r="ADT1" s="58"/>
-      <c r="ADU1" s="58"/>
-      <c r="ADV1" s="58"/>
-      <c r="ADW1" s="58"/>
-      <c r="ADX1" s="58"/>
-      <c r="ADY1" s="58"/>
-      <c r="ADZ1" s="58"/>
-      <c r="AEA1" s="58"/>
-      <c r="AEB1" s="58"/>
-      <c r="AEC1" s="58"/>
-      <c r="AED1" s="58"/>
-      <c r="AEE1" s="58"/>
-      <c r="AEF1" s="58"/>
-      <c r="AEG1" s="58"/>
-      <c r="AEH1" s="58"/>
-      <c r="AEI1" s="58"/>
-      <c r="AEJ1" s="58"/>
-      <c r="AEK1" s="58"/>
-      <c r="AEL1" s="58"/>
-      <c r="AEM1" s="58"/>
-      <c r="AEN1" s="58"/>
-      <c r="AEO1" s="58"/>
-      <c r="AEP1" s="58"/>
-      <c r="AEQ1" s="58"/>
-      <c r="AER1" s="58"/>
-      <c r="AES1" s="58"/>
-      <c r="AET1" s="58"/>
-      <c r="AEU1" s="58"/>
-      <c r="AEV1" s="58"/>
-      <c r="AEW1" s="58"/>
-      <c r="AEX1" s="58"/>
-      <c r="AEY1" s="58"/>
-      <c r="AEZ1" s="58"/>
-      <c r="AFA1" s="58"/>
-      <c r="AFB1" s="58"/>
-      <c r="AFC1" s="58"/>
-      <c r="AFD1" s="58"/>
-      <c r="AFE1" s="58"/>
-      <c r="AFF1" s="58"/>
-      <c r="AFG1" s="58"/>
-      <c r="AFH1" s="58"/>
-      <c r="AFI1" s="58"/>
-      <c r="AFJ1" s="58"/>
-      <c r="AFK1" s="58"/>
-      <c r="AFL1" s="58"/>
-      <c r="AFM1" s="58"/>
-      <c r="AFN1" s="58"/>
-      <c r="AFO1" s="58"/>
-      <c r="AFP1" s="58"/>
-      <c r="AFQ1" s="58"/>
-      <c r="AFR1" s="58"/>
-      <c r="AFS1" s="58"/>
-      <c r="AFT1" s="58"/>
-      <c r="AFU1" s="58"/>
-      <c r="AFV1" s="58"/>
-      <c r="AFW1" s="58"/>
-      <c r="AFX1" s="58"/>
-      <c r="AFY1" s="58"/>
-      <c r="AFZ1" s="58"/>
-      <c r="AGA1" s="58"/>
-      <c r="AGB1" s="58"/>
-      <c r="AGC1" s="58"/>
-      <c r="AGD1" s="58"/>
-      <c r="AGE1" s="58"/>
-      <c r="AGF1" s="58"/>
-      <c r="AGG1" s="58"/>
-      <c r="AGH1" s="58"/>
-      <c r="AGI1" s="58"/>
-      <c r="AGJ1" s="58"/>
-      <c r="AGK1" s="58"/>
-      <c r="AGL1" s="58"/>
-      <c r="AGM1" s="58"/>
-      <c r="AGN1" s="58"/>
-      <c r="AGO1" s="58"/>
-      <c r="AGP1" s="58"/>
-      <c r="AGQ1" s="58"/>
-      <c r="AGR1" s="58"/>
-      <c r="AGS1" s="58"/>
-      <c r="AGT1" s="58"/>
-      <c r="AGU1" s="58"/>
-      <c r="AGV1" s="58"/>
-      <c r="AGW1" s="58"/>
-      <c r="AGX1" s="58"/>
-      <c r="AGY1" s="58"/>
-      <c r="AGZ1" s="58"/>
-      <c r="AHA1" s="58"/>
-      <c r="AHB1" s="58"/>
-      <c r="AHC1" s="58"/>
-      <c r="AHD1" s="58"/>
-      <c r="AHE1" s="58"/>
-      <c r="AHF1" s="58"/>
-      <c r="AHG1" s="58"/>
-      <c r="AHH1" s="58"/>
-      <c r="AHI1" s="58"/>
-      <c r="AHJ1" s="58"/>
-      <c r="AHK1" s="58"/>
-      <c r="AHL1" s="58"/>
-      <c r="AHM1" s="58"/>
-      <c r="AHN1" s="58"/>
-      <c r="AHO1" s="58"/>
-      <c r="AHP1" s="58"/>
-      <c r="AHQ1" s="58"/>
-      <c r="AHR1" s="58"/>
-      <c r="AHS1" s="58"/>
-      <c r="AHT1" s="58"/>
-      <c r="AHU1" s="58"/>
-      <c r="AHV1" s="58"/>
-      <c r="AHW1" s="58"/>
-      <c r="AHX1" s="58"/>
-      <c r="AHY1" s="58"/>
-      <c r="AHZ1" s="58"/>
-      <c r="AIA1" s="58"/>
-      <c r="AIB1" s="58"/>
-      <c r="AIC1" s="58"/>
-      <c r="AID1" s="58"/>
-      <c r="AIE1" s="58"/>
-      <c r="AIF1" s="58"/>
-      <c r="AIG1" s="58"/>
-      <c r="AIH1" s="58"/>
-      <c r="AII1" s="58"/>
-      <c r="AIJ1" s="58"/>
-      <c r="AIK1" s="58"/>
-      <c r="AIL1" s="58"/>
-      <c r="AIM1" s="58"/>
-      <c r="AIN1" s="58"/>
-      <c r="AIO1" s="58"/>
-      <c r="AIP1" s="58"/>
-      <c r="AIQ1" s="58"/>
-      <c r="AIR1" s="58"/>
-      <c r="AIS1" s="58"/>
-      <c r="AIT1" s="58"/>
-      <c r="AIU1" s="58"/>
-      <c r="AIV1" s="58"/>
-      <c r="AIW1" s="58"/>
-      <c r="AIX1" s="58"/>
-      <c r="AIY1" s="58"/>
-      <c r="AIZ1" s="58"/>
-      <c r="AJA1" s="58"/>
-      <c r="AJB1" s="58"/>
-      <c r="AJC1" s="58"/>
-      <c r="AJD1" s="58"/>
-      <c r="AJE1" s="58"/>
-      <c r="AJF1" s="58"/>
-      <c r="AJG1" s="58"/>
-      <c r="AJH1" s="58"/>
-      <c r="AJI1" s="58"/>
-      <c r="AJJ1" s="58"/>
-      <c r="AJK1" s="58"/>
-      <c r="AJL1" s="58"/>
-      <c r="AJM1" s="58"/>
-      <c r="AJN1" s="58"/>
-      <c r="AJO1" s="58"/>
-      <c r="AJP1" s="58"/>
-      <c r="AJQ1" s="58"/>
-      <c r="AJR1" s="58"/>
-      <c r="AJS1" s="58"/>
-      <c r="AJT1" s="58"/>
-      <c r="AJU1" s="58"/>
-      <c r="AJV1" s="58"/>
-      <c r="AJW1" s="58"/>
-      <c r="AJX1" s="58"/>
-      <c r="AJY1" s="58"/>
-      <c r="AJZ1" s="58"/>
-      <c r="AKA1" s="58"/>
-      <c r="AKB1" s="58"/>
-      <c r="AKC1" s="58"/>
-      <c r="AKD1" s="58"/>
-      <c r="AKE1" s="58"/>
-      <c r="AKF1" s="58"/>
-      <c r="AKG1" s="58"/>
-      <c r="AKH1" s="58"/>
-      <c r="AKI1" s="58"/>
-      <c r="AKJ1" s="58"/>
-      <c r="AKK1" s="58"/>
-      <c r="AKL1" s="58"/>
-      <c r="AKM1" s="58"/>
-      <c r="AKN1" s="58"/>
-      <c r="AKO1" s="58"/>
-      <c r="AKP1" s="58"/>
-      <c r="AKQ1" s="58"/>
-      <c r="AKR1" s="58"/>
-      <c r="AKS1" s="58"/>
-      <c r="AKT1" s="58"/>
-      <c r="AKU1" s="58"/>
-      <c r="AKV1" s="58"/>
-      <c r="AKW1" s="58"/>
-      <c r="AKX1" s="58"/>
-      <c r="AKY1" s="58"/>
-      <c r="AKZ1" s="58"/>
-      <c r="ALA1" s="58"/>
-      <c r="ALB1" s="58"/>
-      <c r="ALC1" s="58"/>
-      <c r="ALD1" s="58"/>
-      <c r="ALE1" s="58"/>
-      <c r="ALF1" s="58"/>
-      <c r="ALG1" s="58"/>
-      <c r="ALH1" s="58"/>
-      <c r="ALI1" s="58"/>
-      <c r="ALJ1" s="58"/>
-      <c r="ALK1" s="58"/>
-      <c r="ALL1" s="58"/>
-      <c r="ALM1" s="58"/>
-      <c r="ALN1" s="58"/>
-      <c r="ALO1" s="58"/>
-      <c r="ALP1" s="58"/>
-      <c r="ALQ1" s="58"/>
-      <c r="ALR1" s="58"/>
-      <c r="ALS1" s="58"/>
-      <c r="ALT1" s="58"/>
-      <c r="ALU1" s="58"/>
-      <c r="ALV1" s="58"/>
-      <c r="ALW1" s="58"/>
-      <c r="ALX1" s="58"/>
-      <c r="ALY1" s="58"/>
-      <c r="ALZ1" s="58"/>
-      <c r="AMA1" s="58"/>
-      <c r="AMB1" s="58"/>
-      <c r="AMC1" s="58"/>
-      <c r="AMD1" s="58"/>
-      <c r="AME1" s="58"/>
-      <c r="AMF1" s="58"/>
-      <c r="AMG1" s="58"/>
-      <c r="AMH1" s="58"/>
-      <c r="AMI1" s="58"/>
-      <c r="AMJ1" s="58"/>
-      <c r="AMK1" s="58"/>
-      <c r="AML1" s="58"/>
-      <c r="AMM1" s="58"/>
-      <c r="AMN1" s="58"/>
-      <c r="AMO1" s="58"/>
-      <c r="AMP1" s="58"/>
-      <c r="AMQ1" s="58"/>
-      <c r="AMR1" s="58"/>
-      <c r="AMS1" s="58"/>
-      <c r="AMT1" s="58"/>
-      <c r="AMU1" s="58"/>
-      <c r="AMV1" s="58"/>
-      <c r="AMW1" s="58"/>
-      <c r="AMX1" s="58"/>
-      <c r="AMY1" s="58"/>
-      <c r="AMZ1" s="58"/>
-      <c r="ANA1" s="58"/>
-      <c r="ANB1" s="58"/>
-      <c r="ANC1" s="58"/>
-      <c r="AND1" s="58"/>
-      <c r="ANE1" s="58"/>
-      <c r="ANF1" s="58"/>
-      <c r="ANG1" s="58"/>
-      <c r="ANH1" s="58"/>
-      <c r="ANI1" s="58"/>
-      <c r="ANJ1" s="58"/>
-      <c r="ANK1" s="58"/>
-      <c r="ANL1" s="58"/>
-      <c r="ANM1" s="58"/>
-      <c r="ANN1" s="58"/>
-      <c r="ANO1" s="58"/>
-      <c r="ANP1" s="58"/>
-      <c r="ANQ1" s="58"/>
-      <c r="ANR1" s="58"/>
-      <c r="ANS1" s="58"/>
-      <c r="ANT1" s="58"/>
-      <c r="ANU1" s="58"/>
-      <c r="ANV1" s="58"/>
-      <c r="ANW1" s="58"/>
-      <c r="ANX1" s="58"/>
-      <c r="ANY1" s="58"/>
-      <c r="ANZ1" s="58"/>
-      <c r="AOA1" s="58"/>
-      <c r="AOB1" s="59"/>
-      <c r="AOC1" s="118" t="s">
+      <c r="ACP1" s="130"/>
+      <c r="ACQ1" s="130"/>
+      <c r="ACR1" s="130"/>
+      <c r="ACS1" s="130"/>
+      <c r="ACT1" s="130"/>
+      <c r="ACU1" s="130"/>
+      <c r="ACV1" s="130"/>
+      <c r="ACW1" s="130"/>
+      <c r="ACX1" s="130"/>
+      <c r="ACY1" s="130"/>
+      <c r="ACZ1" s="130"/>
+      <c r="ADA1" s="130"/>
+      <c r="ADB1" s="130"/>
+      <c r="ADC1" s="130"/>
+      <c r="ADD1" s="130"/>
+      <c r="ADE1" s="130"/>
+      <c r="ADF1" s="130"/>
+      <c r="ADG1" s="130"/>
+      <c r="ADH1" s="130"/>
+      <c r="ADI1" s="130"/>
+      <c r="ADJ1" s="130"/>
+      <c r="ADK1" s="130"/>
+      <c r="ADL1" s="130"/>
+      <c r="ADM1" s="130"/>
+      <c r="ADN1" s="130"/>
+      <c r="ADO1" s="130"/>
+      <c r="ADP1" s="130"/>
+      <c r="ADQ1" s="130"/>
+      <c r="ADR1" s="130"/>
+      <c r="ADS1" s="130"/>
+      <c r="ADT1" s="130"/>
+      <c r="ADU1" s="130"/>
+      <c r="ADV1" s="130"/>
+      <c r="ADW1" s="130"/>
+      <c r="ADX1" s="130"/>
+      <c r="ADY1" s="130"/>
+      <c r="ADZ1" s="130"/>
+      <c r="AEA1" s="130"/>
+      <c r="AEB1" s="130"/>
+      <c r="AEC1" s="130"/>
+      <c r="AED1" s="130"/>
+      <c r="AEE1" s="130"/>
+      <c r="AEF1" s="130"/>
+      <c r="AEG1" s="130"/>
+      <c r="AEH1" s="130"/>
+      <c r="AEI1" s="130"/>
+      <c r="AEJ1" s="130"/>
+      <c r="AEK1" s="130"/>
+      <c r="AEL1" s="130"/>
+      <c r="AEM1" s="130"/>
+      <c r="AEN1" s="130"/>
+      <c r="AEO1" s="130"/>
+      <c r="AEP1" s="130"/>
+      <c r="AEQ1" s="130"/>
+      <c r="AER1" s="130"/>
+      <c r="AES1" s="130"/>
+      <c r="AET1" s="130"/>
+      <c r="AEU1" s="130"/>
+      <c r="AEV1" s="130"/>
+      <c r="AEW1" s="130"/>
+      <c r="AEX1" s="130"/>
+      <c r="AEY1" s="130"/>
+      <c r="AEZ1" s="130"/>
+      <c r="AFA1" s="130"/>
+      <c r="AFB1" s="130"/>
+      <c r="AFC1" s="130"/>
+      <c r="AFD1" s="130"/>
+      <c r="AFE1" s="130"/>
+      <c r="AFF1" s="130"/>
+      <c r="AFG1" s="130"/>
+      <c r="AFH1" s="130"/>
+      <c r="AFI1" s="130"/>
+      <c r="AFJ1" s="130"/>
+      <c r="AFK1" s="130"/>
+      <c r="AFL1" s="130"/>
+      <c r="AFM1" s="130"/>
+      <c r="AFN1" s="130"/>
+      <c r="AFO1" s="130"/>
+      <c r="AFP1" s="130"/>
+      <c r="AFQ1" s="130"/>
+      <c r="AFR1" s="130"/>
+      <c r="AFS1" s="130"/>
+      <c r="AFT1" s="130"/>
+      <c r="AFU1" s="130"/>
+      <c r="AFV1" s="130"/>
+      <c r="AFW1" s="130"/>
+      <c r="AFX1" s="130"/>
+      <c r="AFY1" s="130"/>
+      <c r="AFZ1" s="130"/>
+      <c r="AGA1" s="130"/>
+      <c r="AGB1" s="130"/>
+      <c r="AGC1" s="130"/>
+      <c r="AGD1" s="130"/>
+      <c r="AGE1" s="130"/>
+      <c r="AGF1" s="130"/>
+      <c r="AGG1" s="130"/>
+      <c r="AGH1" s="130"/>
+      <c r="AGI1" s="130"/>
+      <c r="AGJ1" s="130"/>
+      <c r="AGK1" s="130"/>
+      <c r="AGL1" s="130"/>
+      <c r="AGM1" s="130"/>
+      <c r="AGN1" s="130"/>
+      <c r="AGO1" s="130"/>
+      <c r="AGP1" s="130"/>
+      <c r="AGQ1" s="130"/>
+      <c r="AGR1" s="130"/>
+      <c r="AGS1" s="130"/>
+      <c r="AGT1" s="130"/>
+      <c r="AGU1" s="130"/>
+      <c r="AGV1" s="130"/>
+      <c r="AGW1" s="130"/>
+      <c r="AGX1" s="130"/>
+      <c r="AGY1" s="130"/>
+      <c r="AGZ1" s="130"/>
+      <c r="AHA1" s="130"/>
+      <c r="AHB1" s="130"/>
+      <c r="AHC1" s="130"/>
+      <c r="AHD1" s="130"/>
+      <c r="AHE1" s="130"/>
+      <c r="AHF1" s="130"/>
+      <c r="AHG1" s="130"/>
+      <c r="AHH1" s="130"/>
+      <c r="AHI1" s="130"/>
+      <c r="AHJ1" s="130"/>
+      <c r="AHK1" s="130"/>
+      <c r="AHL1" s="130"/>
+      <c r="AHM1" s="130"/>
+      <c r="AHN1" s="130"/>
+      <c r="AHO1" s="130"/>
+      <c r="AHP1" s="130"/>
+      <c r="AHQ1" s="130"/>
+      <c r="AHR1" s="130"/>
+      <c r="AHS1" s="130"/>
+      <c r="AHT1" s="130"/>
+      <c r="AHU1" s="130"/>
+      <c r="AHV1" s="130"/>
+      <c r="AHW1" s="130"/>
+      <c r="AHX1" s="130"/>
+      <c r="AHY1" s="130"/>
+      <c r="AHZ1" s="130"/>
+      <c r="AIA1" s="130"/>
+      <c r="AIB1" s="130"/>
+      <c r="AIC1" s="130"/>
+      <c r="AID1" s="130"/>
+      <c r="AIE1" s="130"/>
+      <c r="AIF1" s="130"/>
+      <c r="AIG1" s="130"/>
+      <c r="AIH1" s="130"/>
+      <c r="AII1" s="130"/>
+      <c r="AIJ1" s="130"/>
+      <c r="AIK1" s="130"/>
+      <c r="AIL1" s="130"/>
+      <c r="AIM1" s="130"/>
+      <c r="AIN1" s="130"/>
+      <c r="AIO1" s="130"/>
+      <c r="AIP1" s="130"/>
+      <c r="AIQ1" s="130"/>
+      <c r="AIR1" s="130"/>
+      <c r="AIS1" s="130"/>
+      <c r="AIT1" s="130"/>
+      <c r="AIU1" s="130"/>
+      <c r="AIV1" s="130"/>
+      <c r="AIW1" s="130"/>
+      <c r="AIX1" s="130"/>
+      <c r="AIY1" s="130"/>
+      <c r="AIZ1" s="130"/>
+      <c r="AJA1" s="130"/>
+      <c r="AJB1" s="130"/>
+      <c r="AJC1" s="130"/>
+      <c r="AJD1" s="130"/>
+      <c r="AJE1" s="130"/>
+      <c r="AJF1" s="130"/>
+      <c r="AJG1" s="130"/>
+      <c r="AJH1" s="130"/>
+      <c r="AJI1" s="130"/>
+      <c r="AJJ1" s="130"/>
+      <c r="AJK1" s="130"/>
+      <c r="AJL1" s="130"/>
+      <c r="AJM1" s="130"/>
+      <c r="AJN1" s="130"/>
+      <c r="AJO1" s="130"/>
+      <c r="AJP1" s="130"/>
+      <c r="AJQ1" s="130"/>
+      <c r="AJR1" s="130"/>
+      <c r="AJS1" s="130"/>
+      <c r="AJT1" s="130"/>
+      <c r="AJU1" s="130"/>
+      <c r="AJV1" s="130"/>
+      <c r="AJW1" s="130"/>
+      <c r="AJX1" s="130"/>
+      <c r="AJY1" s="130"/>
+      <c r="AJZ1" s="130"/>
+      <c r="AKA1" s="130"/>
+      <c r="AKB1" s="130"/>
+      <c r="AKC1" s="130"/>
+      <c r="AKD1" s="130"/>
+      <c r="AKE1" s="130"/>
+      <c r="AKF1" s="130"/>
+      <c r="AKG1" s="130"/>
+      <c r="AKH1" s="130"/>
+      <c r="AKI1" s="130"/>
+      <c r="AKJ1" s="130"/>
+      <c r="AKK1" s="130"/>
+      <c r="AKL1" s="130"/>
+      <c r="AKM1" s="130"/>
+      <c r="AKN1" s="130"/>
+      <c r="AKO1" s="130"/>
+      <c r="AKP1" s="130"/>
+      <c r="AKQ1" s="130"/>
+      <c r="AKR1" s="130"/>
+      <c r="AKS1" s="130"/>
+      <c r="AKT1" s="130"/>
+      <c r="AKU1" s="130"/>
+      <c r="AKV1" s="130"/>
+      <c r="AKW1" s="130"/>
+      <c r="AKX1" s="130"/>
+      <c r="AKY1" s="130"/>
+      <c r="AKZ1" s="130"/>
+      <c r="ALA1" s="130"/>
+      <c r="ALB1" s="130"/>
+      <c r="ALC1" s="130"/>
+      <c r="ALD1" s="130"/>
+      <c r="ALE1" s="130"/>
+      <c r="ALF1" s="130"/>
+      <c r="ALG1" s="130"/>
+      <c r="ALH1" s="130"/>
+      <c r="ALI1" s="130"/>
+      <c r="ALJ1" s="130"/>
+      <c r="ALK1" s="130"/>
+      <c r="ALL1" s="130"/>
+      <c r="ALM1" s="130"/>
+      <c r="ALN1" s="130"/>
+      <c r="ALO1" s="130"/>
+      <c r="ALP1" s="130"/>
+      <c r="ALQ1" s="130"/>
+      <c r="ALR1" s="130"/>
+      <c r="ALS1" s="130"/>
+      <c r="ALT1" s="130"/>
+      <c r="ALU1" s="130"/>
+      <c r="ALV1" s="130"/>
+      <c r="ALW1" s="130"/>
+      <c r="ALX1" s="130"/>
+      <c r="ALY1" s="130"/>
+      <c r="ALZ1" s="130"/>
+      <c r="AMA1" s="130"/>
+      <c r="AMB1" s="130"/>
+      <c r="AMC1" s="130"/>
+      <c r="AMD1" s="130"/>
+      <c r="AME1" s="130"/>
+      <c r="AMF1" s="130"/>
+      <c r="AMG1" s="130"/>
+      <c r="AMH1" s="130"/>
+      <c r="AMI1" s="130"/>
+      <c r="AMJ1" s="130"/>
+      <c r="AMK1" s="130"/>
+      <c r="AML1" s="130"/>
+      <c r="AMM1" s="130"/>
+      <c r="AMN1" s="130"/>
+      <c r="AMO1" s="130"/>
+      <c r="AMP1" s="130"/>
+      <c r="AMQ1" s="130"/>
+      <c r="AMR1" s="130"/>
+      <c r="AMS1" s="130"/>
+      <c r="AMT1" s="130"/>
+      <c r="AMU1" s="130"/>
+      <c r="AMV1" s="130"/>
+      <c r="AMW1" s="130"/>
+      <c r="AMX1" s="130"/>
+      <c r="AMY1" s="130"/>
+      <c r="AMZ1" s="130"/>
+      <c r="ANA1" s="130"/>
+      <c r="ANB1" s="130"/>
+      <c r="ANC1" s="130"/>
+      <c r="AND1" s="130"/>
+      <c r="ANE1" s="130"/>
+      <c r="ANF1" s="130"/>
+      <c r="ANG1" s="130"/>
+      <c r="ANH1" s="130"/>
+      <c r="ANI1" s="130"/>
+      <c r="ANJ1" s="130"/>
+      <c r="ANK1" s="130"/>
+      <c r="ANL1" s="130"/>
+      <c r="ANM1" s="130"/>
+      <c r="ANN1" s="130"/>
+      <c r="ANO1" s="130"/>
+      <c r="ANP1" s="130"/>
+      <c r="ANQ1" s="130"/>
+      <c r="ANR1" s="130"/>
+      <c r="ANS1" s="130"/>
+      <c r="ANT1" s="130"/>
+      <c r="ANU1" s="130"/>
+      <c r="ANV1" s="130"/>
+      <c r="ANW1" s="130"/>
+      <c r="ANX1" s="130"/>
+      <c r="ANY1" s="130"/>
+      <c r="ANZ1" s="130"/>
+      <c r="AOA1" s="130"/>
+      <c r="AOB1" s="131"/>
+      <c r="AOC1" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="AOD1" s="146" t="s">
+      <c r="AOD1" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="AOE1" s="137"/>
-      <c r="AOF1" s="137"/>
-      <c r="AOG1" s="137"/>
-      <c r="AOH1" s="147"/>
-      <c r="AOI1" s="119" t="s">
+      <c r="AOE1" s="70"/>
+      <c r="AOF1" s="70"/>
+      <c r="AOG1" s="70"/>
+      <c r="AOH1" s="80"/>
+      <c r="AOI1" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="AOJ1" s="129" t="s">
+      <c r="AOJ1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="AOK1" s="129"/>
-      <c r="AOL1" s="129"/>
-      <c r="AOM1" s="130"/>
-      <c r="AON1" s="138" t="s">
+      <c r="AOK1" s="62"/>
+      <c r="AOL1" s="62"/>
+      <c r="AOM1" s="63"/>
+      <c r="AON1" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="AOO1" s="139"/>
-      <c r="AOP1" s="139"/>
-      <c r="AOQ1" s="139"/>
-      <c r="AOR1" s="139"/>
-      <c r="AOS1" s="139"/>
-      <c r="AOT1" s="139"/>
-      <c r="AOU1" s="139"/>
-      <c r="AOV1" s="139"/>
-      <c r="AOW1" s="139"/>
-      <c r="AOX1" s="139"/>
-      <c r="AOY1" s="139"/>
-      <c r="AOZ1" s="139"/>
-      <c r="APA1" s="139"/>
-      <c r="APB1" s="139"/>
-      <c r="APC1" s="139"/>
-      <c r="APD1" s="139"/>
-      <c r="APE1" s="139"/>
-      <c r="APF1" s="139"/>
-      <c r="APG1" s="139"/>
-      <c r="APH1" s="139"/>
-      <c r="API1" s="139"/>
-      <c r="APJ1" s="139"/>
-      <c r="APK1" s="139"/>
-      <c r="APL1" s="139"/>
-      <c r="APM1" s="139"/>
-      <c r="APN1" s="139"/>
-      <c r="APO1" s="139"/>
-      <c r="APP1" s="139"/>
-      <c r="APQ1" s="140"/>
-      <c r="APR1" s="144" t="s">
+      <c r="AOO1" s="72"/>
+      <c r="AOP1" s="72"/>
+      <c r="AOQ1" s="72"/>
+      <c r="AOR1" s="72"/>
+      <c r="AOS1" s="72"/>
+      <c r="AOT1" s="72"/>
+      <c r="AOU1" s="72"/>
+      <c r="AOV1" s="72"/>
+      <c r="AOW1" s="72"/>
+      <c r="AOX1" s="72"/>
+      <c r="AOY1" s="72"/>
+      <c r="AOZ1" s="72"/>
+      <c r="APA1" s="72"/>
+      <c r="APB1" s="72"/>
+      <c r="APC1" s="72"/>
+      <c r="APD1" s="72"/>
+      <c r="APE1" s="72"/>
+      <c r="APF1" s="72"/>
+      <c r="APG1" s="72"/>
+      <c r="APH1" s="72"/>
+      <c r="API1" s="72"/>
+      <c r="APJ1" s="72"/>
+      <c r="APK1" s="72"/>
+      <c r="APL1" s="72"/>
+      <c r="APM1" s="72"/>
+      <c r="APN1" s="72"/>
+      <c r="APO1" s="72"/>
+      <c r="APP1" s="72"/>
+      <c r="APQ1" s="73"/>
+      <c r="APR1" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="APS1" s="144"/>
-      <c r="APT1" s="144"/>
-      <c r="APU1" s="144"/>
-      <c r="APV1" s="144"/>
-      <c r="APW1" s="144"/>
-      <c r="APX1" s="144"/>
-      <c r="APY1" s="144"/>
-      <c r="APZ1" s="144"/>
-      <c r="AQA1" s="145"/>
-      <c r="AQB1" s="60" t="s">
+      <c r="APS1" s="77"/>
+      <c r="APT1" s="77"/>
+      <c r="APU1" s="77"/>
+      <c r="APV1" s="77"/>
+      <c r="APW1" s="77"/>
+      <c r="APX1" s="77"/>
+      <c r="APY1" s="77"/>
+      <c r="APZ1" s="77"/>
+      <c r="AQA1" s="78"/>
+      <c r="AQB1" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="AQC1" s="61"/>
-      <c r="AQD1" s="61"/>
-      <c r="AQE1" s="61"/>
-      <c r="AQF1" s="61"/>
-      <c r="AQG1" s="61"/>
-      <c r="AQH1" s="61"/>
-      <c r="AQI1" s="61"/>
-      <c r="AQJ1" s="61"/>
-      <c r="AQK1" s="61"/>
-      <c r="AQL1" s="61"/>
-      <c r="AQM1" s="61"/>
-      <c r="AQN1" s="61"/>
-      <c r="AQO1" s="61"/>
-      <c r="AQP1" s="61"/>
-      <c r="AQQ1" s="61"/>
-      <c r="AQR1" s="61"/>
-      <c r="AQS1" s="61"/>
-      <c r="AQT1" s="61"/>
-      <c r="AQU1" s="61"/>
-      <c r="AQV1" s="61"/>
-      <c r="AQW1" s="61"/>
-      <c r="AQX1" s="61"/>
-      <c r="AQY1" s="61"/>
-      <c r="AQZ1" s="61"/>
-      <c r="ARA1" s="61"/>
-      <c r="ARB1" s="61"/>
-      <c r="ARC1" s="61"/>
-      <c r="ARD1" s="61"/>
-      <c r="ARE1" s="61"/>
-      <c r="ARF1" s="61"/>
-      <c r="ARG1" s="61"/>
-      <c r="ARH1" s="61"/>
-      <c r="ARI1" s="61"/>
-      <c r="ARJ1" s="61"/>
-      <c r="ARK1" s="61"/>
-      <c r="ARL1" s="61"/>
-      <c r="ARM1" s="61"/>
-      <c r="ARN1" s="61"/>
-      <c r="ARO1" s="61"/>
-      <c r="ARP1" s="61"/>
-      <c r="ARQ1" s="61"/>
-      <c r="ARR1" s="61"/>
-      <c r="ARS1" s="61"/>
-      <c r="ART1" s="61"/>
-      <c r="ARU1" s="61"/>
-      <c r="ARV1" s="61"/>
-      <c r="ARW1" s="61"/>
-      <c r="ARX1" s="61"/>
-      <c r="ARY1" s="61"/>
-      <c r="ARZ1" s="61"/>
-      <c r="ASA1" s="61"/>
-      <c r="ASB1" s="61"/>
-      <c r="ASC1" s="61"/>
-      <c r="ASD1" s="61"/>
-      <c r="ASE1" s="61"/>
-      <c r="ASF1" s="61"/>
-      <c r="ASG1" s="61"/>
-      <c r="ASH1" s="61"/>
-      <c r="ASI1" s="61"/>
-      <c r="ASJ1" s="61"/>
-      <c r="ASK1" s="61"/>
-      <c r="ASL1" s="61"/>
-      <c r="ASM1" s="61"/>
-      <c r="ASN1" s="61"/>
-      <c r="ASO1" s="61"/>
-      <c r="ASP1" s="61"/>
-      <c r="ASQ1" s="61"/>
-      <c r="ASR1" s="61"/>
-      <c r="ASS1" s="61"/>
-      <c r="AST1" s="61"/>
-      <c r="ASU1" s="61"/>
-      <c r="ASV1" s="61"/>
-      <c r="ASW1" s="61"/>
-      <c r="ASX1" s="61"/>
-      <c r="ASY1" s="61"/>
-      <c r="ASZ1" s="61"/>
-      <c r="ATA1" s="61"/>
-      <c r="ATB1" s="61"/>
-      <c r="ATC1" s="61"/>
-      <c r="ATD1" s="61"/>
-      <c r="ATE1" s="61"/>
-      <c r="ATF1" s="61"/>
-      <c r="ATG1" s="61"/>
-      <c r="ATH1" s="61"/>
-      <c r="ATI1" s="61"/>
-      <c r="ATJ1" s="61"/>
-      <c r="ATK1" s="61"/>
-      <c r="ATL1" s="61"/>
-      <c r="ATM1" s="61"/>
-      <c r="ATN1" s="61"/>
-      <c r="ATO1" s="61"/>
-      <c r="ATP1" s="61"/>
-      <c r="ATQ1" s="61"/>
-      <c r="ATR1" s="61"/>
-      <c r="ATS1" s="61"/>
-      <c r="ATT1" s="61"/>
-      <c r="ATU1" s="61"/>
-      <c r="ATV1" s="61"/>
-      <c r="ATW1" s="61"/>
-      <c r="ATX1" s="61"/>
-      <c r="ATY1" s="61"/>
-      <c r="ATZ1" s="61"/>
-      <c r="AUA1" s="61"/>
-      <c r="AUB1" s="61"/>
-      <c r="AUC1" s="61"/>
-      <c r="AUD1" s="61"/>
-      <c r="AUE1" s="61"/>
-      <c r="AUF1" s="61"/>
-      <c r="AUG1" s="61"/>
-      <c r="AUH1" s="61"/>
-      <c r="AUI1" s="61"/>
-      <c r="AUJ1" s="61"/>
-      <c r="AUK1" s="61"/>
-      <c r="AUL1" s="61"/>
-      <c r="AUM1" s="61"/>
-      <c r="AUN1" s="61"/>
-      <c r="AUO1" s="61"/>
-      <c r="AUP1" s="61"/>
-      <c r="AUQ1" s="61"/>
-      <c r="AUR1" s="61"/>
-      <c r="AUS1" s="61"/>
-      <c r="AUT1" s="61"/>
-      <c r="AUU1" s="61"/>
-      <c r="AUV1" s="61"/>
-      <c r="AUW1" s="61"/>
-      <c r="AUX1" s="61"/>
-      <c r="AUY1" s="61"/>
-      <c r="AUZ1" s="61"/>
-      <c r="AVA1" s="61"/>
-      <c r="AVB1" s="61"/>
-      <c r="AVC1" s="61"/>
-      <c r="AVD1" s="61"/>
-      <c r="AVE1" s="61"/>
-      <c r="AVF1" s="61"/>
-      <c r="AVG1" s="61"/>
-      <c r="AVH1" s="61"/>
-      <c r="AVI1" s="61"/>
-      <c r="AVJ1" s="61"/>
-      <c r="AVK1" s="61"/>
-      <c r="AVL1" s="61"/>
-      <c r="AVM1" s="61"/>
-      <c r="AVN1" s="61"/>
-      <c r="AVO1" s="61"/>
-      <c r="AVP1" s="61"/>
-      <c r="AVQ1" s="61"/>
-      <c r="AVR1" s="61"/>
-      <c r="AVS1" s="61"/>
-      <c r="AVT1" s="61"/>
-      <c r="AVU1" s="61"/>
-      <c r="AVV1" s="61"/>
-      <c r="AVW1" s="61"/>
-      <c r="AVX1" s="61"/>
-      <c r="AVY1" s="61"/>
-      <c r="AVZ1" s="61"/>
-      <c r="AWA1" s="61"/>
-      <c r="AWB1" s="61"/>
-      <c r="AWC1" s="61"/>
-      <c r="AWD1" s="61"/>
-      <c r="AWE1" s="61"/>
-      <c r="AWF1" s="61"/>
-      <c r="AWG1" s="61"/>
-      <c r="AWH1" s="61"/>
-      <c r="AWI1" s="61"/>
-      <c r="AWJ1" s="61"/>
-      <c r="AWK1" s="61"/>
-      <c r="AWL1" s="61"/>
-      <c r="AWM1" s="61"/>
-      <c r="AWN1" s="61"/>
-      <c r="AWO1" s="61"/>
-      <c r="AWP1" s="61"/>
-      <c r="AWQ1" s="61"/>
-      <c r="AWR1" s="61"/>
-      <c r="AWS1" s="61"/>
-      <c r="AWT1" s="61"/>
-      <c r="AWU1" s="61"/>
-      <c r="AWV1" s="61"/>
-      <c r="AWW1" s="61"/>
-      <c r="AWX1" s="61"/>
-      <c r="AWY1" s="61"/>
-      <c r="AWZ1" s="61"/>
-      <c r="AXA1" s="61"/>
-      <c r="AXB1" s="61"/>
-      <c r="AXC1" s="61"/>
-      <c r="AXD1" s="61"/>
-      <c r="AXE1" s="61"/>
-      <c r="AXF1" s="61"/>
-      <c r="AXG1" s="61"/>
-      <c r="AXH1" s="61"/>
-      <c r="AXI1" s="61"/>
-      <c r="AXJ1" s="61"/>
-      <c r="AXK1" s="61"/>
-      <c r="AXL1" s="61"/>
-      <c r="AXM1" s="61"/>
-      <c r="AXN1" s="61"/>
-      <c r="AXO1" s="61"/>
-      <c r="AXP1" s="61"/>
-      <c r="AXQ1" s="61"/>
-      <c r="AXR1" s="61"/>
-      <c r="AXS1" s="61"/>
-      <c r="AXT1" s="61"/>
-      <c r="AXU1" s="61"/>
-      <c r="AXV1" s="61"/>
-      <c r="AXW1" s="61"/>
-      <c r="AXX1" s="61"/>
-      <c r="AXY1" s="61"/>
-      <c r="AXZ1" s="61"/>
-      <c r="AYA1" s="61"/>
-      <c r="AYB1" s="61"/>
-      <c r="AYC1" s="61"/>
-      <c r="AYD1" s="61"/>
-      <c r="AYE1" s="61"/>
-      <c r="AYF1" s="61"/>
-      <c r="AYG1" s="61"/>
-      <c r="AYH1" s="61"/>
-      <c r="AYI1" s="61"/>
-      <c r="AYJ1" s="61"/>
-      <c r="AYK1" s="61"/>
-      <c r="AYL1" s="61"/>
-      <c r="AYM1" s="61"/>
-      <c r="AYN1" s="61"/>
-      <c r="AYO1" s="61"/>
-      <c r="AYP1" s="61"/>
-      <c r="AYQ1" s="61"/>
-      <c r="AYR1" s="61"/>
-      <c r="AYS1" s="61"/>
-      <c r="AYT1" s="61"/>
-      <c r="AYU1" s="61"/>
-      <c r="AYV1" s="61"/>
-      <c r="AYW1" s="61"/>
-      <c r="AYX1" s="61"/>
-      <c r="AYY1" s="61"/>
-      <c r="AYZ1" s="61"/>
-      <c r="AZA1" s="61"/>
-      <c r="AZB1" s="61"/>
-      <c r="AZC1" s="61"/>
-      <c r="AZD1" s="61"/>
-      <c r="AZE1" s="61"/>
-      <c r="AZF1" s="61"/>
-      <c r="AZG1" s="61"/>
-      <c r="AZH1" s="61"/>
-      <c r="AZI1" s="61"/>
-      <c r="AZJ1" s="61"/>
-      <c r="AZK1" s="61"/>
-      <c r="AZL1" s="61"/>
-      <c r="AZM1" s="61"/>
-      <c r="AZN1" s="61"/>
-      <c r="AZO1" s="61"/>
-      <c r="AZP1" s="61"/>
-      <c r="AZQ1" s="61"/>
-      <c r="AZR1" s="61"/>
-      <c r="AZS1" s="61"/>
-      <c r="AZT1" s="61"/>
-      <c r="AZU1" s="61"/>
-      <c r="AZV1" s="61"/>
-      <c r="AZW1" s="61"/>
-      <c r="AZX1" s="61"/>
-      <c r="AZY1" s="61"/>
-      <c r="AZZ1" s="61"/>
-      <c r="BAA1" s="61"/>
-      <c r="BAB1" s="61"/>
-      <c r="BAC1" s="61"/>
-      <c r="BAD1" s="61"/>
-      <c r="BAE1" s="61"/>
-      <c r="BAF1" s="61"/>
-      <c r="BAG1" s="61"/>
-      <c r="BAH1" s="61"/>
-      <c r="BAI1" s="61"/>
-      <c r="BAJ1" s="61"/>
-      <c r="BAK1" s="61"/>
-      <c r="BAL1" s="61"/>
-      <c r="BAM1" s="61"/>
-      <c r="BAN1" s="61"/>
-      <c r="BAO1" s="61"/>
-      <c r="BAP1" s="61"/>
-      <c r="BAQ1" s="61"/>
-      <c r="BAR1" s="61"/>
-      <c r="BAS1" s="61"/>
-      <c r="BAT1" s="61"/>
-      <c r="BAU1" s="61"/>
-      <c r="BAV1" s="61"/>
-      <c r="BAW1" s="61"/>
-      <c r="BAX1" s="61"/>
-      <c r="BAY1" s="61"/>
-      <c r="BAZ1" s="61"/>
-      <c r="BBA1" s="61"/>
-      <c r="BBB1" s="61"/>
-      <c r="BBC1" s="61"/>
-      <c r="BBD1" s="61"/>
-      <c r="BBE1" s="61"/>
-      <c r="BBF1" s="61"/>
-      <c r="BBG1" s="61"/>
-      <c r="BBH1" s="61"/>
-      <c r="BBI1" s="61"/>
-      <c r="BBJ1" s="61"/>
-      <c r="BBK1" s="61"/>
-      <c r="BBL1" s="61"/>
-      <c r="BBM1" s="61"/>
-      <c r="BBN1" s="61"/>
-      <c r="BBO1" s="62"/>
+      <c r="AQC1" s="133"/>
+      <c r="AQD1" s="133"/>
+      <c r="AQE1" s="133"/>
+      <c r="AQF1" s="133"/>
+      <c r="AQG1" s="133"/>
+      <c r="AQH1" s="133"/>
+      <c r="AQI1" s="133"/>
+      <c r="AQJ1" s="133"/>
+      <c r="AQK1" s="133"/>
+      <c r="AQL1" s="133"/>
+      <c r="AQM1" s="133"/>
+      <c r="AQN1" s="133"/>
+      <c r="AQO1" s="133"/>
+      <c r="AQP1" s="133"/>
+      <c r="AQQ1" s="133"/>
+      <c r="AQR1" s="133"/>
+      <c r="AQS1" s="133"/>
+      <c r="AQT1" s="133"/>
+      <c r="AQU1" s="133"/>
+      <c r="AQV1" s="133"/>
+      <c r="AQW1" s="133"/>
+      <c r="AQX1" s="133"/>
+      <c r="AQY1" s="133"/>
+      <c r="AQZ1" s="133"/>
+      <c r="ARA1" s="133"/>
+      <c r="ARB1" s="133"/>
+      <c r="ARC1" s="133"/>
+      <c r="ARD1" s="133"/>
+      <c r="ARE1" s="133"/>
+      <c r="ARF1" s="133"/>
+      <c r="ARG1" s="133"/>
+      <c r="ARH1" s="133"/>
+      <c r="ARI1" s="133"/>
+      <c r="ARJ1" s="133"/>
+      <c r="ARK1" s="133"/>
+      <c r="ARL1" s="133"/>
+      <c r="ARM1" s="133"/>
+      <c r="ARN1" s="133"/>
+      <c r="ARO1" s="133"/>
+      <c r="ARP1" s="133"/>
+      <c r="ARQ1" s="133"/>
+      <c r="ARR1" s="133"/>
+      <c r="ARS1" s="133"/>
+      <c r="ART1" s="133"/>
+      <c r="ARU1" s="133"/>
+      <c r="ARV1" s="133"/>
+      <c r="ARW1" s="133"/>
+      <c r="ARX1" s="133"/>
+      <c r="ARY1" s="133"/>
+      <c r="ARZ1" s="133"/>
+      <c r="ASA1" s="133"/>
+      <c r="ASB1" s="133"/>
+      <c r="ASC1" s="133"/>
+      <c r="ASD1" s="133"/>
+      <c r="ASE1" s="133"/>
+      <c r="ASF1" s="133"/>
+      <c r="ASG1" s="133"/>
+      <c r="ASH1" s="133"/>
+      <c r="ASI1" s="133"/>
+      <c r="ASJ1" s="133"/>
+      <c r="ASK1" s="133"/>
+      <c r="ASL1" s="133"/>
+      <c r="ASM1" s="133"/>
+      <c r="ASN1" s="133"/>
+      <c r="ASO1" s="133"/>
+      <c r="ASP1" s="133"/>
+      <c r="ASQ1" s="133"/>
+      <c r="ASR1" s="133"/>
+      <c r="ASS1" s="133"/>
+      <c r="AST1" s="133"/>
+      <c r="ASU1" s="133"/>
+      <c r="ASV1" s="133"/>
+      <c r="ASW1" s="133"/>
+      <c r="ASX1" s="133"/>
+      <c r="ASY1" s="133"/>
+      <c r="ASZ1" s="133"/>
+      <c r="ATA1" s="133"/>
+      <c r="ATB1" s="133"/>
+      <c r="ATC1" s="133"/>
+      <c r="ATD1" s="133"/>
+      <c r="ATE1" s="133"/>
+      <c r="ATF1" s="133"/>
+      <c r="ATG1" s="133"/>
+      <c r="ATH1" s="133"/>
+      <c r="ATI1" s="133"/>
+      <c r="ATJ1" s="133"/>
+      <c r="ATK1" s="133"/>
+      <c r="ATL1" s="133"/>
+      <c r="ATM1" s="133"/>
+      <c r="ATN1" s="133"/>
+      <c r="ATO1" s="133"/>
+      <c r="ATP1" s="133"/>
+      <c r="ATQ1" s="133"/>
+      <c r="ATR1" s="133"/>
+      <c r="ATS1" s="133"/>
+      <c r="ATT1" s="133"/>
+      <c r="ATU1" s="133"/>
+      <c r="ATV1" s="133"/>
+      <c r="ATW1" s="133"/>
+      <c r="ATX1" s="133"/>
+      <c r="ATY1" s="133"/>
+      <c r="ATZ1" s="133"/>
+      <c r="AUA1" s="133"/>
+      <c r="AUB1" s="133"/>
+      <c r="AUC1" s="133"/>
+      <c r="AUD1" s="133"/>
+      <c r="AUE1" s="133"/>
+      <c r="AUF1" s="133"/>
+      <c r="AUG1" s="133"/>
+      <c r="AUH1" s="133"/>
+      <c r="AUI1" s="133"/>
+      <c r="AUJ1" s="133"/>
+      <c r="AUK1" s="133"/>
+      <c r="AUL1" s="133"/>
+      <c r="AUM1" s="133"/>
+      <c r="AUN1" s="133"/>
+      <c r="AUO1" s="133"/>
+      <c r="AUP1" s="133"/>
+      <c r="AUQ1" s="133"/>
+      <c r="AUR1" s="133"/>
+      <c r="AUS1" s="133"/>
+      <c r="AUT1" s="133"/>
+      <c r="AUU1" s="133"/>
+      <c r="AUV1" s="133"/>
+      <c r="AUW1" s="133"/>
+      <c r="AUX1" s="133"/>
+      <c r="AUY1" s="133"/>
+      <c r="AUZ1" s="133"/>
+      <c r="AVA1" s="133"/>
+      <c r="AVB1" s="133"/>
+      <c r="AVC1" s="133"/>
+      <c r="AVD1" s="133"/>
+      <c r="AVE1" s="133"/>
+      <c r="AVF1" s="133"/>
+      <c r="AVG1" s="133"/>
+      <c r="AVH1" s="133"/>
+      <c r="AVI1" s="133"/>
+      <c r="AVJ1" s="133"/>
+      <c r="AVK1" s="133"/>
+      <c r="AVL1" s="133"/>
+      <c r="AVM1" s="133"/>
+      <c r="AVN1" s="133"/>
+      <c r="AVO1" s="133"/>
+      <c r="AVP1" s="133"/>
+      <c r="AVQ1" s="133"/>
+      <c r="AVR1" s="133"/>
+      <c r="AVS1" s="133"/>
+      <c r="AVT1" s="133"/>
+      <c r="AVU1" s="133"/>
+      <c r="AVV1" s="133"/>
+      <c r="AVW1" s="133"/>
+      <c r="AVX1" s="133"/>
+      <c r="AVY1" s="133"/>
+      <c r="AVZ1" s="133"/>
+      <c r="AWA1" s="133"/>
+      <c r="AWB1" s="133"/>
+      <c r="AWC1" s="133"/>
+      <c r="AWD1" s="133"/>
+      <c r="AWE1" s="133"/>
+      <c r="AWF1" s="133"/>
+      <c r="AWG1" s="133"/>
+      <c r="AWH1" s="133"/>
+      <c r="AWI1" s="133"/>
+      <c r="AWJ1" s="133"/>
+      <c r="AWK1" s="133"/>
+      <c r="AWL1" s="133"/>
+      <c r="AWM1" s="133"/>
+      <c r="AWN1" s="133"/>
+      <c r="AWO1" s="133"/>
+      <c r="AWP1" s="133"/>
+      <c r="AWQ1" s="133"/>
+      <c r="AWR1" s="133"/>
+      <c r="AWS1" s="133"/>
+      <c r="AWT1" s="133"/>
+      <c r="AWU1" s="133"/>
+      <c r="AWV1" s="133"/>
+      <c r="AWW1" s="133"/>
+      <c r="AWX1" s="133"/>
+      <c r="AWY1" s="133"/>
+      <c r="AWZ1" s="133"/>
+      <c r="AXA1" s="133"/>
+      <c r="AXB1" s="133"/>
+      <c r="AXC1" s="133"/>
+      <c r="AXD1" s="133"/>
+      <c r="AXE1" s="133"/>
+      <c r="AXF1" s="133"/>
+      <c r="AXG1" s="133"/>
+      <c r="AXH1" s="133"/>
+      <c r="AXI1" s="133"/>
+      <c r="AXJ1" s="133"/>
+      <c r="AXK1" s="133"/>
+      <c r="AXL1" s="133"/>
+      <c r="AXM1" s="133"/>
+      <c r="AXN1" s="133"/>
+      <c r="AXO1" s="133"/>
+      <c r="AXP1" s="133"/>
+      <c r="AXQ1" s="133"/>
+      <c r="AXR1" s="133"/>
+      <c r="AXS1" s="133"/>
+      <c r="AXT1" s="133"/>
+      <c r="AXU1" s="133"/>
+      <c r="AXV1" s="133"/>
+      <c r="AXW1" s="133"/>
+      <c r="AXX1" s="133"/>
+      <c r="AXY1" s="133"/>
+      <c r="AXZ1" s="133"/>
+      <c r="AYA1" s="133"/>
+      <c r="AYB1" s="133"/>
+      <c r="AYC1" s="133"/>
+      <c r="AYD1" s="133"/>
+      <c r="AYE1" s="133"/>
+      <c r="AYF1" s="133"/>
+      <c r="AYG1" s="133"/>
+      <c r="AYH1" s="133"/>
+      <c r="AYI1" s="133"/>
+      <c r="AYJ1" s="133"/>
+      <c r="AYK1" s="133"/>
+      <c r="AYL1" s="133"/>
+      <c r="AYM1" s="133"/>
+      <c r="AYN1" s="133"/>
+      <c r="AYO1" s="133"/>
+      <c r="AYP1" s="133"/>
+      <c r="AYQ1" s="133"/>
+      <c r="AYR1" s="133"/>
+      <c r="AYS1" s="133"/>
+      <c r="AYT1" s="133"/>
+      <c r="AYU1" s="133"/>
+      <c r="AYV1" s="133"/>
+      <c r="AYW1" s="133"/>
+      <c r="AYX1" s="133"/>
+      <c r="AYY1" s="133"/>
+      <c r="AYZ1" s="133"/>
+      <c r="AZA1" s="133"/>
+      <c r="AZB1" s="133"/>
+      <c r="AZC1" s="133"/>
+      <c r="AZD1" s="133"/>
+      <c r="AZE1" s="133"/>
+      <c r="AZF1" s="133"/>
+      <c r="AZG1" s="133"/>
+      <c r="AZH1" s="133"/>
+      <c r="AZI1" s="133"/>
+      <c r="AZJ1" s="133"/>
+      <c r="AZK1" s="133"/>
+      <c r="AZL1" s="133"/>
+      <c r="AZM1" s="133"/>
+      <c r="AZN1" s="133"/>
+      <c r="AZO1" s="133"/>
+      <c r="AZP1" s="133"/>
+      <c r="AZQ1" s="133"/>
+      <c r="AZR1" s="133"/>
+      <c r="AZS1" s="133"/>
+      <c r="AZT1" s="133"/>
+      <c r="AZU1" s="133"/>
+      <c r="AZV1" s="133"/>
+      <c r="AZW1" s="133"/>
+      <c r="AZX1" s="133"/>
+      <c r="AZY1" s="133"/>
+      <c r="AZZ1" s="133"/>
+      <c r="BAA1" s="133"/>
+      <c r="BAB1" s="133"/>
+      <c r="BAC1" s="133"/>
+      <c r="BAD1" s="133"/>
+      <c r="BAE1" s="133"/>
+      <c r="BAF1" s="133"/>
+      <c r="BAG1" s="133"/>
+      <c r="BAH1" s="133"/>
+      <c r="BAI1" s="133"/>
+      <c r="BAJ1" s="133"/>
+      <c r="BAK1" s="133"/>
+      <c r="BAL1" s="133"/>
+      <c r="BAM1" s="133"/>
+      <c r="BAN1" s="133"/>
+      <c r="BAO1" s="133"/>
+      <c r="BAP1" s="133"/>
+      <c r="BAQ1" s="133"/>
+      <c r="BAR1" s="133"/>
+      <c r="BAS1" s="133"/>
+      <c r="BAT1" s="133"/>
+      <c r="BAU1" s="133"/>
+      <c r="BAV1" s="133"/>
+      <c r="BAW1" s="133"/>
+      <c r="BAX1" s="133"/>
+      <c r="BAY1" s="133"/>
+      <c r="BAZ1" s="133"/>
+      <c r="BBA1" s="133"/>
+      <c r="BBB1" s="133"/>
+      <c r="BBC1" s="133"/>
+      <c r="BBD1" s="133"/>
+      <c r="BBE1" s="133"/>
+      <c r="BBF1" s="133"/>
+      <c r="BBG1" s="133"/>
+      <c r="BBH1" s="133"/>
+      <c r="BBI1" s="133"/>
+      <c r="BBJ1" s="133"/>
+      <c r="BBK1" s="133"/>
+      <c r="BBL1" s="133"/>
+      <c r="BBM1" s="133"/>
+      <c r="BBN1" s="133"/>
+      <c r="BBO1" s="134"/>
       <c r="BBP1" s="45" t="s">
         <v>18</v>
       </c>
@@ -4178,7 +4194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:1427" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:1431" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -4187,14 +4203,14 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
@@ -4532,1100 +4548,1100 @@
       <c r="MM2" s="35"/>
       <c r="MN2" s="35"/>
       <c r="MO2" s="41"/>
-      <c r="MP2" s="137"/>
-      <c r="MQ2" s="137"/>
-      <c r="MR2" s="137"/>
-      <c r="MS2" s="137"/>
-      <c r="MT2" s="137"/>
-      <c r="MU2" s="137"/>
-      <c r="MV2" s="137"/>
-      <c r="MW2" s="137"/>
-      <c r="MX2" s="137"/>
-      <c r="MY2" s="137"/>
-      <c r="MZ2" s="137"/>
-      <c r="NA2" s="137"/>
-      <c r="NB2" s="137"/>
-      <c r="NC2" s="137"/>
-      <c r="ND2" s="137"/>
-      <c r="NE2" s="137"/>
-      <c r="NF2" s="137"/>
-      <c r="NG2" s="137"/>
-      <c r="NH2" s="137"/>
-      <c r="NI2" s="137"/>
-      <c r="NJ2" s="63" t="s">
+      <c r="MP2" s="70"/>
+      <c r="MQ2" s="70"/>
+      <c r="MR2" s="70"/>
+      <c r="MS2" s="70"/>
+      <c r="MT2" s="70"/>
+      <c r="MU2" s="70"/>
+      <c r="MV2" s="70"/>
+      <c r="MW2" s="70"/>
+      <c r="MX2" s="70"/>
+      <c r="MY2" s="70"/>
+      <c r="MZ2" s="70"/>
+      <c r="NA2" s="70"/>
+      <c r="NB2" s="70"/>
+      <c r="NC2" s="70"/>
+      <c r="ND2" s="70"/>
+      <c r="NE2" s="70"/>
+      <c r="NF2" s="70"/>
+      <c r="NG2" s="70"/>
+      <c r="NH2" s="70"/>
+      <c r="NI2" s="70"/>
+      <c r="NJ2" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="NK2" s="64"/>
-      <c r="NL2" s="64"/>
-      <c r="NM2" s="64"/>
-      <c r="NN2" s="64"/>
-      <c r="NO2" s="64"/>
-      <c r="NP2" s="64"/>
-      <c r="NQ2" s="64"/>
-      <c r="NR2" s="64"/>
-      <c r="NS2" s="64"/>
-      <c r="NT2" s="64"/>
-      <c r="NU2" s="64"/>
-      <c r="NV2" s="64"/>
-      <c r="NW2" s="64"/>
-      <c r="NX2" s="64"/>
-      <c r="NY2" s="64"/>
-      <c r="NZ2" s="64"/>
-      <c r="OA2" s="64"/>
-      <c r="OB2" s="64"/>
-      <c r="OC2" s="64"/>
-      <c r="OD2" s="65" t="s">
+      <c r="NK2" s="136"/>
+      <c r="NL2" s="136"/>
+      <c r="NM2" s="136"/>
+      <c r="NN2" s="136"/>
+      <c r="NO2" s="136"/>
+      <c r="NP2" s="136"/>
+      <c r="NQ2" s="136"/>
+      <c r="NR2" s="136"/>
+      <c r="NS2" s="136"/>
+      <c r="NT2" s="136"/>
+      <c r="NU2" s="136"/>
+      <c r="NV2" s="136"/>
+      <c r="NW2" s="136"/>
+      <c r="NX2" s="136"/>
+      <c r="NY2" s="136"/>
+      <c r="NZ2" s="136"/>
+      <c r="OA2" s="136"/>
+      <c r="OB2" s="136"/>
+      <c r="OC2" s="136"/>
+      <c r="OD2" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="OE2" s="66"/>
-      <c r="OF2" s="66"/>
-      <c r="OG2" s="66"/>
-      <c r="OH2" s="66"/>
-      <c r="OI2" s="66"/>
-      <c r="OJ2" s="66"/>
-      <c r="OK2" s="66"/>
-      <c r="OL2" s="66"/>
-      <c r="OM2" s="66"/>
-      <c r="ON2" s="66"/>
-      <c r="OO2" s="66"/>
-      <c r="OP2" s="66"/>
-      <c r="OQ2" s="66"/>
-      <c r="OR2" s="66"/>
-      <c r="OS2" s="66"/>
-      <c r="OT2" s="66"/>
-      <c r="OU2" s="66"/>
-      <c r="OV2" s="66"/>
-      <c r="OW2" s="66"/>
-      <c r="OX2" s="65" t="s">
+      <c r="OE2" s="138"/>
+      <c r="OF2" s="138"/>
+      <c r="OG2" s="138"/>
+      <c r="OH2" s="138"/>
+      <c r="OI2" s="138"/>
+      <c r="OJ2" s="138"/>
+      <c r="OK2" s="138"/>
+      <c r="OL2" s="138"/>
+      <c r="OM2" s="138"/>
+      <c r="ON2" s="138"/>
+      <c r="OO2" s="138"/>
+      <c r="OP2" s="138"/>
+      <c r="OQ2" s="138"/>
+      <c r="OR2" s="138"/>
+      <c r="OS2" s="138"/>
+      <c r="OT2" s="138"/>
+      <c r="OU2" s="138"/>
+      <c r="OV2" s="138"/>
+      <c r="OW2" s="138"/>
+      <c r="OX2" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="OY2" s="66"/>
-      <c r="OZ2" s="66"/>
-      <c r="PA2" s="66"/>
-      <c r="PB2" s="66"/>
-      <c r="PC2" s="66"/>
-      <c r="PD2" s="66"/>
-      <c r="PE2" s="66"/>
-      <c r="PF2" s="66"/>
-      <c r="PG2" s="66"/>
-      <c r="PH2" s="66"/>
-      <c r="PI2" s="66"/>
-      <c r="PJ2" s="66"/>
-      <c r="PK2" s="66"/>
-      <c r="PL2" s="66"/>
-      <c r="PM2" s="66"/>
-      <c r="PN2" s="66"/>
-      <c r="PO2" s="66"/>
-      <c r="PP2" s="66"/>
-      <c r="PQ2" s="66"/>
-      <c r="PR2" s="65" t="s">
+      <c r="OY2" s="138"/>
+      <c r="OZ2" s="138"/>
+      <c r="PA2" s="138"/>
+      <c r="PB2" s="138"/>
+      <c r="PC2" s="138"/>
+      <c r="PD2" s="138"/>
+      <c r="PE2" s="138"/>
+      <c r="PF2" s="138"/>
+      <c r="PG2" s="138"/>
+      <c r="PH2" s="138"/>
+      <c r="PI2" s="138"/>
+      <c r="PJ2" s="138"/>
+      <c r="PK2" s="138"/>
+      <c r="PL2" s="138"/>
+      <c r="PM2" s="138"/>
+      <c r="PN2" s="138"/>
+      <c r="PO2" s="138"/>
+      <c r="PP2" s="138"/>
+      <c r="PQ2" s="138"/>
+      <c r="PR2" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="PS2" s="66"/>
-      <c r="PT2" s="66"/>
-      <c r="PU2" s="66"/>
-      <c r="PV2" s="66"/>
-      <c r="PW2" s="66"/>
-      <c r="PX2" s="66"/>
-      <c r="PY2" s="66"/>
-      <c r="PZ2" s="66"/>
-      <c r="QA2" s="66"/>
-      <c r="QB2" s="66"/>
-      <c r="QC2" s="66"/>
-      <c r="QD2" s="66"/>
-      <c r="QE2" s="66"/>
-      <c r="QF2" s="66"/>
-      <c r="QG2" s="66"/>
-      <c r="QH2" s="66"/>
-      <c r="QI2" s="66"/>
-      <c r="QJ2" s="66"/>
-      <c r="QK2" s="66"/>
-      <c r="QL2" s="65" t="s">
+      <c r="PS2" s="138"/>
+      <c r="PT2" s="138"/>
+      <c r="PU2" s="138"/>
+      <c r="PV2" s="138"/>
+      <c r="PW2" s="138"/>
+      <c r="PX2" s="138"/>
+      <c r="PY2" s="138"/>
+      <c r="PZ2" s="138"/>
+      <c r="QA2" s="138"/>
+      <c r="QB2" s="138"/>
+      <c r="QC2" s="138"/>
+      <c r="QD2" s="138"/>
+      <c r="QE2" s="138"/>
+      <c r="QF2" s="138"/>
+      <c r="QG2" s="138"/>
+      <c r="QH2" s="138"/>
+      <c r="QI2" s="138"/>
+      <c r="QJ2" s="138"/>
+      <c r="QK2" s="138"/>
+      <c r="QL2" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="QM2" s="66"/>
-      <c r="QN2" s="66"/>
-      <c r="QO2" s="66"/>
-      <c r="QP2" s="66"/>
-      <c r="QQ2" s="66"/>
-      <c r="QR2" s="66"/>
-      <c r="QS2" s="66"/>
-      <c r="QT2" s="66"/>
-      <c r="QU2" s="66"/>
-      <c r="QV2" s="66"/>
-      <c r="QW2" s="66"/>
-      <c r="QX2" s="66"/>
-      <c r="QY2" s="66"/>
-      <c r="QZ2" s="66"/>
-      <c r="RA2" s="66"/>
-      <c r="RB2" s="66"/>
-      <c r="RC2" s="66"/>
-      <c r="RD2" s="66"/>
-      <c r="RE2" s="66"/>
-      <c r="RF2" s="67" t="s">
+      <c r="QM2" s="138"/>
+      <c r="QN2" s="138"/>
+      <c r="QO2" s="138"/>
+      <c r="QP2" s="138"/>
+      <c r="QQ2" s="138"/>
+      <c r="QR2" s="138"/>
+      <c r="QS2" s="138"/>
+      <c r="QT2" s="138"/>
+      <c r="QU2" s="138"/>
+      <c r="QV2" s="138"/>
+      <c r="QW2" s="138"/>
+      <c r="QX2" s="138"/>
+      <c r="QY2" s="138"/>
+      <c r="QZ2" s="138"/>
+      <c r="RA2" s="138"/>
+      <c r="RB2" s="138"/>
+      <c r="RC2" s="138"/>
+      <c r="RD2" s="138"/>
+      <c r="RE2" s="138"/>
+      <c r="RF2" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="RG2" s="68"/>
-      <c r="RH2" s="68"/>
-      <c r="RI2" s="68"/>
-      <c r="RJ2" s="68"/>
-      <c r="RK2" s="68"/>
-      <c r="RL2" s="68"/>
-      <c r="RM2" s="68"/>
-      <c r="RN2" s="68"/>
-      <c r="RO2" s="68"/>
-      <c r="RP2" s="68"/>
-      <c r="RQ2" s="68"/>
-      <c r="RR2" s="68"/>
-      <c r="RS2" s="68"/>
-      <c r="RT2" s="68"/>
-      <c r="RU2" s="68"/>
-      <c r="RV2" s="68"/>
-      <c r="RW2" s="68"/>
-      <c r="RX2" s="68"/>
-      <c r="RY2" s="68"/>
-      <c r="RZ2" s="68"/>
-      <c r="SA2" s="68"/>
-      <c r="SB2" s="68"/>
-      <c r="SC2" s="68"/>
-      <c r="SD2" s="68"/>
-      <c r="SE2" s="68"/>
-      <c r="SF2" s="68"/>
-      <c r="SG2" s="68"/>
-      <c r="SH2" s="68"/>
-      <c r="SI2" s="68"/>
-      <c r="SJ2" s="68"/>
-      <c r="SK2" s="68"/>
-      <c r="SL2" s="68"/>
-      <c r="SM2" s="68"/>
-      <c r="SN2" s="68"/>
-      <c r="SO2" s="68"/>
-      <c r="SP2" s="68"/>
-      <c r="SQ2" s="68"/>
-      <c r="SR2" s="68"/>
-      <c r="SS2" s="68"/>
-      <c r="ST2" s="68"/>
-      <c r="SU2" s="68"/>
-      <c r="SV2" s="68"/>
-      <c r="SW2" s="68"/>
-      <c r="SX2" s="68"/>
-      <c r="SY2" s="68"/>
-      <c r="SZ2" s="68"/>
-      <c r="TA2" s="68"/>
-      <c r="TB2" s="68"/>
-      <c r="TC2" s="68"/>
-      <c r="TD2" s="68"/>
-      <c r="TE2" s="68"/>
-      <c r="TF2" s="68"/>
-      <c r="TG2" s="68"/>
-      <c r="TH2" s="68"/>
-      <c r="TI2" s="68"/>
-      <c r="TJ2" s="68"/>
-      <c r="TK2" s="68"/>
-      <c r="TL2" s="68"/>
-      <c r="TM2" s="68"/>
-      <c r="TN2" s="68"/>
-      <c r="TO2" s="68"/>
-      <c r="TP2" s="68"/>
-      <c r="TQ2" s="68"/>
-      <c r="TR2" s="68"/>
-      <c r="TS2" s="68"/>
-      <c r="TT2" s="68"/>
-      <c r="TU2" s="68"/>
-      <c r="TV2" s="68"/>
-      <c r="TW2" s="68"/>
-      <c r="TX2" s="68"/>
-      <c r="TY2" s="68"/>
-      <c r="TZ2" s="68"/>
-      <c r="UA2" s="68"/>
-      <c r="UB2" s="68"/>
-      <c r="UC2" s="68"/>
-      <c r="UD2" s="68"/>
-      <c r="UE2" s="68"/>
-      <c r="UF2" s="68"/>
-      <c r="UG2" s="68"/>
-      <c r="UH2" s="68"/>
-      <c r="UI2" s="68"/>
-      <c r="UJ2" s="68"/>
-      <c r="UK2" s="68"/>
-      <c r="UL2" s="68"/>
-      <c r="UM2" s="68"/>
-      <c r="UN2" s="68"/>
-      <c r="UO2" s="68"/>
-      <c r="UP2" s="68"/>
-      <c r="UQ2" s="68"/>
-      <c r="UR2" s="68"/>
-      <c r="US2" s="68"/>
-      <c r="UT2" s="68"/>
-      <c r="UU2" s="68"/>
-      <c r="UV2" s="68"/>
-      <c r="UW2" s="68"/>
-      <c r="UX2" s="68"/>
-      <c r="UY2" s="68"/>
-      <c r="UZ2" s="68"/>
-      <c r="VA2" s="68"/>
-      <c r="VB2" s="68"/>
-      <c r="VC2" s="68"/>
-      <c r="VD2" s="68"/>
-      <c r="VE2" s="68"/>
-      <c r="VF2" s="68"/>
-      <c r="VG2" s="68"/>
-      <c r="VH2" s="68"/>
-      <c r="VI2" s="68"/>
-      <c r="VJ2" s="68"/>
-      <c r="VK2" s="68"/>
-      <c r="VL2" s="68"/>
-      <c r="VM2" s="68"/>
-      <c r="VN2" s="68"/>
-      <c r="VO2" s="68"/>
-      <c r="VP2" s="68"/>
-      <c r="VQ2" s="68"/>
-      <c r="VR2" s="68"/>
-      <c r="VS2" s="68"/>
-      <c r="VT2" s="68"/>
-      <c r="VU2" s="68"/>
-      <c r="VV2" s="68"/>
-      <c r="VW2" s="68"/>
-      <c r="VX2" s="68"/>
-      <c r="VY2" s="68"/>
-      <c r="VZ2" s="68"/>
-      <c r="WA2" s="68"/>
-      <c r="WB2" s="68"/>
-      <c r="WC2" s="68"/>
-      <c r="WD2" s="68"/>
-      <c r="WE2" s="68"/>
-      <c r="WF2" s="68"/>
-      <c r="WG2" s="68"/>
-      <c r="WH2" s="68"/>
-      <c r="WI2" s="68"/>
-      <c r="WJ2" s="68"/>
-      <c r="WK2" s="68"/>
-      <c r="WL2" s="68"/>
-      <c r="WM2" s="68"/>
-      <c r="WN2" s="68"/>
-      <c r="WO2" s="68"/>
-      <c r="WP2" s="68"/>
-      <c r="WQ2" s="68"/>
-      <c r="WR2" s="68"/>
-      <c r="WS2" s="68"/>
-      <c r="WT2" s="68"/>
-      <c r="WU2" s="68"/>
-      <c r="WV2" s="68"/>
-      <c r="WW2" s="68"/>
-      <c r="WX2" s="68"/>
-      <c r="WY2" s="68"/>
-      <c r="WZ2" s="68"/>
-      <c r="XA2" s="68"/>
-      <c r="XB2" s="68"/>
-      <c r="XC2" s="68"/>
-      <c r="XD2" s="68"/>
-      <c r="XE2" s="68"/>
-      <c r="XF2" s="68"/>
-      <c r="XG2" s="68"/>
-      <c r="XH2" s="68"/>
-      <c r="XI2" s="68"/>
-      <c r="XJ2" s="68"/>
-      <c r="XK2" s="68"/>
-      <c r="XL2" s="68"/>
-      <c r="XM2" s="68"/>
-      <c r="XN2" s="68"/>
-      <c r="XO2" s="68"/>
-      <c r="XP2" s="68"/>
-      <c r="XQ2" s="68"/>
-      <c r="XR2" s="68"/>
-      <c r="XS2" s="68"/>
-      <c r="XT2" s="68"/>
-      <c r="XU2" s="68"/>
-      <c r="XV2" s="68"/>
-      <c r="XW2" s="68"/>
-      <c r="XX2" s="68"/>
-      <c r="XY2" s="68"/>
-      <c r="XZ2" s="68"/>
-      <c r="YA2" s="68"/>
-      <c r="YB2" s="68"/>
-      <c r="YC2" s="68"/>
-      <c r="YD2" s="68"/>
-      <c r="YE2" s="68"/>
-      <c r="YF2" s="68"/>
-      <c r="YG2" s="68"/>
-      <c r="YH2" s="68"/>
-      <c r="YI2" s="68"/>
-      <c r="YJ2" s="68"/>
-      <c r="YK2" s="68"/>
-      <c r="YL2" s="68"/>
-      <c r="YM2" s="68"/>
-      <c r="YN2" s="68"/>
-      <c r="YO2" s="68"/>
-      <c r="YP2" s="68"/>
-      <c r="YQ2" s="68"/>
-      <c r="YR2" s="68"/>
-      <c r="YS2" s="68"/>
-      <c r="YT2" s="68"/>
-      <c r="YU2" s="68"/>
-      <c r="YV2" s="68"/>
-      <c r="YW2" s="68"/>
-      <c r="YX2" s="68"/>
-      <c r="YY2" s="68"/>
-      <c r="YZ2" s="68"/>
-      <c r="ZA2" s="68"/>
-      <c r="ZB2" s="68"/>
-      <c r="ZC2" s="68"/>
-      <c r="ZD2" s="68"/>
-      <c r="ZE2" s="68"/>
-      <c r="ZF2" s="68"/>
-      <c r="ZG2" s="68"/>
-      <c r="ZH2" s="68"/>
-      <c r="ZI2" s="68"/>
-      <c r="ZJ2" s="68"/>
-      <c r="ZK2" s="68"/>
-      <c r="ZL2" s="68"/>
-      <c r="ZM2" s="68"/>
-      <c r="ZN2" s="68"/>
-      <c r="ZO2" s="68"/>
-      <c r="ZP2" s="68"/>
-      <c r="ZQ2" s="68"/>
-      <c r="ZR2" s="68"/>
-      <c r="ZS2" s="68"/>
-      <c r="ZT2" s="68"/>
-      <c r="ZU2" s="68"/>
-      <c r="ZV2" s="68"/>
-      <c r="ZW2" s="68"/>
-      <c r="ZX2" s="68"/>
-      <c r="ZY2" s="68"/>
-      <c r="ZZ2" s="68"/>
-      <c r="AAA2" s="68"/>
-      <c r="AAB2" s="68"/>
-      <c r="AAC2" s="68"/>
-      <c r="AAD2" s="68"/>
-      <c r="AAE2" s="68"/>
-      <c r="AAF2" s="68"/>
-      <c r="AAG2" s="68"/>
-      <c r="AAH2" s="68"/>
-      <c r="AAI2" s="68"/>
-      <c r="AAJ2" s="68"/>
-      <c r="AAK2" s="69"/>
-      <c r="AAL2" s="134"/>
-      <c r="AAM2" s="135"/>
-      <c r="AAN2" s="135"/>
-      <c r="AAO2" s="135"/>
-      <c r="AAP2" s="135"/>
-      <c r="AAQ2" s="135"/>
-      <c r="AAR2" s="135"/>
-      <c r="AAS2" s="135"/>
-      <c r="AAT2" s="135"/>
-      <c r="AAU2" s="136"/>
-      <c r="AAV2" s="117"/>
-      <c r="AAW2" s="126"/>
-      <c r="AAX2" s="127"/>
-      <c r="AAY2" s="127"/>
-      <c r="AAZ2" s="128"/>
-      <c r="ABA2" s="141"/>
-      <c r="ABB2" s="142"/>
-      <c r="ABC2" s="142"/>
-      <c r="ABD2" s="142"/>
-      <c r="ABE2" s="142"/>
-      <c r="ABF2" s="142"/>
-      <c r="ABG2" s="142"/>
-      <c r="ABH2" s="142"/>
-      <c r="ABI2" s="142"/>
-      <c r="ABJ2" s="142"/>
-      <c r="ABK2" s="142"/>
-      <c r="ABL2" s="142"/>
-      <c r="ABM2" s="142"/>
-      <c r="ABN2" s="142"/>
-      <c r="ABO2" s="142"/>
-      <c r="ABP2" s="142"/>
-      <c r="ABQ2" s="142"/>
-      <c r="ABR2" s="142"/>
-      <c r="ABS2" s="142"/>
-      <c r="ABT2" s="142"/>
-      <c r="ABU2" s="142"/>
-      <c r="ABV2" s="142"/>
-      <c r="ABW2" s="142"/>
-      <c r="ABX2" s="142"/>
-      <c r="ABY2" s="142"/>
-      <c r="ABZ2" s="142"/>
-      <c r="ACA2" s="142"/>
-      <c r="ACB2" s="142"/>
-      <c r="ACC2" s="142"/>
-      <c r="ACD2" s="143"/>
-      <c r="ACE2" s="144"/>
-      <c r="ACF2" s="144"/>
-      <c r="ACG2" s="144"/>
-      <c r="ACH2" s="144"/>
-      <c r="ACI2" s="144"/>
-      <c r="ACJ2" s="144"/>
-      <c r="ACK2" s="144"/>
-      <c r="ACL2" s="144"/>
-      <c r="ACM2" s="144"/>
-      <c r="ACN2" s="145"/>
-      <c r="ACO2" s="70" t="s">
+      <c r="RG2" s="140"/>
+      <c r="RH2" s="140"/>
+      <c r="RI2" s="140"/>
+      <c r="RJ2" s="140"/>
+      <c r="RK2" s="140"/>
+      <c r="RL2" s="140"/>
+      <c r="RM2" s="140"/>
+      <c r="RN2" s="140"/>
+      <c r="RO2" s="140"/>
+      <c r="RP2" s="140"/>
+      <c r="RQ2" s="140"/>
+      <c r="RR2" s="140"/>
+      <c r="RS2" s="140"/>
+      <c r="RT2" s="140"/>
+      <c r="RU2" s="140"/>
+      <c r="RV2" s="140"/>
+      <c r="RW2" s="140"/>
+      <c r="RX2" s="140"/>
+      <c r="RY2" s="140"/>
+      <c r="RZ2" s="140"/>
+      <c r="SA2" s="140"/>
+      <c r="SB2" s="140"/>
+      <c r="SC2" s="140"/>
+      <c r="SD2" s="140"/>
+      <c r="SE2" s="140"/>
+      <c r="SF2" s="140"/>
+      <c r="SG2" s="140"/>
+      <c r="SH2" s="140"/>
+      <c r="SI2" s="140"/>
+      <c r="SJ2" s="140"/>
+      <c r="SK2" s="140"/>
+      <c r="SL2" s="140"/>
+      <c r="SM2" s="140"/>
+      <c r="SN2" s="140"/>
+      <c r="SO2" s="140"/>
+      <c r="SP2" s="140"/>
+      <c r="SQ2" s="140"/>
+      <c r="SR2" s="140"/>
+      <c r="SS2" s="140"/>
+      <c r="ST2" s="140"/>
+      <c r="SU2" s="140"/>
+      <c r="SV2" s="140"/>
+      <c r="SW2" s="140"/>
+      <c r="SX2" s="140"/>
+      <c r="SY2" s="140"/>
+      <c r="SZ2" s="140"/>
+      <c r="TA2" s="140"/>
+      <c r="TB2" s="140"/>
+      <c r="TC2" s="140"/>
+      <c r="TD2" s="140"/>
+      <c r="TE2" s="140"/>
+      <c r="TF2" s="140"/>
+      <c r="TG2" s="140"/>
+      <c r="TH2" s="140"/>
+      <c r="TI2" s="140"/>
+      <c r="TJ2" s="140"/>
+      <c r="TK2" s="140"/>
+      <c r="TL2" s="140"/>
+      <c r="TM2" s="140"/>
+      <c r="TN2" s="140"/>
+      <c r="TO2" s="140"/>
+      <c r="TP2" s="140"/>
+      <c r="TQ2" s="140"/>
+      <c r="TR2" s="140"/>
+      <c r="TS2" s="140"/>
+      <c r="TT2" s="140"/>
+      <c r="TU2" s="140"/>
+      <c r="TV2" s="140"/>
+      <c r="TW2" s="140"/>
+      <c r="TX2" s="140"/>
+      <c r="TY2" s="140"/>
+      <c r="TZ2" s="140"/>
+      <c r="UA2" s="140"/>
+      <c r="UB2" s="140"/>
+      <c r="UC2" s="140"/>
+      <c r="UD2" s="140"/>
+      <c r="UE2" s="140"/>
+      <c r="UF2" s="140"/>
+      <c r="UG2" s="140"/>
+      <c r="UH2" s="140"/>
+      <c r="UI2" s="140"/>
+      <c r="UJ2" s="140"/>
+      <c r="UK2" s="140"/>
+      <c r="UL2" s="140"/>
+      <c r="UM2" s="140"/>
+      <c r="UN2" s="140"/>
+      <c r="UO2" s="140"/>
+      <c r="UP2" s="140"/>
+      <c r="UQ2" s="140"/>
+      <c r="UR2" s="140"/>
+      <c r="US2" s="140"/>
+      <c r="UT2" s="140"/>
+      <c r="UU2" s="140"/>
+      <c r="UV2" s="140"/>
+      <c r="UW2" s="140"/>
+      <c r="UX2" s="140"/>
+      <c r="UY2" s="140"/>
+      <c r="UZ2" s="140"/>
+      <c r="VA2" s="140"/>
+      <c r="VB2" s="140"/>
+      <c r="VC2" s="140"/>
+      <c r="VD2" s="140"/>
+      <c r="VE2" s="140"/>
+      <c r="VF2" s="140"/>
+      <c r="VG2" s="140"/>
+      <c r="VH2" s="140"/>
+      <c r="VI2" s="140"/>
+      <c r="VJ2" s="140"/>
+      <c r="VK2" s="140"/>
+      <c r="VL2" s="140"/>
+      <c r="VM2" s="140"/>
+      <c r="VN2" s="140"/>
+      <c r="VO2" s="140"/>
+      <c r="VP2" s="140"/>
+      <c r="VQ2" s="140"/>
+      <c r="VR2" s="140"/>
+      <c r="VS2" s="140"/>
+      <c r="VT2" s="140"/>
+      <c r="VU2" s="140"/>
+      <c r="VV2" s="140"/>
+      <c r="VW2" s="140"/>
+      <c r="VX2" s="140"/>
+      <c r="VY2" s="140"/>
+      <c r="VZ2" s="140"/>
+      <c r="WA2" s="140"/>
+      <c r="WB2" s="140"/>
+      <c r="WC2" s="140"/>
+      <c r="WD2" s="140"/>
+      <c r="WE2" s="140"/>
+      <c r="WF2" s="140"/>
+      <c r="WG2" s="140"/>
+      <c r="WH2" s="140"/>
+      <c r="WI2" s="140"/>
+      <c r="WJ2" s="140"/>
+      <c r="WK2" s="140"/>
+      <c r="WL2" s="140"/>
+      <c r="WM2" s="140"/>
+      <c r="WN2" s="140"/>
+      <c r="WO2" s="140"/>
+      <c r="WP2" s="140"/>
+      <c r="WQ2" s="140"/>
+      <c r="WR2" s="140"/>
+      <c r="WS2" s="140"/>
+      <c r="WT2" s="140"/>
+      <c r="WU2" s="140"/>
+      <c r="WV2" s="140"/>
+      <c r="WW2" s="140"/>
+      <c r="WX2" s="140"/>
+      <c r="WY2" s="140"/>
+      <c r="WZ2" s="140"/>
+      <c r="XA2" s="140"/>
+      <c r="XB2" s="140"/>
+      <c r="XC2" s="140"/>
+      <c r="XD2" s="140"/>
+      <c r="XE2" s="140"/>
+      <c r="XF2" s="140"/>
+      <c r="XG2" s="140"/>
+      <c r="XH2" s="140"/>
+      <c r="XI2" s="140"/>
+      <c r="XJ2" s="140"/>
+      <c r="XK2" s="140"/>
+      <c r="XL2" s="140"/>
+      <c r="XM2" s="140"/>
+      <c r="XN2" s="140"/>
+      <c r="XO2" s="140"/>
+      <c r="XP2" s="140"/>
+      <c r="XQ2" s="140"/>
+      <c r="XR2" s="140"/>
+      <c r="XS2" s="140"/>
+      <c r="XT2" s="140"/>
+      <c r="XU2" s="140"/>
+      <c r="XV2" s="140"/>
+      <c r="XW2" s="140"/>
+      <c r="XX2" s="140"/>
+      <c r="XY2" s="140"/>
+      <c r="XZ2" s="140"/>
+      <c r="YA2" s="140"/>
+      <c r="YB2" s="140"/>
+      <c r="YC2" s="140"/>
+      <c r="YD2" s="140"/>
+      <c r="YE2" s="140"/>
+      <c r="YF2" s="140"/>
+      <c r="YG2" s="140"/>
+      <c r="YH2" s="140"/>
+      <c r="YI2" s="140"/>
+      <c r="YJ2" s="140"/>
+      <c r="YK2" s="140"/>
+      <c r="YL2" s="140"/>
+      <c r="YM2" s="140"/>
+      <c r="YN2" s="140"/>
+      <c r="YO2" s="140"/>
+      <c r="YP2" s="140"/>
+      <c r="YQ2" s="140"/>
+      <c r="YR2" s="140"/>
+      <c r="YS2" s="140"/>
+      <c r="YT2" s="140"/>
+      <c r="YU2" s="140"/>
+      <c r="YV2" s="140"/>
+      <c r="YW2" s="140"/>
+      <c r="YX2" s="140"/>
+      <c r="YY2" s="140"/>
+      <c r="YZ2" s="140"/>
+      <c r="ZA2" s="140"/>
+      <c r="ZB2" s="140"/>
+      <c r="ZC2" s="140"/>
+      <c r="ZD2" s="140"/>
+      <c r="ZE2" s="140"/>
+      <c r="ZF2" s="140"/>
+      <c r="ZG2" s="140"/>
+      <c r="ZH2" s="140"/>
+      <c r="ZI2" s="140"/>
+      <c r="ZJ2" s="140"/>
+      <c r="ZK2" s="140"/>
+      <c r="ZL2" s="140"/>
+      <c r="ZM2" s="140"/>
+      <c r="ZN2" s="140"/>
+      <c r="ZO2" s="140"/>
+      <c r="ZP2" s="140"/>
+      <c r="ZQ2" s="140"/>
+      <c r="ZR2" s="140"/>
+      <c r="ZS2" s="140"/>
+      <c r="ZT2" s="140"/>
+      <c r="ZU2" s="140"/>
+      <c r="ZV2" s="140"/>
+      <c r="ZW2" s="140"/>
+      <c r="ZX2" s="140"/>
+      <c r="ZY2" s="140"/>
+      <c r="ZZ2" s="140"/>
+      <c r="AAA2" s="140"/>
+      <c r="AAB2" s="140"/>
+      <c r="AAC2" s="140"/>
+      <c r="AAD2" s="140"/>
+      <c r="AAE2" s="140"/>
+      <c r="AAF2" s="140"/>
+      <c r="AAG2" s="140"/>
+      <c r="AAH2" s="140"/>
+      <c r="AAI2" s="140"/>
+      <c r="AAJ2" s="140"/>
+      <c r="AAK2" s="141"/>
+      <c r="AAL2" s="67"/>
+      <c r="AAM2" s="68"/>
+      <c r="AAN2" s="68"/>
+      <c r="AAO2" s="68"/>
+      <c r="AAP2" s="68"/>
+      <c r="AAQ2" s="68"/>
+      <c r="AAR2" s="68"/>
+      <c r="AAS2" s="68"/>
+      <c r="AAT2" s="68"/>
+      <c r="AAU2" s="69"/>
+      <c r="AAV2" s="147"/>
+      <c r="AAW2" s="59"/>
+      <c r="AAX2" s="60"/>
+      <c r="AAY2" s="60"/>
+      <c r="AAZ2" s="61"/>
+      <c r="ABA2" s="74"/>
+      <c r="ABB2" s="75"/>
+      <c r="ABC2" s="75"/>
+      <c r="ABD2" s="75"/>
+      <c r="ABE2" s="75"/>
+      <c r="ABF2" s="75"/>
+      <c r="ABG2" s="75"/>
+      <c r="ABH2" s="75"/>
+      <c r="ABI2" s="75"/>
+      <c r="ABJ2" s="75"/>
+      <c r="ABK2" s="75"/>
+      <c r="ABL2" s="75"/>
+      <c r="ABM2" s="75"/>
+      <c r="ABN2" s="75"/>
+      <c r="ABO2" s="75"/>
+      <c r="ABP2" s="75"/>
+      <c r="ABQ2" s="75"/>
+      <c r="ABR2" s="75"/>
+      <c r="ABS2" s="75"/>
+      <c r="ABT2" s="75"/>
+      <c r="ABU2" s="75"/>
+      <c r="ABV2" s="75"/>
+      <c r="ABW2" s="75"/>
+      <c r="ABX2" s="75"/>
+      <c r="ABY2" s="75"/>
+      <c r="ABZ2" s="75"/>
+      <c r="ACA2" s="75"/>
+      <c r="ACB2" s="75"/>
+      <c r="ACC2" s="75"/>
+      <c r="ACD2" s="76"/>
+      <c r="ACE2" s="77"/>
+      <c r="ACF2" s="77"/>
+      <c r="ACG2" s="77"/>
+      <c r="ACH2" s="77"/>
+      <c r="ACI2" s="77"/>
+      <c r="ACJ2" s="77"/>
+      <c r="ACK2" s="77"/>
+      <c r="ACL2" s="77"/>
+      <c r="ACM2" s="77"/>
+      <c r="ACN2" s="78"/>
+      <c r="ACO2" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="ACP2" s="64"/>
-      <c r="ACQ2" s="64"/>
-      <c r="ACR2" s="64"/>
-      <c r="ACS2" s="64"/>
-      <c r="ACT2" s="64"/>
-      <c r="ACU2" s="64"/>
-      <c r="ACV2" s="64"/>
-      <c r="ACW2" s="64"/>
-      <c r="ACX2" s="64"/>
-      <c r="ACY2" s="64"/>
-      <c r="ACZ2" s="64"/>
-      <c r="ADA2" s="64"/>
-      <c r="ADB2" s="64"/>
-      <c r="ADC2" s="64"/>
-      <c r="ADD2" s="64"/>
-      <c r="ADE2" s="64"/>
-      <c r="ADF2" s="64"/>
-      <c r="ADG2" s="64"/>
-      <c r="ADH2" s="64"/>
-      <c r="ADI2" s="66" t="s">
+      <c r="ACP2" s="136"/>
+      <c r="ACQ2" s="136"/>
+      <c r="ACR2" s="136"/>
+      <c r="ACS2" s="136"/>
+      <c r="ACT2" s="136"/>
+      <c r="ACU2" s="136"/>
+      <c r="ACV2" s="136"/>
+      <c r="ACW2" s="136"/>
+      <c r="ACX2" s="136"/>
+      <c r="ACY2" s="136"/>
+      <c r="ACZ2" s="136"/>
+      <c r="ADA2" s="136"/>
+      <c r="ADB2" s="136"/>
+      <c r="ADC2" s="136"/>
+      <c r="ADD2" s="136"/>
+      <c r="ADE2" s="136"/>
+      <c r="ADF2" s="136"/>
+      <c r="ADG2" s="136"/>
+      <c r="ADH2" s="136"/>
+      <c r="ADI2" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="ADJ2" s="66"/>
-      <c r="ADK2" s="66"/>
-      <c r="ADL2" s="66"/>
-      <c r="ADM2" s="66"/>
-      <c r="ADN2" s="66"/>
-      <c r="ADO2" s="66"/>
-      <c r="ADP2" s="66"/>
-      <c r="ADQ2" s="66"/>
-      <c r="ADR2" s="66"/>
-      <c r="ADS2" s="66"/>
-      <c r="ADT2" s="66"/>
-      <c r="ADU2" s="66"/>
-      <c r="ADV2" s="66"/>
-      <c r="ADW2" s="66"/>
-      <c r="ADX2" s="66"/>
-      <c r="ADY2" s="66"/>
-      <c r="ADZ2" s="66"/>
-      <c r="AEA2" s="66"/>
-      <c r="AEB2" s="66"/>
-      <c r="AEC2" s="66" t="s">
+      <c r="ADJ2" s="138"/>
+      <c r="ADK2" s="138"/>
+      <c r="ADL2" s="138"/>
+      <c r="ADM2" s="138"/>
+      <c r="ADN2" s="138"/>
+      <c r="ADO2" s="138"/>
+      <c r="ADP2" s="138"/>
+      <c r="ADQ2" s="138"/>
+      <c r="ADR2" s="138"/>
+      <c r="ADS2" s="138"/>
+      <c r="ADT2" s="138"/>
+      <c r="ADU2" s="138"/>
+      <c r="ADV2" s="138"/>
+      <c r="ADW2" s="138"/>
+      <c r="ADX2" s="138"/>
+      <c r="ADY2" s="138"/>
+      <c r="ADZ2" s="138"/>
+      <c r="AEA2" s="138"/>
+      <c r="AEB2" s="138"/>
+      <c r="AEC2" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="AED2" s="66"/>
-      <c r="AEE2" s="66"/>
-      <c r="AEF2" s="66"/>
-      <c r="AEG2" s="66"/>
-      <c r="AEH2" s="66"/>
-      <c r="AEI2" s="66"/>
-      <c r="AEJ2" s="66"/>
-      <c r="AEK2" s="66"/>
-      <c r="AEL2" s="66"/>
-      <c r="AEM2" s="66"/>
-      <c r="AEN2" s="66"/>
-      <c r="AEO2" s="66"/>
-      <c r="AEP2" s="66"/>
-      <c r="AEQ2" s="66"/>
-      <c r="AER2" s="66"/>
-      <c r="AES2" s="66"/>
-      <c r="AET2" s="66"/>
-      <c r="AEU2" s="66"/>
-      <c r="AEV2" s="66"/>
-      <c r="AEW2" s="71" t="s">
+      <c r="AED2" s="138"/>
+      <c r="AEE2" s="138"/>
+      <c r="AEF2" s="138"/>
+      <c r="AEG2" s="138"/>
+      <c r="AEH2" s="138"/>
+      <c r="AEI2" s="138"/>
+      <c r="AEJ2" s="138"/>
+      <c r="AEK2" s="138"/>
+      <c r="AEL2" s="138"/>
+      <c r="AEM2" s="138"/>
+      <c r="AEN2" s="138"/>
+      <c r="AEO2" s="138"/>
+      <c r="AEP2" s="138"/>
+      <c r="AEQ2" s="138"/>
+      <c r="AER2" s="138"/>
+      <c r="AES2" s="138"/>
+      <c r="AET2" s="138"/>
+      <c r="AEU2" s="138"/>
+      <c r="AEV2" s="138"/>
+      <c r="AEW2" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="AEX2" s="72"/>
-      <c r="AEY2" s="72"/>
-      <c r="AEZ2" s="72"/>
-      <c r="AFA2" s="72"/>
-      <c r="AFB2" s="72"/>
-      <c r="AFC2" s="72"/>
-      <c r="AFD2" s="72"/>
-      <c r="AFE2" s="72"/>
-      <c r="AFF2" s="72"/>
-      <c r="AFG2" s="72"/>
-      <c r="AFH2" s="72"/>
-      <c r="AFI2" s="72"/>
-      <c r="AFJ2" s="72"/>
-      <c r="AFK2" s="72"/>
-      <c r="AFL2" s="72"/>
-      <c r="AFM2" s="72"/>
-      <c r="AFN2" s="72"/>
-      <c r="AFO2" s="72"/>
-      <c r="AFP2" s="72"/>
-      <c r="AFQ2" s="72"/>
-      <c r="AFR2" s="72"/>
-      <c r="AFS2" s="72"/>
-      <c r="AFT2" s="72"/>
-      <c r="AFU2" s="72"/>
-      <c r="AFV2" s="72"/>
-      <c r="AFW2" s="72"/>
-      <c r="AFX2" s="72"/>
-      <c r="AFY2" s="72"/>
-      <c r="AFZ2" s="72"/>
-      <c r="AGA2" s="72"/>
-      <c r="AGB2" s="72"/>
-      <c r="AGC2" s="72"/>
-      <c r="AGD2" s="72"/>
-      <c r="AGE2" s="72"/>
-      <c r="AGF2" s="72"/>
-      <c r="AGG2" s="72"/>
-      <c r="AGH2" s="72"/>
-      <c r="AGI2" s="72"/>
-      <c r="AGJ2" s="72"/>
-      <c r="AGK2" s="72"/>
-      <c r="AGL2" s="72"/>
-      <c r="AGM2" s="72"/>
-      <c r="AGN2" s="72"/>
-      <c r="AGO2" s="72"/>
-      <c r="AGP2" s="72"/>
-      <c r="AGQ2" s="72"/>
-      <c r="AGR2" s="72"/>
-      <c r="AGS2" s="72"/>
-      <c r="AGT2" s="72"/>
-      <c r="AGU2" s="72"/>
-      <c r="AGV2" s="72"/>
-      <c r="AGW2" s="72"/>
-      <c r="AGX2" s="72"/>
-      <c r="AGY2" s="72"/>
-      <c r="AGZ2" s="72"/>
-      <c r="AHA2" s="72"/>
-      <c r="AHB2" s="72"/>
-      <c r="AHC2" s="72"/>
-      <c r="AHD2" s="72"/>
-      <c r="AHE2" s="72"/>
-      <c r="AHF2" s="72"/>
-      <c r="AHG2" s="72"/>
-      <c r="AHH2" s="72"/>
-      <c r="AHI2" s="72"/>
-      <c r="AHJ2" s="72"/>
-      <c r="AHK2" s="72"/>
-      <c r="AHL2" s="72"/>
-      <c r="AHM2" s="72"/>
-      <c r="AHN2" s="72"/>
-      <c r="AHO2" s="72"/>
-      <c r="AHP2" s="72"/>
-      <c r="AHQ2" s="72"/>
-      <c r="AHR2" s="72"/>
-      <c r="AHS2" s="72"/>
-      <c r="AHT2" s="72"/>
-      <c r="AHU2" s="72"/>
-      <c r="AHV2" s="72"/>
-      <c r="AHW2" s="72"/>
-      <c r="AHX2" s="72"/>
-      <c r="AHY2" s="72"/>
-      <c r="AHZ2" s="72"/>
-      <c r="AIA2" s="72"/>
-      <c r="AIB2" s="72"/>
-      <c r="AIC2" s="72"/>
-      <c r="AID2" s="72"/>
-      <c r="AIE2" s="72"/>
-      <c r="AIF2" s="72"/>
-      <c r="AIG2" s="72"/>
-      <c r="AIH2" s="72"/>
-      <c r="AII2" s="72"/>
-      <c r="AIJ2" s="72"/>
-      <c r="AIK2" s="72"/>
-      <c r="AIL2" s="72"/>
-      <c r="AIM2" s="72"/>
-      <c r="AIN2" s="72"/>
-      <c r="AIO2" s="72"/>
-      <c r="AIP2" s="72"/>
-      <c r="AIQ2" s="72"/>
-      <c r="AIR2" s="72"/>
-      <c r="AIS2" s="72"/>
-      <c r="AIT2" s="72"/>
-      <c r="AIU2" s="72"/>
-      <c r="AIV2" s="72"/>
-      <c r="AIW2" s="72"/>
-      <c r="AIX2" s="72"/>
-      <c r="AIY2" s="72"/>
-      <c r="AIZ2" s="72"/>
-      <c r="AJA2" s="72"/>
-      <c r="AJB2" s="72"/>
-      <c r="AJC2" s="72"/>
-      <c r="AJD2" s="72"/>
-      <c r="AJE2" s="72"/>
-      <c r="AJF2" s="72"/>
-      <c r="AJG2" s="72"/>
-      <c r="AJH2" s="72"/>
-      <c r="AJI2" s="72"/>
-      <c r="AJJ2" s="72"/>
-      <c r="AJK2" s="72"/>
-      <c r="AJL2" s="72"/>
-      <c r="AJM2" s="72"/>
-      <c r="AJN2" s="72"/>
-      <c r="AJO2" s="72"/>
-      <c r="AJP2" s="72"/>
-      <c r="AJQ2" s="72"/>
-      <c r="AJR2" s="72"/>
-      <c r="AJS2" s="72"/>
-      <c r="AJT2" s="72"/>
-      <c r="AJU2" s="72"/>
-      <c r="AJV2" s="72"/>
-      <c r="AJW2" s="72"/>
-      <c r="AJX2" s="72"/>
-      <c r="AJY2" s="72"/>
-      <c r="AJZ2" s="72"/>
-      <c r="AKA2" s="72"/>
-      <c r="AKB2" s="72"/>
-      <c r="AKC2" s="72"/>
-      <c r="AKD2" s="72"/>
-      <c r="AKE2" s="72"/>
-      <c r="AKF2" s="72"/>
-      <c r="AKG2" s="72"/>
-      <c r="AKH2" s="72"/>
-      <c r="AKI2" s="72"/>
-      <c r="AKJ2" s="72"/>
-      <c r="AKK2" s="72"/>
-      <c r="AKL2" s="72"/>
-      <c r="AKM2" s="72"/>
-      <c r="AKN2" s="72"/>
-      <c r="AKO2" s="72"/>
-      <c r="AKP2" s="72"/>
-      <c r="AKQ2" s="72"/>
-      <c r="AKR2" s="72"/>
-      <c r="AKS2" s="72"/>
-      <c r="AKT2" s="72"/>
-      <c r="AKU2" s="72"/>
-      <c r="AKV2" s="72"/>
-      <c r="AKW2" s="72"/>
-      <c r="AKX2" s="72"/>
-      <c r="AKY2" s="72"/>
-      <c r="AKZ2" s="72"/>
-      <c r="ALA2" s="72"/>
-      <c r="ALB2" s="72"/>
-      <c r="ALC2" s="72"/>
-      <c r="ALD2" s="72"/>
-      <c r="ALE2" s="72"/>
-      <c r="ALF2" s="72"/>
-      <c r="ALG2" s="72"/>
-      <c r="ALH2" s="72"/>
-      <c r="ALI2" s="72"/>
-      <c r="ALJ2" s="72"/>
-      <c r="ALK2" s="72"/>
-      <c r="ALL2" s="72"/>
-      <c r="ALM2" s="72"/>
-      <c r="ALN2" s="72"/>
-      <c r="ALO2" s="72"/>
-      <c r="ALP2" s="72"/>
-      <c r="ALQ2" s="72"/>
-      <c r="ALR2" s="72"/>
-      <c r="ALS2" s="72"/>
-      <c r="ALT2" s="72"/>
-      <c r="ALU2" s="72"/>
-      <c r="ALV2" s="72"/>
-      <c r="ALW2" s="72"/>
-      <c r="ALX2" s="72"/>
-      <c r="ALY2" s="72"/>
-      <c r="ALZ2" s="72"/>
-      <c r="AMA2" s="72"/>
-      <c r="AMB2" s="72"/>
-      <c r="AMC2" s="72"/>
-      <c r="AMD2" s="72"/>
-      <c r="AME2" s="72"/>
-      <c r="AMF2" s="72"/>
-      <c r="AMG2" s="72"/>
-      <c r="AMH2" s="72"/>
-      <c r="AMI2" s="72"/>
-      <c r="AMJ2" s="72"/>
-      <c r="AMK2" s="72"/>
-      <c r="AML2" s="72"/>
-      <c r="AMM2" s="72"/>
-      <c r="AMN2" s="72"/>
-      <c r="AMO2" s="72"/>
-      <c r="AMP2" s="72"/>
-      <c r="AMQ2" s="72"/>
-      <c r="AMR2" s="72"/>
-      <c r="AMS2" s="72"/>
-      <c r="AMT2" s="72"/>
-      <c r="AMU2" s="72"/>
-      <c r="AMV2" s="72"/>
-      <c r="AMW2" s="72"/>
-      <c r="AMX2" s="72"/>
-      <c r="AMY2" s="72"/>
-      <c r="AMZ2" s="72"/>
-      <c r="ANA2" s="72"/>
-      <c r="ANB2" s="72"/>
-      <c r="ANC2" s="72"/>
-      <c r="AND2" s="72"/>
-      <c r="ANE2" s="72"/>
-      <c r="ANF2" s="72"/>
-      <c r="ANG2" s="72"/>
-      <c r="ANH2" s="72"/>
-      <c r="ANI2" s="72"/>
-      <c r="ANJ2" s="72"/>
-      <c r="ANK2" s="72"/>
-      <c r="ANL2" s="72"/>
-      <c r="ANM2" s="72"/>
-      <c r="ANN2" s="72"/>
-      <c r="ANO2" s="72"/>
-      <c r="ANP2" s="72"/>
-      <c r="ANQ2" s="72"/>
-      <c r="ANR2" s="72"/>
-      <c r="ANS2" s="72"/>
-      <c r="ANT2" s="72"/>
-      <c r="ANU2" s="72"/>
-      <c r="ANV2" s="72"/>
-      <c r="ANW2" s="72"/>
-      <c r="ANX2" s="72"/>
-      <c r="ANY2" s="72"/>
-      <c r="ANZ2" s="72"/>
-      <c r="AOA2" s="72"/>
-      <c r="AOB2" s="65"/>
-      <c r="AOC2" s="118"/>
-      <c r="AOD2" s="148"/>
-      <c r="AOE2" s="149"/>
-      <c r="AOF2" s="149"/>
-      <c r="AOG2" s="149"/>
-      <c r="AOH2" s="150"/>
-      <c r="AOI2" s="120"/>
-      <c r="AOJ2" s="129"/>
-      <c r="AOK2" s="129"/>
-      <c r="AOL2" s="129"/>
-      <c r="AOM2" s="130"/>
-      <c r="AON2" s="141"/>
-      <c r="AOO2" s="142"/>
-      <c r="AOP2" s="142"/>
-      <c r="AOQ2" s="142"/>
-      <c r="AOR2" s="142"/>
-      <c r="AOS2" s="142"/>
-      <c r="AOT2" s="142"/>
-      <c r="AOU2" s="142"/>
-      <c r="AOV2" s="142"/>
-      <c r="AOW2" s="142"/>
-      <c r="AOX2" s="142"/>
-      <c r="AOY2" s="142"/>
-      <c r="AOZ2" s="142"/>
-      <c r="APA2" s="142"/>
-      <c r="APB2" s="142"/>
-      <c r="APC2" s="142"/>
-      <c r="APD2" s="142"/>
-      <c r="APE2" s="142"/>
-      <c r="APF2" s="142"/>
-      <c r="APG2" s="142"/>
-      <c r="APH2" s="142"/>
-      <c r="API2" s="142"/>
-      <c r="APJ2" s="142"/>
-      <c r="APK2" s="142"/>
-      <c r="APL2" s="142"/>
-      <c r="APM2" s="142"/>
-      <c r="APN2" s="142"/>
-      <c r="APO2" s="142"/>
-      <c r="APP2" s="142"/>
-      <c r="APQ2" s="143"/>
-      <c r="APR2" s="144"/>
-      <c r="APS2" s="144"/>
-      <c r="APT2" s="144"/>
-      <c r="APU2" s="144"/>
-      <c r="APV2" s="144"/>
-      <c r="APW2" s="144"/>
-      <c r="APX2" s="144"/>
-      <c r="APY2" s="144"/>
-      <c r="APZ2" s="144"/>
-      <c r="AQA2" s="145"/>
-      <c r="AQB2" s="70" t="s">
+      <c r="AEX2" s="144"/>
+      <c r="AEY2" s="144"/>
+      <c r="AEZ2" s="144"/>
+      <c r="AFA2" s="144"/>
+      <c r="AFB2" s="144"/>
+      <c r="AFC2" s="144"/>
+      <c r="AFD2" s="144"/>
+      <c r="AFE2" s="144"/>
+      <c r="AFF2" s="144"/>
+      <c r="AFG2" s="144"/>
+      <c r="AFH2" s="144"/>
+      <c r="AFI2" s="144"/>
+      <c r="AFJ2" s="144"/>
+      <c r="AFK2" s="144"/>
+      <c r="AFL2" s="144"/>
+      <c r="AFM2" s="144"/>
+      <c r="AFN2" s="144"/>
+      <c r="AFO2" s="144"/>
+      <c r="AFP2" s="144"/>
+      <c r="AFQ2" s="144"/>
+      <c r="AFR2" s="144"/>
+      <c r="AFS2" s="144"/>
+      <c r="AFT2" s="144"/>
+      <c r="AFU2" s="144"/>
+      <c r="AFV2" s="144"/>
+      <c r="AFW2" s="144"/>
+      <c r="AFX2" s="144"/>
+      <c r="AFY2" s="144"/>
+      <c r="AFZ2" s="144"/>
+      <c r="AGA2" s="144"/>
+      <c r="AGB2" s="144"/>
+      <c r="AGC2" s="144"/>
+      <c r="AGD2" s="144"/>
+      <c r="AGE2" s="144"/>
+      <c r="AGF2" s="144"/>
+      <c r="AGG2" s="144"/>
+      <c r="AGH2" s="144"/>
+      <c r="AGI2" s="144"/>
+      <c r="AGJ2" s="144"/>
+      <c r="AGK2" s="144"/>
+      <c r="AGL2" s="144"/>
+      <c r="AGM2" s="144"/>
+      <c r="AGN2" s="144"/>
+      <c r="AGO2" s="144"/>
+      <c r="AGP2" s="144"/>
+      <c r="AGQ2" s="144"/>
+      <c r="AGR2" s="144"/>
+      <c r="AGS2" s="144"/>
+      <c r="AGT2" s="144"/>
+      <c r="AGU2" s="144"/>
+      <c r="AGV2" s="144"/>
+      <c r="AGW2" s="144"/>
+      <c r="AGX2" s="144"/>
+      <c r="AGY2" s="144"/>
+      <c r="AGZ2" s="144"/>
+      <c r="AHA2" s="144"/>
+      <c r="AHB2" s="144"/>
+      <c r="AHC2" s="144"/>
+      <c r="AHD2" s="144"/>
+      <c r="AHE2" s="144"/>
+      <c r="AHF2" s="144"/>
+      <c r="AHG2" s="144"/>
+      <c r="AHH2" s="144"/>
+      <c r="AHI2" s="144"/>
+      <c r="AHJ2" s="144"/>
+      <c r="AHK2" s="144"/>
+      <c r="AHL2" s="144"/>
+      <c r="AHM2" s="144"/>
+      <c r="AHN2" s="144"/>
+      <c r="AHO2" s="144"/>
+      <c r="AHP2" s="144"/>
+      <c r="AHQ2" s="144"/>
+      <c r="AHR2" s="144"/>
+      <c r="AHS2" s="144"/>
+      <c r="AHT2" s="144"/>
+      <c r="AHU2" s="144"/>
+      <c r="AHV2" s="144"/>
+      <c r="AHW2" s="144"/>
+      <c r="AHX2" s="144"/>
+      <c r="AHY2" s="144"/>
+      <c r="AHZ2" s="144"/>
+      <c r="AIA2" s="144"/>
+      <c r="AIB2" s="144"/>
+      <c r="AIC2" s="144"/>
+      <c r="AID2" s="144"/>
+      <c r="AIE2" s="144"/>
+      <c r="AIF2" s="144"/>
+      <c r="AIG2" s="144"/>
+      <c r="AIH2" s="144"/>
+      <c r="AII2" s="144"/>
+      <c r="AIJ2" s="144"/>
+      <c r="AIK2" s="144"/>
+      <c r="AIL2" s="144"/>
+      <c r="AIM2" s="144"/>
+      <c r="AIN2" s="144"/>
+      <c r="AIO2" s="144"/>
+      <c r="AIP2" s="144"/>
+      <c r="AIQ2" s="144"/>
+      <c r="AIR2" s="144"/>
+      <c r="AIS2" s="144"/>
+      <c r="AIT2" s="144"/>
+      <c r="AIU2" s="144"/>
+      <c r="AIV2" s="144"/>
+      <c r="AIW2" s="144"/>
+      <c r="AIX2" s="144"/>
+      <c r="AIY2" s="144"/>
+      <c r="AIZ2" s="144"/>
+      <c r="AJA2" s="144"/>
+      <c r="AJB2" s="144"/>
+      <c r="AJC2" s="144"/>
+      <c r="AJD2" s="144"/>
+      <c r="AJE2" s="144"/>
+      <c r="AJF2" s="144"/>
+      <c r="AJG2" s="144"/>
+      <c r="AJH2" s="144"/>
+      <c r="AJI2" s="144"/>
+      <c r="AJJ2" s="144"/>
+      <c r="AJK2" s="144"/>
+      <c r="AJL2" s="144"/>
+      <c r="AJM2" s="144"/>
+      <c r="AJN2" s="144"/>
+      <c r="AJO2" s="144"/>
+      <c r="AJP2" s="144"/>
+      <c r="AJQ2" s="144"/>
+      <c r="AJR2" s="144"/>
+      <c r="AJS2" s="144"/>
+      <c r="AJT2" s="144"/>
+      <c r="AJU2" s="144"/>
+      <c r="AJV2" s="144"/>
+      <c r="AJW2" s="144"/>
+      <c r="AJX2" s="144"/>
+      <c r="AJY2" s="144"/>
+      <c r="AJZ2" s="144"/>
+      <c r="AKA2" s="144"/>
+      <c r="AKB2" s="144"/>
+      <c r="AKC2" s="144"/>
+      <c r="AKD2" s="144"/>
+      <c r="AKE2" s="144"/>
+      <c r="AKF2" s="144"/>
+      <c r="AKG2" s="144"/>
+      <c r="AKH2" s="144"/>
+      <c r="AKI2" s="144"/>
+      <c r="AKJ2" s="144"/>
+      <c r="AKK2" s="144"/>
+      <c r="AKL2" s="144"/>
+      <c r="AKM2" s="144"/>
+      <c r="AKN2" s="144"/>
+      <c r="AKO2" s="144"/>
+      <c r="AKP2" s="144"/>
+      <c r="AKQ2" s="144"/>
+      <c r="AKR2" s="144"/>
+      <c r="AKS2" s="144"/>
+      <c r="AKT2" s="144"/>
+      <c r="AKU2" s="144"/>
+      <c r="AKV2" s="144"/>
+      <c r="AKW2" s="144"/>
+      <c r="AKX2" s="144"/>
+      <c r="AKY2" s="144"/>
+      <c r="AKZ2" s="144"/>
+      <c r="ALA2" s="144"/>
+      <c r="ALB2" s="144"/>
+      <c r="ALC2" s="144"/>
+      <c r="ALD2" s="144"/>
+      <c r="ALE2" s="144"/>
+      <c r="ALF2" s="144"/>
+      <c r="ALG2" s="144"/>
+      <c r="ALH2" s="144"/>
+      <c r="ALI2" s="144"/>
+      <c r="ALJ2" s="144"/>
+      <c r="ALK2" s="144"/>
+      <c r="ALL2" s="144"/>
+      <c r="ALM2" s="144"/>
+      <c r="ALN2" s="144"/>
+      <c r="ALO2" s="144"/>
+      <c r="ALP2" s="144"/>
+      <c r="ALQ2" s="144"/>
+      <c r="ALR2" s="144"/>
+      <c r="ALS2" s="144"/>
+      <c r="ALT2" s="144"/>
+      <c r="ALU2" s="144"/>
+      <c r="ALV2" s="144"/>
+      <c r="ALW2" s="144"/>
+      <c r="ALX2" s="144"/>
+      <c r="ALY2" s="144"/>
+      <c r="ALZ2" s="144"/>
+      <c r="AMA2" s="144"/>
+      <c r="AMB2" s="144"/>
+      <c r="AMC2" s="144"/>
+      <c r="AMD2" s="144"/>
+      <c r="AME2" s="144"/>
+      <c r="AMF2" s="144"/>
+      <c r="AMG2" s="144"/>
+      <c r="AMH2" s="144"/>
+      <c r="AMI2" s="144"/>
+      <c r="AMJ2" s="144"/>
+      <c r="AMK2" s="144"/>
+      <c r="AML2" s="144"/>
+      <c r="AMM2" s="144"/>
+      <c r="AMN2" s="144"/>
+      <c r="AMO2" s="144"/>
+      <c r="AMP2" s="144"/>
+      <c r="AMQ2" s="144"/>
+      <c r="AMR2" s="144"/>
+      <c r="AMS2" s="144"/>
+      <c r="AMT2" s="144"/>
+      <c r="AMU2" s="144"/>
+      <c r="AMV2" s="144"/>
+      <c r="AMW2" s="144"/>
+      <c r="AMX2" s="144"/>
+      <c r="AMY2" s="144"/>
+      <c r="AMZ2" s="144"/>
+      <c r="ANA2" s="144"/>
+      <c r="ANB2" s="144"/>
+      <c r="ANC2" s="144"/>
+      <c r="AND2" s="144"/>
+      <c r="ANE2" s="144"/>
+      <c r="ANF2" s="144"/>
+      <c r="ANG2" s="144"/>
+      <c r="ANH2" s="144"/>
+      <c r="ANI2" s="144"/>
+      <c r="ANJ2" s="144"/>
+      <c r="ANK2" s="144"/>
+      <c r="ANL2" s="144"/>
+      <c r="ANM2" s="144"/>
+      <c r="ANN2" s="144"/>
+      <c r="ANO2" s="144"/>
+      <c r="ANP2" s="144"/>
+      <c r="ANQ2" s="144"/>
+      <c r="ANR2" s="144"/>
+      <c r="ANS2" s="144"/>
+      <c r="ANT2" s="144"/>
+      <c r="ANU2" s="144"/>
+      <c r="ANV2" s="144"/>
+      <c r="ANW2" s="144"/>
+      <c r="ANX2" s="144"/>
+      <c r="ANY2" s="144"/>
+      <c r="ANZ2" s="144"/>
+      <c r="AOA2" s="144"/>
+      <c r="AOB2" s="137"/>
+      <c r="AOC2" s="148"/>
+      <c r="AOD2" s="81"/>
+      <c r="AOE2" s="82"/>
+      <c r="AOF2" s="82"/>
+      <c r="AOG2" s="82"/>
+      <c r="AOH2" s="83"/>
+      <c r="AOI2" s="150"/>
+      <c r="AOJ2" s="62"/>
+      <c r="AOK2" s="62"/>
+      <c r="AOL2" s="62"/>
+      <c r="AOM2" s="63"/>
+      <c r="AON2" s="74"/>
+      <c r="AOO2" s="75"/>
+      <c r="AOP2" s="75"/>
+      <c r="AOQ2" s="75"/>
+      <c r="AOR2" s="75"/>
+      <c r="AOS2" s="75"/>
+      <c r="AOT2" s="75"/>
+      <c r="AOU2" s="75"/>
+      <c r="AOV2" s="75"/>
+      <c r="AOW2" s="75"/>
+      <c r="AOX2" s="75"/>
+      <c r="AOY2" s="75"/>
+      <c r="AOZ2" s="75"/>
+      <c r="APA2" s="75"/>
+      <c r="APB2" s="75"/>
+      <c r="APC2" s="75"/>
+      <c r="APD2" s="75"/>
+      <c r="APE2" s="75"/>
+      <c r="APF2" s="75"/>
+      <c r="APG2" s="75"/>
+      <c r="APH2" s="75"/>
+      <c r="API2" s="75"/>
+      <c r="APJ2" s="75"/>
+      <c r="APK2" s="75"/>
+      <c r="APL2" s="75"/>
+      <c r="APM2" s="75"/>
+      <c r="APN2" s="75"/>
+      <c r="APO2" s="75"/>
+      <c r="APP2" s="75"/>
+      <c r="APQ2" s="76"/>
+      <c r="APR2" s="77"/>
+      <c r="APS2" s="77"/>
+      <c r="APT2" s="77"/>
+      <c r="APU2" s="77"/>
+      <c r="APV2" s="77"/>
+      <c r="APW2" s="77"/>
+      <c r="APX2" s="77"/>
+      <c r="APY2" s="77"/>
+      <c r="APZ2" s="77"/>
+      <c r="AQA2" s="78"/>
+      <c r="AQB2" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="AQC2" s="64"/>
-      <c r="AQD2" s="64"/>
-      <c r="AQE2" s="64"/>
-      <c r="AQF2" s="64"/>
-      <c r="AQG2" s="64"/>
-      <c r="AQH2" s="64"/>
-      <c r="AQI2" s="64"/>
-      <c r="AQJ2" s="64"/>
-      <c r="AQK2" s="64"/>
-      <c r="AQL2" s="64"/>
-      <c r="AQM2" s="64"/>
-      <c r="AQN2" s="64"/>
-      <c r="AQO2" s="64"/>
-      <c r="AQP2" s="64"/>
-      <c r="AQQ2" s="64"/>
-      <c r="AQR2" s="64"/>
-      <c r="AQS2" s="64"/>
-      <c r="AQT2" s="64"/>
-      <c r="AQU2" s="64"/>
-      <c r="AQV2" s="66" t="s">
+      <c r="AQC2" s="136"/>
+      <c r="AQD2" s="136"/>
+      <c r="AQE2" s="136"/>
+      <c r="AQF2" s="136"/>
+      <c r="AQG2" s="136"/>
+      <c r="AQH2" s="136"/>
+      <c r="AQI2" s="136"/>
+      <c r="AQJ2" s="136"/>
+      <c r="AQK2" s="136"/>
+      <c r="AQL2" s="136"/>
+      <c r="AQM2" s="136"/>
+      <c r="AQN2" s="136"/>
+      <c r="AQO2" s="136"/>
+      <c r="AQP2" s="136"/>
+      <c r="AQQ2" s="136"/>
+      <c r="AQR2" s="136"/>
+      <c r="AQS2" s="136"/>
+      <c r="AQT2" s="136"/>
+      <c r="AQU2" s="136"/>
+      <c r="AQV2" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="AQW2" s="66"/>
-      <c r="AQX2" s="66"/>
-      <c r="AQY2" s="66"/>
-      <c r="AQZ2" s="66"/>
-      <c r="ARA2" s="66"/>
-      <c r="ARB2" s="66"/>
-      <c r="ARC2" s="66"/>
-      <c r="ARD2" s="66"/>
-      <c r="ARE2" s="66"/>
-      <c r="ARF2" s="66"/>
-      <c r="ARG2" s="66"/>
-      <c r="ARH2" s="66"/>
-      <c r="ARI2" s="66"/>
-      <c r="ARJ2" s="66"/>
-      <c r="ARK2" s="66"/>
-      <c r="ARL2" s="66"/>
-      <c r="ARM2" s="66"/>
-      <c r="ARN2" s="66"/>
-      <c r="ARO2" s="66"/>
-      <c r="ARP2" s="66" t="s">
+      <c r="AQW2" s="138"/>
+      <c r="AQX2" s="138"/>
+      <c r="AQY2" s="138"/>
+      <c r="AQZ2" s="138"/>
+      <c r="ARA2" s="138"/>
+      <c r="ARB2" s="138"/>
+      <c r="ARC2" s="138"/>
+      <c r="ARD2" s="138"/>
+      <c r="ARE2" s="138"/>
+      <c r="ARF2" s="138"/>
+      <c r="ARG2" s="138"/>
+      <c r="ARH2" s="138"/>
+      <c r="ARI2" s="138"/>
+      <c r="ARJ2" s="138"/>
+      <c r="ARK2" s="138"/>
+      <c r="ARL2" s="138"/>
+      <c r="ARM2" s="138"/>
+      <c r="ARN2" s="138"/>
+      <c r="ARO2" s="138"/>
+      <c r="ARP2" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="ARQ2" s="66"/>
-      <c r="ARR2" s="66"/>
-      <c r="ARS2" s="66"/>
-      <c r="ART2" s="66"/>
-      <c r="ARU2" s="66"/>
-      <c r="ARV2" s="66"/>
-      <c r="ARW2" s="66"/>
-      <c r="ARX2" s="66"/>
-      <c r="ARY2" s="66"/>
-      <c r="ARZ2" s="66"/>
-      <c r="ASA2" s="66"/>
-      <c r="ASB2" s="66"/>
-      <c r="ASC2" s="66"/>
-      <c r="ASD2" s="66"/>
-      <c r="ASE2" s="66"/>
-      <c r="ASF2" s="66"/>
-      <c r="ASG2" s="66"/>
-      <c r="ASH2" s="66"/>
-      <c r="ASI2" s="66"/>
-      <c r="ASJ2" s="67" t="s">
+      <c r="ARQ2" s="138"/>
+      <c r="ARR2" s="138"/>
+      <c r="ARS2" s="138"/>
+      <c r="ART2" s="138"/>
+      <c r="ARU2" s="138"/>
+      <c r="ARV2" s="138"/>
+      <c r="ARW2" s="138"/>
+      <c r="ARX2" s="138"/>
+      <c r="ARY2" s="138"/>
+      <c r="ARZ2" s="138"/>
+      <c r="ASA2" s="138"/>
+      <c r="ASB2" s="138"/>
+      <c r="ASC2" s="138"/>
+      <c r="ASD2" s="138"/>
+      <c r="ASE2" s="138"/>
+      <c r="ASF2" s="138"/>
+      <c r="ASG2" s="138"/>
+      <c r="ASH2" s="138"/>
+      <c r="ASI2" s="138"/>
+      <c r="ASJ2" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="ASK2" s="68"/>
-      <c r="ASL2" s="68"/>
-      <c r="ASM2" s="68"/>
-      <c r="ASN2" s="68"/>
-      <c r="ASO2" s="68"/>
-      <c r="ASP2" s="68"/>
-      <c r="ASQ2" s="68"/>
-      <c r="ASR2" s="68"/>
-      <c r="ASS2" s="68"/>
-      <c r="AST2" s="68"/>
-      <c r="ASU2" s="68"/>
-      <c r="ASV2" s="68"/>
-      <c r="ASW2" s="68"/>
-      <c r="ASX2" s="68"/>
-      <c r="ASY2" s="68"/>
-      <c r="ASZ2" s="68"/>
-      <c r="ATA2" s="68"/>
-      <c r="ATB2" s="68"/>
-      <c r="ATC2" s="68"/>
-      <c r="ATD2" s="68"/>
-      <c r="ATE2" s="68"/>
-      <c r="ATF2" s="68"/>
-      <c r="ATG2" s="68"/>
-      <c r="ATH2" s="68"/>
-      <c r="ATI2" s="68"/>
-      <c r="ATJ2" s="68"/>
-      <c r="ATK2" s="68"/>
-      <c r="ATL2" s="68"/>
-      <c r="ATM2" s="68"/>
-      <c r="ATN2" s="68"/>
-      <c r="ATO2" s="68"/>
-      <c r="ATP2" s="68"/>
-      <c r="ATQ2" s="68"/>
-      <c r="ATR2" s="68"/>
-      <c r="ATS2" s="68"/>
-      <c r="ATT2" s="68"/>
-      <c r="ATU2" s="68"/>
-      <c r="ATV2" s="68"/>
-      <c r="ATW2" s="68"/>
-      <c r="ATX2" s="68"/>
-      <c r="ATY2" s="68"/>
-      <c r="ATZ2" s="68"/>
-      <c r="AUA2" s="68"/>
-      <c r="AUB2" s="68"/>
-      <c r="AUC2" s="68"/>
-      <c r="AUD2" s="68"/>
-      <c r="AUE2" s="68"/>
-      <c r="AUF2" s="68"/>
-      <c r="AUG2" s="68"/>
-      <c r="AUH2" s="68"/>
-      <c r="AUI2" s="68"/>
-      <c r="AUJ2" s="68"/>
-      <c r="AUK2" s="68"/>
-      <c r="AUL2" s="68"/>
-      <c r="AUM2" s="68"/>
-      <c r="AUN2" s="68"/>
-      <c r="AUO2" s="68"/>
-      <c r="AUP2" s="68"/>
-      <c r="AUQ2" s="68"/>
-      <c r="AUR2" s="68"/>
-      <c r="AUS2" s="68"/>
-      <c r="AUT2" s="68"/>
-      <c r="AUU2" s="68"/>
-      <c r="AUV2" s="68"/>
-      <c r="AUW2" s="68"/>
-      <c r="AUX2" s="68"/>
-      <c r="AUY2" s="68"/>
-      <c r="AUZ2" s="68"/>
-      <c r="AVA2" s="68"/>
-      <c r="AVB2" s="68"/>
-      <c r="AVC2" s="68"/>
-      <c r="AVD2" s="68"/>
-      <c r="AVE2" s="68"/>
-      <c r="AVF2" s="68"/>
-      <c r="AVG2" s="68"/>
-      <c r="AVH2" s="68"/>
-      <c r="AVI2" s="68"/>
-      <c r="AVJ2" s="68"/>
-      <c r="AVK2" s="68"/>
-      <c r="AVL2" s="68"/>
-      <c r="AVM2" s="68"/>
-      <c r="AVN2" s="68"/>
-      <c r="AVO2" s="68"/>
-      <c r="AVP2" s="68"/>
-      <c r="AVQ2" s="68"/>
-      <c r="AVR2" s="68"/>
-      <c r="AVS2" s="68"/>
-      <c r="AVT2" s="68"/>
-      <c r="AVU2" s="68"/>
-      <c r="AVV2" s="68"/>
-      <c r="AVW2" s="68"/>
-      <c r="AVX2" s="68"/>
-      <c r="AVY2" s="68"/>
-      <c r="AVZ2" s="68"/>
-      <c r="AWA2" s="68"/>
-      <c r="AWB2" s="68"/>
-      <c r="AWC2" s="68"/>
-      <c r="AWD2" s="68"/>
-      <c r="AWE2" s="68"/>
-      <c r="AWF2" s="68"/>
-      <c r="AWG2" s="68"/>
-      <c r="AWH2" s="68"/>
-      <c r="AWI2" s="68"/>
-      <c r="AWJ2" s="68"/>
-      <c r="AWK2" s="68"/>
-      <c r="AWL2" s="68"/>
-      <c r="AWM2" s="68"/>
-      <c r="AWN2" s="68"/>
-      <c r="AWO2" s="68"/>
-      <c r="AWP2" s="68"/>
-      <c r="AWQ2" s="68"/>
-      <c r="AWR2" s="68"/>
-      <c r="AWS2" s="68"/>
-      <c r="AWT2" s="68"/>
-      <c r="AWU2" s="68"/>
-      <c r="AWV2" s="68"/>
-      <c r="AWW2" s="68"/>
-      <c r="AWX2" s="68"/>
-      <c r="AWY2" s="68"/>
-      <c r="AWZ2" s="68"/>
-      <c r="AXA2" s="68"/>
-      <c r="AXB2" s="68"/>
-      <c r="AXC2" s="68"/>
-      <c r="AXD2" s="68"/>
-      <c r="AXE2" s="68"/>
-      <c r="AXF2" s="68"/>
-      <c r="AXG2" s="68"/>
-      <c r="AXH2" s="68"/>
-      <c r="AXI2" s="68"/>
-      <c r="AXJ2" s="68"/>
-      <c r="AXK2" s="68"/>
-      <c r="AXL2" s="68"/>
-      <c r="AXM2" s="68"/>
-      <c r="AXN2" s="68"/>
-      <c r="AXO2" s="68"/>
-      <c r="AXP2" s="68"/>
-      <c r="AXQ2" s="68"/>
-      <c r="AXR2" s="68"/>
-      <c r="AXS2" s="68"/>
-      <c r="AXT2" s="68"/>
-      <c r="AXU2" s="68"/>
-      <c r="AXV2" s="68"/>
-      <c r="AXW2" s="68"/>
-      <c r="AXX2" s="68"/>
-      <c r="AXY2" s="68"/>
-      <c r="AXZ2" s="68"/>
-      <c r="AYA2" s="68"/>
-      <c r="AYB2" s="68"/>
-      <c r="AYC2" s="68"/>
-      <c r="AYD2" s="68"/>
-      <c r="AYE2" s="68"/>
-      <c r="AYF2" s="68"/>
-      <c r="AYG2" s="68"/>
-      <c r="AYH2" s="68"/>
-      <c r="AYI2" s="68"/>
-      <c r="AYJ2" s="68"/>
-      <c r="AYK2" s="68"/>
-      <c r="AYL2" s="68"/>
-      <c r="AYM2" s="68"/>
-      <c r="AYN2" s="68"/>
-      <c r="AYO2" s="68"/>
-      <c r="AYP2" s="68"/>
-      <c r="AYQ2" s="68"/>
-      <c r="AYR2" s="68"/>
-      <c r="AYS2" s="68"/>
-      <c r="AYT2" s="68"/>
-      <c r="AYU2" s="68"/>
-      <c r="AYV2" s="68"/>
-      <c r="AYW2" s="68"/>
-      <c r="AYX2" s="68"/>
-      <c r="AYY2" s="68"/>
-      <c r="AYZ2" s="68"/>
-      <c r="AZA2" s="68"/>
-      <c r="AZB2" s="68"/>
-      <c r="AZC2" s="68"/>
-      <c r="AZD2" s="68"/>
-      <c r="AZE2" s="68"/>
-      <c r="AZF2" s="68"/>
-      <c r="AZG2" s="68"/>
-      <c r="AZH2" s="68"/>
-      <c r="AZI2" s="68"/>
-      <c r="AZJ2" s="68"/>
-      <c r="AZK2" s="68"/>
-      <c r="AZL2" s="68"/>
-      <c r="AZM2" s="68"/>
-      <c r="AZN2" s="68"/>
-      <c r="AZO2" s="68"/>
-      <c r="AZP2" s="68"/>
-      <c r="AZQ2" s="68"/>
-      <c r="AZR2" s="68"/>
-      <c r="AZS2" s="68"/>
-      <c r="AZT2" s="68"/>
-      <c r="AZU2" s="68"/>
-      <c r="AZV2" s="68"/>
-      <c r="AZW2" s="68"/>
-      <c r="AZX2" s="68"/>
-      <c r="AZY2" s="68"/>
-      <c r="AZZ2" s="68"/>
-      <c r="BAA2" s="68"/>
-      <c r="BAB2" s="68"/>
-      <c r="BAC2" s="68"/>
-      <c r="BAD2" s="68"/>
-      <c r="BAE2" s="68"/>
-      <c r="BAF2" s="68"/>
-      <c r="BAG2" s="68"/>
-      <c r="BAH2" s="68"/>
-      <c r="BAI2" s="68"/>
-      <c r="BAJ2" s="68"/>
-      <c r="BAK2" s="68"/>
-      <c r="BAL2" s="68"/>
-      <c r="BAM2" s="68"/>
-      <c r="BAN2" s="68"/>
-      <c r="BAO2" s="68"/>
-      <c r="BAP2" s="68"/>
-      <c r="BAQ2" s="68"/>
-      <c r="BAR2" s="68"/>
-      <c r="BAS2" s="68"/>
-      <c r="BAT2" s="68"/>
-      <c r="BAU2" s="68"/>
-      <c r="BAV2" s="68"/>
-      <c r="BAW2" s="68"/>
-      <c r="BAX2" s="68"/>
-      <c r="BAY2" s="68"/>
-      <c r="BAZ2" s="68"/>
-      <c r="BBA2" s="68"/>
-      <c r="BBB2" s="68"/>
-      <c r="BBC2" s="68"/>
-      <c r="BBD2" s="68"/>
-      <c r="BBE2" s="68"/>
-      <c r="BBF2" s="68"/>
-      <c r="BBG2" s="68"/>
-      <c r="BBH2" s="68"/>
-      <c r="BBI2" s="68"/>
-      <c r="BBJ2" s="68"/>
-      <c r="BBK2" s="68"/>
-      <c r="BBL2" s="68"/>
-      <c r="BBM2" s="68"/>
-      <c r="BBN2" s="68"/>
-      <c r="BBO2" s="73"/>
+      <c r="ASK2" s="140"/>
+      <c r="ASL2" s="140"/>
+      <c r="ASM2" s="140"/>
+      <c r="ASN2" s="140"/>
+      <c r="ASO2" s="140"/>
+      <c r="ASP2" s="140"/>
+      <c r="ASQ2" s="140"/>
+      <c r="ASR2" s="140"/>
+      <c r="ASS2" s="140"/>
+      <c r="AST2" s="140"/>
+      <c r="ASU2" s="140"/>
+      <c r="ASV2" s="140"/>
+      <c r="ASW2" s="140"/>
+      <c r="ASX2" s="140"/>
+      <c r="ASY2" s="140"/>
+      <c r="ASZ2" s="140"/>
+      <c r="ATA2" s="140"/>
+      <c r="ATB2" s="140"/>
+      <c r="ATC2" s="140"/>
+      <c r="ATD2" s="140"/>
+      <c r="ATE2" s="140"/>
+      <c r="ATF2" s="140"/>
+      <c r="ATG2" s="140"/>
+      <c r="ATH2" s="140"/>
+      <c r="ATI2" s="140"/>
+      <c r="ATJ2" s="140"/>
+      <c r="ATK2" s="140"/>
+      <c r="ATL2" s="140"/>
+      <c r="ATM2" s="140"/>
+      <c r="ATN2" s="140"/>
+      <c r="ATO2" s="140"/>
+      <c r="ATP2" s="140"/>
+      <c r="ATQ2" s="140"/>
+      <c r="ATR2" s="140"/>
+      <c r="ATS2" s="140"/>
+      <c r="ATT2" s="140"/>
+      <c r="ATU2" s="140"/>
+      <c r="ATV2" s="140"/>
+      <c r="ATW2" s="140"/>
+      <c r="ATX2" s="140"/>
+      <c r="ATY2" s="140"/>
+      <c r="ATZ2" s="140"/>
+      <c r="AUA2" s="140"/>
+      <c r="AUB2" s="140"/>
+      <c r="AUC2" s="140"/>
+      <c r="AUD2" s="140"/>
+      <c r="AUE2" s="140"/>
+      <c r="AUF2" s="140"/>
+      <c r="AUG2" s="140"/>
+      <c r="AUH2" s="140"/>
+      <c r="AUI2" s="140"/>
+      <c r="AUJ2" s="140"/>
+      <c r="AUK2" s="140"/>
+      <c r="AUL2" s="140"/>
+      <c r="AUM2" s="140"/>
+      <c r="AUN2" s="140"/>
+      <c r="AUO2" s="140"/>
+      <c r="AUP2" s="140"/>
+      <c r="AUQ2" s="140"/>
+      <c r="AUR2" s="140"/>
+      <c r="AUS2" s="140"/>
+      <c r="AUT2" s="140"/>
+      <c r="AUU2" s="140"/>
+      <c r="AUV2" s="140"/>
+      <c r="AUW2" s="140"/>
+      <c r="AUX2" s="140"/>
+      <c r="AUY2" s="140"/>
+      <c r="AUZ2" s="140"/>
+      <c r="AVA2" s="140"/>
+      <c r="AVB2" s="140"/>
+      <c r="AVC2" s="140"/>
+      <c r="AVD2" s="140"/>
+      <c r="AVE2" s="140"/>
+      <c r="AVF2" s="140"/>
+      <c r="AVG2" s="140"/>
+      <c r="AVH2" s="140"/>
+      <c r="AVI2" s="140"/>
+      <c r="AVJ2" s="140"/>
+      <c r="AVK2" s="140"/>
+      <c r="AVL2" s="140"/>
+      <c r="AVM2" s="140"/>
+      <c r="AVN2" s="140"/>
+      <c r="AVO2" s="140"/>
+      <c r="AVP2" s="140"/>
+      <c r="AVQ2" s="140"/>
+      <c r="AVR2" s="140"/>
+      <c r="AVS2" s="140"/>
+      <c r="AVT2" s="140"/>
+      <c r="AVU2" s="140"/>
+      <c r="AVV2" s="140"/>
+      <c r="AVW2" s="140"/>
+      <c r="AVX2" s="140"/>
+      <c r="AVY2" s="140"/>
+      <c r="AVZ2" s="140"/>
+      <c r="AWA2" s="140"/>
+      <c r="AWB2" s="140"/>
+      <c r="AWC2" s="140"/>
+      <c r="AWD2" s="140"/>
+      <c r="AWE2" s="140"/>
+      <c r="AWF2" s="140"/>
+      <c r="AWG2" s="140"/>
+      <c r="AWH2" s="140"/>
+      <c r="AWI2" s="140"/>
+      <c r="AWJ2" s="140"/>
+      <c r="AWK2" s="140"/>
+      <c r="AWL2" s="140"/>
+      <c r="AWM2" s="140"/>
+      <c r="AWN2" s="140"/>
+      <c r="AWO2" s="140"/>
+      <c r="AWP2" s="140"/>
+      <c r="AWQ2" s="140"/>
+      <c r="AWR2" s="140"/>
+      <c r="AWS2" s="140"/>
+      <c r="AWT2" s="140"/>
+      <c r="AWU2" s="140"/>
+      <c r="AWV2" s="140"/>
+      <c r="AWW2" s="140"/>
+      <c r="AWX2" s="140"/>
+      <c r="AWY2" s="140"/>
+      <c r="AWZ2" s="140"/>
+      <c r="AXA2" s="140"/>
+      <c r="AXB2" s="140"/>
+      <c r="AXC2" s="140"/>
+      <c r="AXD2" s="140"/>
+      <c r="AXE2" s="140"/>
+      <c r="AXF2" s="140"/>
+      <c r="AXG2" s="140"/>
+      <c r="AXH2" s="140"/>
+      <c r="AXI2" s="140"/>
+      <c r="AXJ2" s="140"/>
+      <c r="AXK2" s="140"/>
+      <c r="AXL2" s="140"/>
+      <c r="AXM2" s="140"/>
+      <c r="AXN2" s="140"/>
+      <c r="AXO2" s="140"/>
+      <c r="AXP2" s="140"/>
+      <c r="AXQ2" s="140"/>
+      <c r="AXR2" s="140"/>
+      <c r="AXS2" s="140"/>
+      <c r="AXT2" s="140"/>
+      <c r="AXU2" s="140"/>
+      <c r="AXV2" s="140"/>
+      <c r="AXW2" s="140"/>
+      <c r="AXX2" s="140"/>
+      <c r="AXY2" s="140"/>
+      <c r="AXZ2" s="140"/>
+      <c r="AYA2" s="140"/>
+      <c r="AYB2" s="140"/>
+      <c r="AYC2" s="140"/>
+      <c r="AYD2" s="140"/>
+      <c r="AYE2" s="140"/>
+      <c r="AYF2" s="140"/>
+      <c r="AYG2" s="140"/>
+      <c r="AYH2" s="140"/>
+      <c r="AYI2" s="140"/>
+      <c r="AYJ2" s="140"/>
+      <c r="AYK2" s="140"/>
+      <c r="AYL2" s="140"/>
+      <c r="AYM2" s="140"/>
+      <c r="AYN2" s="140"/>
+      <c r="AYO2" s="140"/>
+      <c r="AYP2" s="140"/>
+      <c r="AYQ2" s="140"/>
+      <c r="AYR2" s="140"/>
+      <c r="AYS2" s="140"/>
+      <c r="AYT2" s="140"/>
+      <c r="AYU2" s="140"/>
+      <c r="AYV2" s="140"/>
+      <c r="AYW2" s="140"/>
+      <c r="AYX2" s="140"/>
+      <c r="AYY2" s="140"/>
+      <c r="AYZ2" s="140"/>
+      <c r="AZA2" s="140"/>
+      <c r="AZB2" s="140"/>
+      <c r="AZC2" s="140"/>
+      <c r="AZD2" s="140"/>
+      <c r="AZE2" s="140"/>
+      <c r="AZF2" s="140"/>
+      <c r="AZG2" s="140"/>
+      <c r="AZH2" s="140"/>
+      <c r="AZI2" s="140"/>
+      <c r="AZJ2" s="140"/>
+      <c r="AZK2" s="140"/>
+      <c r="AZL2" s="140"/>
+      <c r="AZM2" s="140"/>
+      <c r="AZN2" s="140"/>
+      <c r="AZO2" s="140"/>
+      <c r="AZP2" s="140"/>
+      <c r="AZQ2" s="140"/>
+      <c r="AZR2" s="140"/>
+      <c r="AZS2" s="140"/>
+      <c r="AZT2" s="140"/>
+      <c r="AZU2" s="140"/>
+      <c r="AZV2" s="140"/>
+      <c r="AZW2" s="140"/>
+      <c r="AZX2" s="140"/>
+      <c r="AZY2" s="140"/>
+      <c r="AZZ2" s="140"/>
+      <c r="BAA2" s="140"/>
+      <c r="BAB2" s="140"/>
+      <c r="BAC2" s="140"/>
+      <c r="BAD2" s="140"/>
+      <c r="BAE2" s="140"/>
+      <c r="BAF2" s="140"/>
+      <c r="BAG2" s="140"/>
+      <c r="BAH2" s="140"/>
+      <c r="BAI2" s="140"/>
+      <c r="BAJ2" s="140"/>
+      <c r="BAK2" s="140"/>
+      <c r="BAL2" s="140"/>
+      <c r="BAM2" s="140"/>
+      <c r="BAN2" s="140"/>
+      <c r="BAO2" s="140"/>
+      <c r="BAP2" s="140"/>
+      <c r="BAQ2" s="140"/>
+      <c r="BAR2" s="140"/>
+      <c r="BAS2" s="140"/>
+      <c r="BAT2" s="140"/>
+      <c r="BAU2" s="140"/>
+      <c r="BAV2" s="140"/>
+      <c r="BAW2" s="140"/>
+      <c r="BAX2" s="140"/>
+      <c r="BAY2" s="140"/>
+      <c r="BAZ2" s="140"/>
+      <c r="BBA2" s="140"/>
+      <c r="BBB2" s="140"/>
+      <c r="BBC2" s="140"/>
+      <c r="BBD2" s="140"/>
+      <c r="BBE2" s="140"/>
+      <c r="BBF2" s="140"/>
+      <c r="BBG2" s="140"/>
+      <c r="BBH2" s="140"/>
+      <c r="BBI2" s="140"/>
+      <c r="BBJ2" s="140"/>
+      <c r="BBK2" s="140"/>
+      <c r="BBL2" s="140"/>
+      <c r="BBM2" s="140"/>
+      <c r="BBN2" s="140"/>
+      <c r="BBO2" s="145"/>
       <c r="BBP2" s="46"/>
       <c r="BBQ2" s="50"/>
       <c r="BBR2" s="50"/>
@@ -5634,29 +5650,29 @@
       <c r="BBU2" s="50"/>
       <c r="BBV2" s="53"/>
     </row>
-    <row r="3" spans="1:1427" s="2" customFormat="1" ht="116.25" customHeight="1">
-      <c r="A3" s="110" t="s">
+    <row r="3" spans="1:1431" s="2" customFormat="1" ht="116.25" customHeight="1">
+      <c r="A3" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="112" t="s">
+      <c r="D3" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="112" t="s">
+      <c r="E3" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="112" t="s">
+      <c r="F3" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="112" t="s">
+      <c r="G3" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="114" t="s">
+      <c r="H3" s="94" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="9" t="s">
@@ -5683,975 +5699,975 @@
       <c r="P3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="74" t="s">
+      <c r="Q3" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="77" t="s">
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="77" t="s">
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="123"/>
+      <c r="AA3" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="78" t="s">
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="123"/>
+      <c r="AF3" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="AG3" s="79"/>
-      <c r="AH3" s="79"/>
-      <c r="AI3" s="79"/>
-      <c r="AJ3" s="80"/>
+      <c r="AG3" s="88"/>
+      <c r="AH3" s="88"/>
+      <c r="AI3" s="88"/>
+      <c r="AJ3" s="89"/>
       <c r="AK3" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AL3" s="81" t="s">
+      <c r="AL3" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="AM3" s="82"/>
-      <c r="AN3" s="82"/>
-      <c r="AO3" s="82"/>
-      <c r="AP3" s="82"/>
-      <c r="AQ3" s="83"/>
-      <c r="AR3" s="81" t="s">
+      <c r="AM3" s="119"/>
+      <c r="AN3" s="119"/>
+      <c r="AO3" s="119"/>
+      <c r="AP3" s="119"/>
+      <c r="AQ3" s="120"/>
+      <c r="AR3" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="AS3" s="82"/>
-      <c r="AT3" s="82"/>
-      <c r="AU3" s="82"/>
-      <c r="AV3" s="82"/>
-      <c r="AW3" s="83"/>
-      <c r="AX3" s="81" t="s">
+      <c r="AS3" s="119"/>
+      <c r="AT3" s="119"/>
+      <c r="AU3" s="119"/>
+      <c r="AV3" s="119"/>
+      <c r="AW3" s="120"/>
+      <c r="AX3" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="AY3" s="82"/>
-      <c r="AZ3" s="82"/>
-      <c r="BA3" s="82"/>
-      <c r="BB3" s="82"/>
-      <c r="BC3" s="83"/>
-      <c r="BD3" s="81" t="s">
+      <c r="AY3" s="119"/>
+      <c r="AZ3" s="119"/>
+      <c r="BA3" s="119"/>
+      <c r="BB3" s="119"/>
+      <c r="BC3" s="120"/>
+      <c r="BD3" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="BE3" s="82"/>
-      <c r="BF3" s="82"/>
-      <c r="BG3" s="82"/>
-      <c r="BH3" s="82"/>
-      <c r="BI3" s="83"/>
-      <c r="BJ3" s="81" t="s">
+      <c r="BE3" s="119"/>
+      <c r="BF3" s="119"/>
+      <c r="BG3" s="119"/>
+      <c r="BH3" s="119"/>
+      <c r="BI3" s="120"/>
+      <c r="BJ3" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="BK3" s="82"/>
-      <c r="BL3" s="82"/>
-      <c r="BM3" s="82"/>
-      <c r="BN3" s="82"/>
-      <c r="BO3" s="83"/>
-      <c r="BP3" s="81" t="s">
+      <c r="BK3" s="119"/>
+      <c r="BL3" s="119"/>
+      <c r="BM3" s="119"/>
+      <c r="BN3" s="119"/>
+      <c r="BO3" s="120"/>
+      <c r="BP3" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="BQ3" s="82"/>
-      <c r="BR3" s="82"/>
-      <c r="BS3" s="82"/>
-      <c r="BT3" s="82"/>
-      <c r="BU3" s="83"/>
-      <c r="BV3" s="81" t="s">
+      <c r="BQ3" s="119"/>
+      <c r="BR3" s="119"/>
+      <c r="BS3" s="119"/>
+      <c r="BT3" s="119"/>
+      <c r="BU3" s="120"/>
+      <c r="BV3" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="BW3" s="82"/>
-      <c r="BX3" s="82"/>
-      <c r="BY3" s="82"/>
-      <c r="BZ3" s="82"/>
-      <c r="CA3" s="83"/>
-      <c r="CB3" s="81" t="s">
+      <c r="BW3" s="119"/>
+      <c r="BX3" s="119"/>
+      <c r="BY3" s="119"/>
+      <c r="BZ3" s="119"/>
+      <c r="CA3" s="120"/>
+      <c r="CB3" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="CC3" s="82"/>
-      <c r="CD3" s="82"/>
-      <c r="CE3" s="82"/>
-      <c r="CF3" s="82"/>
-      <c r="CG3" s="83"/>
-      <c r="CH3" s="81" t="s">
+      <c r="CC3" s="119"/>
+      <c r="CD3" s="119"/>
+      <c r="CE3" s="119"/>
+      <c r="CF3" s="119"/>
+      <c r="CG3" s="120"/>
+      <c r="CH3" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="CI3" s="82"/>
-      <c r="CJ3" s="82"/>
-      <c r="CK3" s="82"/>
-      <c r="CL3" s="82"/>
-      <c r="CM3" s="83"/>
-      <c r="CN3" s="81" t="s">
+      <c r="CI3" s="119"/>
+      <c r="CJ3" s="119"/>
+      <c r="CK3" s="119"/>
+      <c r="CL3" s="119"/>
+      <c r="CM3" s="120"/>
+      <c r="CN3" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="CO3" s="82"/>
-      <c r="CP3" s="82"/>
-      <c r="CQ3" s="82"/>
-      <c r="CR3" s="82"/>
-      <c r="CS3" s="83"/>
+      <c r="CO3" s="119"/>
+      <c r="CP3" s="119"/>
+      <c r="CQ3" s="119"/>
+      <c r="CR3" s="119"/>
+      <c r="CS3" s="120"/>
       <c r="CT3" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="CU3" s="84" t="s">
+      <c r="CU3" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="CV3" s="85"/>
-      <c r="CW3" s="85"/>
-      <c r="CX3" s="85"/>
-      <c r="CY3" s="85"/>
-      <c r="CZ3" s="86"/>
-      <c r="DA3" s="84" t="s">
+      <c r="CV3" s="116"/>
+      <c r="CW3" s="116"/>
+      <c r="CX3" s="116"/>
+      <c r="CY3" s="116"/>
+      <c r="CZ3" s="117"/>
+      <c r="DA3" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="DB3" s="85"/>
-      <c r="DC3" s="85"/>
-      <c r="DD3" s="85"/>
-      <c r="DE3" s="85"/>
-      <c r="DF3" s="86"/>
-      <c r="DG3" s="84" t="s">
+      <c r="DB3" s="116"/>
+      <c r="DC3" s="116"/>
+      <c r="DD3" s="116"/>
+      <c r="DE3" s="116"/>
+      <c r="DF3" s="117"/>
+      <c r="DG3" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="DH3" s="85"/>
-      <c r="DI3" s="85"/>
-      <c r="DJ3" s="85"/>
-      <c r="DK3" s="85"/>
-      <c r="DL3" s="86"/>
-      <c r="DM3" s="84" t="s">
+      <c r="DH3" s="116"/>
+      <c r="DI3" s="116"/>
+      <c r="DJ3" s="116"/>
+      <c r="DK3" s="116"/>
+      <c r="DL3" s="117"/>
+      <c r="DM3" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="DN3" s="85"/>
-      <c r="DO3" s="85"/>
-      <c r="DP3" s="85"/>
-      <c r="DQ3" s="85"/>
-      <c r="DR3" s="86"/>
-      <c r="DS3" s="84" t="s">
+      <c r="DN3" s="116"/>
+      <c r="DO3" s="116"/>
+      <c r="DP3" s="116"/>
+      <c r="DQ3" s="116"/>
+      <c r="DR3" s="117"/>
+      <c r="DS3" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="DT3" s="85"/>
-      <c r="DU3" s="85"/>
-      <c r="DV3" s="85"/>
-      <c r="DW3" s="85"/>
-      <c r="DX3" s="86"/>
-      <c r="DY3" s="84" t="s">
+      <c r="DT3" s="116"/>
+      <c r="DU3" s="116"/>
+      <c r="DV3" s="116"/>
+      <c r="DW3" s="116"/>
+      <c r="DX3" s="117"/>
+      <c r="DY3" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="DZ3" s="85"/>
-      <c r="EA3" s="85"/>
-      <c r="EB3" s="85"/>
-      <c r="EC3" s="85"/>
-      <c r="ED3" s="86"/>
-      <c r="EE3" s="84" t="s">
+      <c r="DZ3" s="116"/>
+      <c r="EA3" s="116"/>
+      <c r="EB3" s="116"/>
+      <c r="EC3" s="116"/>
+      <c r="ED3" s="117"/>
+      <c r="EE3" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="EF3" s="85"/>
-      <c r="EG3" s="85"/>
-      <c r="EH3" s="85"/>
-      <c r="EI3" s="85"/>
-      <c r="EJ3" s="86"/>
-      <c r="EK3" s="84" t="s">
+      <c r="EF3" s="116"/>
+      <c r="EG3" s="116"/>
+      <c r="EH3" s="116"/>
+      <c r="EI3" s="116"/>
+      <c r="EJ3" s="117"/>
+      <c r="EK3" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="EL3" s="85"/>
-      <c r="EM3" s="85"/>
-      <c r="EN3" s="85"/>
-      <c r="EO3" s="85"/>
-      <c r="EP3" s="86"/>
-      <c r="EQ3" s="84" t="s">
+      <c r="EL3" s="116"/>
+      <c r="EM3" s="116"/>
+      <c r="EN3" s="116"/>
+      <c r="EO3" s="116"/>
+      <c r="EP3" s="117"/>
+      <c r="EQ3" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="ER3" s="85"/>
-      <c r="ES3" s="85"/>
-      <c r="ET3" s="85"/>
-      <c r="EU3" s="85"/>
-      <c r="EV3" s="86"/>
-      <c r="EW3" s="84" t="s">
+      <c r="ER3" s="116"/>
+      <c r="ES3" s="116"/>
+      <c r="ET3" s="116"/>
+      <c r="EU3" s="116"/>
+      <c r="EV3" s="117"/>
+      <c r="EW3" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="EX3" s="85"/>
-      <c r="EY3" s="85"/>
-      <c r="EZ3" s="85"/>
-      <c r="FA3" s="85"/>
-      <c r="FB3" s="86"/>
+      <c r="EX3" s="116"/>
+      <c r="EY3" s="116"/>
+      <c r="EZ3" s="116"/>
+      <c r="FA3" s="116"/>
+      <c r="FB3" s="117"/>
       <c r="FC3" s="30" t="s">
         <v>74</v>
       </c>
       <c r="FD3" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="FE3" s="87" t="s">
+      <c r="FE3" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="FF3" s="88"/>
-      <c r="FG3" s="88"/>
-      <c r="FH3" s="88"/>
-      <c r="FI3" s="89"/>
-      <c r="FJ3" s="87" t="s">
+      <c r="FF3" s="105"/>
+      <c r="FG3" s="105"/>
+      <c r="FH3" s="105"/>
+      <c r="FI3" s="106"/>
+      <c r="FJ3" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="FK3" s="88"/>
-      <c r="FL3" s="88"/>
-      <c r="FM3" s="88"/>
-      <c r="FN3" s="89"/>
-      <c r="FO3" s="87" t="s">
+      <c r="FK3" s="105"/>
+      <c r="FL3" s="105"/>
+      <c r="FM3" s="105"/>
+      <c r="FN3" s="106"/>
+      <c r="FO3" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="FP3" s="88"/>
-      <c r="FQ3" s="88"/>
-      <c r="FR3" s="88"/>
-      <c r="FS3" s="89"/>
-      <c r="FT3" s="87" t="s">
+      <c r="FP3" s="105"/>
+      <c r="FQ3" s="105"/>
+      <c r="FR3" s="105"/>
+      <c r="FS3" s="106"/>
+      <c r="FT3" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="FU3" s="88"/>
-      <c r="FV3" s="88"/>
-      <c r="FW3" s="88"/>
-      <c r="FX3" s="89"/>
-      <c r="FY3" s="87" t="s">
+      <c r="FU3" s="105"/>
+      <c r="FV3" s="105"/>
+      <c r="FW3" s="105"/>
+      <c r="FX3" s="106"/>
+      <c r="FY3" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="FZ3" s="88"/>
-      <c r="GA3" s="88"/>
-      <c r="GB3" s="88"/>
-      <c r="GC3" s="89"/>
-      <c r="GD3" s="90" t="s">
+      <c r="FZ3" s="105"/>
+      <c r="GA3" s="105"/>
+      <c r="GB3" s="105"/>
+      <c r="GC3" s="106"/>
+      <c r="GD3" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="GE3" s="91"/>
-      <c r="GF3" s="91"/>
-      <c r="GG3" s="91"/>
-      <c r="GH3" s="92"/>
-      <c r="GI3" s="93" t="s">
+      <c r="GE3" s="111"/>
+      <c r="GF3" s="111"/>
+      <c r="GG3" s="111"/>
+      <c r="GH3" s="112"/>
+      <c r="GI3" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="GJ3" s="91"/>
-      <c r="GK3" s="91"/>
-      <c r="GL3" s="91"/>
-      <c r="GM3" s="92"/>
-      <c r="GN3" s="93" t="s">
+      <c r="GJ3" s="111"/>
+      <c r="GK3" s="111"/>
+      <c r="GL3" s="111"/>
+      <c r="GM3" s="112"/>
+      <c r="GN3" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="GO3" s="91"/>
-      <c r="GP3" s="91"/>
-      <c r="GQ3" s="91"/>
-      <c r="GR3" s="92"/>
-      <c r="GS3" s="94" t="s">
+      <c r="GO3" s="111"/>
+      <c r="GP3" s="111"/>
+      <c r="GQ3" s="111"/>
+      <c r="GR3" s="112"/>
+      <c r="GS3" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="GT3" s="94"/>
-      <c r="GU3" s="94"/>
-      <c r="GV3" s="94"/>
-      <c r="GW3" s="94"/>
+      <c r="GT3" s="114"/>
+      <c r="GU3" s="114"/>
+      <c r="GV3" s="114"/>
+      <c r="GW3" s="114"/>
       <c r="GX3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="GY3" s="93" t="s">
+      <c r="GY3" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="GZ3" s="91"/>
-      <c r="HA3" s="91"/>
-      <c r="HB3" s="91"/>
-      <c r="HC3" s="91"/>
-      <c r="HD3" s="92"/>
-      <c r="HE3" s="93" t="s">
+      <c r="GZ3" s="111"/>
+      <c r="HA3" s="111"/>
+      <c r="HB3" s="111"/>
+      <c r="HC3" s="111"/>
+      <c r="HD3" s="112"/>
+      <c r="HE3" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="HF3" s="91"/>
-      <c r="HG3" s="91"/>
-      <c r="HH3" s="91"/>
-      <c r="HI3" s="91"/>
-      <c r="HJ3" s="92"/>
-      <c r="HK3" s="93" t="s">
+      <c r="HF3" s="111"/>
+      <c r="HG3" s="111"/>
+      <c r="HH3" s="111"/>
+      <c r="HI3" s="111"/>
+      <c r="HJ3" s="112"/>
+      <c r="HK3" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="HL3" s="91"/>
-      <c r="HM3" s="91"/>
-      <c r="HN3" s="91"/>
-      <c r="HO3" s="91"/>
-      <c r="HP3" s="92"/>
-      <c r="HQ3" s="93" t="s">
+      <c r="HL3" s="111"/>
+      <c r="HM3" s="111"/>
+      <c r="HN3" s="111"/>
+      <c r="HO3" s="111"/>
+      <c r="HP3" s="112"/>
+      <c r="HQ3" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="HR3" s="91"/>
-      <c r="HS3" s="91"/>
-      <c r="HT3" s="91"/>
-      <c r="HU3" s="91"/>
-      <c r="HV3" s="92"/>
-      <c r="HW3" s="93" t="s">
+      <c r="HR3" s="111"/>
+      <c r="HS3" s="111"/>
+      <c r="HT3" s="111"/>
+      <c r="HU3" s="111"/>
+      <c r="HV3" s="112"/>
+      <c r="HW3" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="HX3" s="91"/>
-      <c r="HY3" s="91"/>
-      <c r="HZ3" s="91"/>
-      <c r="IA3" s="91"/>
-      <c r="IB3" s="92"/>
-      <c r="IC3" s="93" t="s">
+      <c r="HX3" s="111"/>
+      <c r="HY3" s="111"/>
+      <c r="HZ3" s="111"/>
+      <c r="IA3" s="111"/>
+      <c r="IB3" s="112"/>
+      <c r="IC3" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="ID3" s="91"/>
-      <c r="IE3" s="91"/>
-      <c r="IF3" s="91"/>
-      <c r="IG3" s="91"/>
-      <c r="IH3" s="92"/>
-      <c r="II3" s="93" t="s">
+      <c r="ID3" s="111"/>
+      <c r="IE3" s="111"/>
+      <c r="IF3" s="111"/>
+      <c r="IG3" s="111"/>
+      <c r="IH3" s="112"/>
+      <c r="II3" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="IJ3" s="91"/>
-      <c r="IK3" s="91"/>
-      <c r="IL3" s="91"/>
-      <c r="IM3" s="91"/>
-      <c r="IN3" s="92"/>
-      <c r="IO3" s="93" t="s">
+      <c r="IJ3" s="111"/>
+      <c r="IK3" s="111"/>
+      <c r="IL3" s="111"/>
+      <c r="IM3" s="111"/>
+      <c r="IN3" s="112"/>
+      <c r="IO3" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="IP3" s="91"/>
-      <c r="IQ3" s="91"/>
-      <c r="IR3" s="91"/>
-      <c r="IS3" s="91"/>
-      <c r="IT3" s="92"/>
-      <c r="IU3" s="93" t="s">
+      <c r="IP3" s="111"/>
+      <c r="IQ3" s="111"/>
+      <c r="IR3" s="111"/>
+      <c r="IS3" s="111"/>
+      <c r="IT3" s="112"/>
+      <c r="IU3" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="IV3" s="91"/>
-      <c r="IW3" s="91"/>
-      <c r="IX3" s="91"/>
-      <c r="IY3" s="91"/>
-      <c r="IZ3" s="92"/>
-      <c r="JA3" s="93" t="s">
+      <c r="IV3" s="111"/>
+      <c r="IW3" s="111"/>
+      <c r="IX3" s="111"/>
+      <c r="IY3" s="111"/>
+      <c r="IZ3" s="112"/>
+      <c r="JA3" s="110" t="s">
         <v>95</v>
       </c>
-      <c r="JB3" s="91"/>
-      <c r="JC3" s="91"/>
-      <c r="JD3" s="91"/>
-      <c r="JE3" s="91"/>
-      <c r="JF3" s="92"/>
+      <c r="JB3" s="111"/>
+      <c r="JC3" s="111"/>
+      <c r="JD3" s="111"/>
+      <c r="JE3" s="111"/>
+      <c r="JF3" s="112"/>
       <c r="JG3" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="JH3" s="93" t="s">
+      <c r="JH3" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="JI3" s="91"/>
-      <c r="JJ3" s="91"/>
-      <c r="JK3" s="91"/>
-      <c r="JL3" s="91"/>
-      <c r="JM3" s="92"/>
-      <c r="JN3" s="93" t="s">
+      <c r="JI3" s="111"/>
+      <c r="JJ3" s="111"/>
+      <c r="JK3" s="111"/>
+      <c r="JL3" s="111"/>
+      <c r="JM3" s="112"/>
+      <c r="JN3" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="JO3" s="91"/>
-      <c r="JP3" s="91"/>
-      <c r="JQ3" s="91"/>
-      <c r="JR3" s="91"/>
-      <c r="JS3" s="92"/>
-      <c r="JT3" s="93" t="s">
+      <c r="JO3" s="111"/>
+      <c r="JP3" s="111"/>
+      <c r="JQ3" s="111"/>
+      <c r="JR3" s="111"/>
+      <c r="JS3" s="112"/>
+      <c r="JT3" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="JU3" s="91"/>
-      <c r="JV3" s="91"/>
-      <c r="JW3" s="91"/>
-      <c r="JX3" s="91"/>
-      <c r="JY3" s="92"/>
-      <c r="JZ3" s="93" t="s">
+      <c r="JU3" s="111"/>
+      <c r="JV3" s="111"/>
+      <c r="JW3" s="111"/>
+      <c r="JX3" s="111"/>
+      <c r="JY3" s="112"/>
+      <c r="JZ3" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="KA3" s="91"/>
-      <c r="KB3" s="91"/>
-      <c r="KC3" s="91"/>
-      <c r="KD3" s="91"/>
-      <c r="KE3" s="92"/>
-      <c r="KF3" s="93" t="s">
+      <c r="KA3" s="111"/>
+      <c r="KB3" s="111"/>
+      <c r="KC3" s="111"/>
+      <c r="KD3" s="111"/>
+      <c r="KE3" s="112"/>
+      <c r="KF3" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="KG3" s="91"/>
-      <c r="KH3" s="91"/>
-      <c r="KI3" s="91"/>
-      <c r="KJ3" s="91"/>
-      <c r="KK3" s="92"/>
-      <c r="KL3" s="93" t="s">
+      <c r="KG3" s="111"/>
+      <c r="KH3" s="111"/>
+      <c r="KI3" s="111"/>
+      <c r="KJ3" s="111"/>
+      <c r="KK3" s="112"/>
+      <c r="KL3" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="KM3" s="91"/>
-      <c r="KN3" s="91"/>
-      <c r="KO3" s="91"/>
-      <c r="KP3" s="91"/>
-      <c r="KQ3" s="92"/>
-      <c r="KR3" s="93" t="s">
+      <c r="KM3" s="111"/>
+      <c r="KN3" s="111"/>
+      <c r="KO3" s="111"/>
+      <c r="KP3" s="111"/>
+      <c r="KQ3" s="112"/>
+      <c r="KR3" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="KS3" s="91"/>
-      <c r="KT3" s="91"/>
-      <c r="KU3" s="91"/>
-      <c r="KV3" s="91"/>
-      <c r="KW3" s="92"/>
-      <c r="KX3" s="93" t="s">
+      <c r="KS3" s="111"/>
+      <c r="KT3" s="111"/>
+      <c r="KU3" s="111"/>
+      <c r="KV3" s="111"/>
+      <c r="KW3" s="112"/>
+      <c r="KX3" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="KY3" s="91"/>
-      <c r="KZ3" s="91"/>
-      <c r="LA3" s="91"/>
-      <c r="LB3" s="91"/>
-      <c r="LC3" s="92"/>
-      <c r="LD3" s="93" t="s">
+      <c r="KY3" s="111"/>
+      <c r="KZ3" s="111"/>
+      <c r="LA3" s="111"/>
+      <c r="LB3" s="111"/>
+      <c r="LC3" s="112"/>
+      <c r="LD3" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="LE3" s="91"/>
-      <c r="LF3" s="91"/>
-      <c r="LG3" s="91"/>
-      <c r="LH3" s="91"/>
-      <c r="LI3" s="92"/>
-      <c r="LJ3" s="93" t="s">
+      <c r="LE3" s="111"/>
+      <c r="LF3" s="111"/>
+      <c r="LG3" s="111"/>
+      <c r="LH3" s="111"/>
+      <c r="LI3" s="112"/>
+      <c r="LJ3" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="LK3" s="91"/>
-      <c r="LL3" s="91"/>
-      <c r="LM3" s="91"/>
-      <c r="LN3" s="91"/>
-      <c r="LO3" s="92"/>
+      <c r="LK3" s="111"/>
+      <c r="LL3" s="111"/>
+      <c r="LM3" s="111"/>
+      <c r="LN3" s="111"/>
+      <c r="LO3" s="112"/>
       <c r="LP3" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="LQ3" s="87" t="s">
+      <c r="LQ3" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="LR3" s="88"/>
-      <c r="LS3" s="88"/>
-      <c r="LT3" s="88"/>
-      <c r="LU3" s="89"/>
-      <c r="LV3" s="87" t="s">
+      <c r="LR3" s="105"/>
+      <c r="LS3" s="105"/>
+      <c r="LT3" s="105"/>
+      <c r="LU3" s="106"/>
+      <c r="LV3" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="LW3" s="88"/>
-      <c r="LX3" s="88"/>
-      <c r="LY3" s="88"/>
-      <c r="LZ3" s="89"/>
-      <c r="MA3" s="87" t="s">
+      <c r="LW3" s="105"/>
+      <c r="LX3" s="105"/>
+      <c r="LY3" s="105"/>
+      <c r="LZ3" s="106"/>
+      <c r="MA3" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="MB3" s="88"/>
-      <c r="MC3" s="88"/>
-      <c r="MD3" s="88"/>
-      <c r="ME3" s="89"/>
-      <c r="MF3" s="87" t="s">
+      <c r="MB3" s="105"/>
+      <c r="MC3" s="105"/>
+      <c r="MD3" s="105"/>
+      <c r="ME3" s="106"/>
+      <c r="MF3" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="MG3" s="88"/>
-      <c r="MH3" s="88"/>
-      <c r="MI3" s="88"/>
-      <c r="MJ3" s="89"/>
-      <c r="MK3" s="87" t="s">
+      <c r="MG3" s="105"/>
+      <c r="MH3" s="105"/>
+      <c r="MI3" s="105"/>
+      <c r="MJ3" s="106"/>
+      <c r="MK3" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="ML3" s="88"/>
-      <c r="MM3" s="88"/>
-      <c r="MN3" s="88"/>
-      <c r="MO3" s="89"/>
-      <c r="MP3" s="95" t="s">
+      <c r="ML3" s="105"/>
+      <c r="MM3" s="105"/>
+      <c r="MN3" s="105"/>
+      <c r="MO3" s="106"/>
+      <c r="MP3" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="MQ3" s="96"/>
-      <c r="MR3" s="96"/>
-      <c r="MS3" s="96"/>
-      <c r="MT3" s="97"/>
-      <c r="MU3" s="95" t="s">
+      <c r="MQ3" s="108"/>
+      <c r="MR3" s="108"/>
+      <c r="MS3" s="108"/>
+      <c r="MT3" s="109"/>
+      <c r="MU3" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="MV3" s="96"/>
-      <c r="MW3" s="96"/>
-      <c r="MX3" s="96"/>
-      <c r="MY3" s="97"/>
-      <c r="MZ3" s="95" t="s">
+      <c r="MV3" s="108"/>
+      <c r="MW3" s="108"/>
+      <c r="MX3" s="108"/>
+      <c r="MY3" s="109"/>
+      <c r="MZ3" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="NA3" s="96"/>
-      <c r="NB3" s="96"/>
-      <c r="NC3" s="96"/>
-      <c r="ND3" s="97"/>
-      <c r="NE3" s="95" t="s">
+      <c r="NA3" s="108"/>
+      <c r="NB3" s="108"/>
+      <c r="NC3" s="108"/>
+      <c r="ND3" s="109"/>
+      <c r="NE3" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="NF3" s="96"/>
-      <c r="NG3" s="96"/>
-      <c r="NH3" s="96"/>
-      <c r="NI3" s="97"/>
-      <c r="NJ3" s="98" t="s">
+      <c r="NF3" s="108"/>
+      <c r="NG3" s="108"/>
+      <c r="NH3" s="108"/>
+      <c r="NI3" s="109"/>
+      <c r="NJ3" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="NK3" s="99"/>
-      <c r="NL3" s="99"/>
-      <c r="NM3" s="99"/>
-      <c r="NN3" s="100"/>
-      <c r="NO3" s="101" t="s">
+      <c r="NK3" s="85"/>
+      <c r="NL3" s="85"/>
+      <c r="NM3" s="85"/>
+      <c r="NN3" s="96"/>
+      <c r="NO3" s="103" t="s">
         <v>118</v>
       </c>
-      <c r="NP3" s="99"/>
-      <c r="NQ3" s="99"/>
-      <c r="NR3" s="99"/>
-      <c r="NS3" s="100"/>
-      <c r="NT3" s="101" t="s">
+      <c r="NP3" s="85"/>
+      <c r="NQ3" s="85"/>
+      <c r="NR3" s="85"/>
+      <c r="NS3" s="96"/>
+      <c r="NT3" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="NU3" s="99"/>
-      <c r="NV3" s="99"/>
-      <c r="NW3" s="99"/>
-      <c r="NX3" s="102"/>
-      <c r="NY3" s="98" t="s">
+      <c r="NU3" s="85"/>
+      <c r="NV3" s="85"/>
+      <c r="NW3" s="85"/>
+      <c r="NX3" s="86"/>
+      <c r="NY3" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="NZ3" s="99"/>
-      <c r="OA3" s="99"/>
-      <c r="OB3" s="99"/>
-      <c r="OC3" s="102"/>
-      <c r="OD3" s="98" t="s">
+      <c r="NZ3" s="85"/>
+      <c r="OA3" s="85"/>
+      <c r="OB3" s="85"/>
+      <c r="OC3" s="86"/>
+      <c r="OD3" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="OE3" s="99"/>
-      <c r="OF3" s="99"/>
-      <c r="OG3" s="99"/>
-      <c r="OH3" s="100"/>
-      <c r="OI3" s="101" t="s">
+      <c r="OE3" s="85"/>
+      <c r="OF3" s="85"/>
+      <c r="OG3" s="85"/>
+      <c r="OH3" s="96"/>
+      <c r="OI3" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="OJ3" s="99"/>
-      <c r="OK3" s="99"/>
-      <c r="OL3" s="99"/>
-      <c r="OM3" s="100"/>
-      <c r="ON3" s="101" t="s">
+      <c r="OJ3" s="85"/>
+      <c r="OK3" s="85"/>
+      <c r="OL3" s="85"/>
+      <c r="OM3" s="96"/>
+      <c r="ON3" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="OO3" s="99"/>
-      <c r="OP3" s="99"/>
-      <c r="OQ3" s="99"/>
-      <c r="OR3" s="102"/>
-      <c r="OS3" s="98" t="s">
+      <c r="OO3" s="85"/>
+      <c r="OP3" s="85"/>
+      <c r="OQ3" s="85"/>
+      <c r="OR3" s="86"/>
+      <c r="OS3" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="OT3" s="99"/>
-      <c r="OU3" s="99"/>
-      <c r="OV3" s="99"/>
-      <c r="OW3" s="102"/>
-      <c r="OX3" s="98" t="s">
+      <c r="OT3" s="85"/>
+      <c r="OU3" s="85"/>
+      <c r="OV3" s="85"/>
+      <c r="OW3" s="86"/>
+      <c r="OX3" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="OY3" s="99"/>
-      <c r="OZ3" s="99"/>
-      <c r="PA3" s="99"/>
-      <c r="PB3" s="100"/>
-      <c r="PC3" s="101" t="s">
+      <c r="OY3" s="85"/>
+      <c r="OZ3" s="85"/>
+      <c r="PA3" s="85"/>
+      <c r="PB3" s="96"/>
+      <c r="PC3" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="PD3" s="99"/>
-      <c r="PE3" s="99"/>
-      <c r="PF3" s="99"/>
-      <c r="PG3" s="100"/>
-      <c r="PH3" s="101" t="s">
+      <c r="PD3" s="85"/>
+      <c r="PE3" s="85"/>
+      <c r="PF3" s="85"/>
+      <c r="PG3" s="96"/>
+      <c r="PH3" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="PI3" s="99"/>
-      <c r="PJ3" s="99"/>
-      <c r="PK3" s="99"/>
-      <c r="PL3" s="102"/>
-      <c r="PM3" s="98" t="s">
+      <c r="PI3" s="85"/>
+      <c r="PJ3" s="85"/>
+      <c r="PK3" s="85"/>
+      <c r="PL3" s="86"/>
+      <c r="PM3" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="PN3" s="99"/>
-      <c r="PO3" s="99"/>
-      <c r="PP3" s="99"/>
-      <c r="PQ3" s="102"/>
-      <c r="PR3" s="98" t="s">
+      <c r="PN3" s="85"/>
+      <c r="PO3" s="85"/>
+      <c r="PP3" s="85"/>
+      <c r="PQ3" s="86"/>
+      <c r="PR3" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="PS3" s="99"/>
-      <c r="PT3" s="99"/>
-      <c r="PU3" s="99"/>
-      <c r="PV3" s="100"/>
-      <c r="PW3" s="101" t="s">
+      <c r="PS3" s="85"/>
+      <c r="PT3" s="85"/>
+      <c r="PU3" s="85"/>
+      <c r="PV3" s="96"/>
+      <c r="PW3" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="PX3" s="99"/>
-      <c r="PY3" s="99"/>
-      <c r="PZ3" s="99"/>
-      <c r="QA3" s="100"/>
-      <c r="QB3" s="101" t="s">
+      <c r="PX3" s="85"/>
+      <c r="PY3" s="85"/>
+      <c r="PZ3" s="85"/>
+      <c r="QA3" s="96"/>
+      <c r="QB3" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="QC3" s="99"/>
-      <c r="QD3" s="99"/>
-      <c r="QE3" s="99"/>
-      <c r="QF3" s="102"/>
-      <c r="QG3" s="98" t="s">
+      <c r="QC3" s="85"/>
+      <c r="QD3" s="85"/>
+      <c r="QE3" s="85"/>
+      <c r="QF3" s="86"/>
+      <c r="QG3" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="QH3" s="99"/>
-      <c r="QI3" s="99"/>
-      <c r="QJ3" s="99"/>
-      <c r="QK3" s="102"/>
-      <c r="QL3" s="98" t="s">
+      <c r="QH3" s="85"/>
+      <c r="QI3" s="85"/>
+      <c r="QJ3" s="85"/>
+      <c r="QK3" s="86"/>
+      <c r="QL3" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="QM3" s="99"/>
-      <c r="QN3" s="99"/>
-      <c r="QO3" s="99"/>
-      <c r="QP3" s="100"/>
-      <c r="QQ3" s="101" t="s">
+      <c r="QM3" s="85"/>
+      <c r="QN3" s="85"/>
+      <c r="QO3" s="85"/>
+      <c r="QP3" s="96"/>
+      <c r="QQ3" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="QR3" s="99"/>
-      <c r="QS3" s="99"/>
-      <c r="QT3" s="99"/>
-      <c r="QU3" s="100"/>
-      <c r="QV3" s="101" t="s">
+      <c r="QR3" s="85"/>
+      <c r="QS3" s="85"/>
+      <c r="QT3" s="85"/>
+      <c r="QU3" s="96"/>
+      <c r="QV3" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="QW3" s="99"/>
-      <c r="QX3" s="99"/>
-      <c r="QY3" s="99"/>
-      <c r="QZ3" s="102"/>
-      <c r="RA3" s="98" t="s">
+      <c r="QW3" s="85"/>
+      <c r="QX3" s="85"/>
+      <c r="QY3" s="85"/>
+      <c r="QZ3" s="86"/>
+      <c r="RA3" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="RB3" s="99"/>
-      <c r="RC3" s="99"/>
-      <c r="RD3" s="99"/>
-      <c r="RE3" s="102"/>
-      <c r="RF3" s="98" t="s">
+      <c r="RB3" s="85"/>
+      <c r="RC3" s="85"/>
+      <c r="RD3" s="85"/>
+      <c r="RE3" s="86"/>
+      <c r="RF3" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="RG3" s="99"/>
-      <c r="RH3" s="99"/>
-      <c r="RI3" s="99"/>
-      <c r="RJ3" s="99"/>
-      <c r="RK3" s="100"/>
-      <c r="RL3" s="101" t="s">
+      <c r="RG3" s="85"/>
+      <c r="RH3" s="85"/>
+      <c r="RI3" s="85"/>
+      <c r="RJ3" s="85"/>
+      <c r="RK3" s="96"/>
+      <c r="RL3" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="RM3" s="99"/>
-      <c r="RN3" s="99"/>
-      <c r="RO3" s="99"/>
-      <c r="RP3" s="99"/>
-      <c r="RQ3" s="100"/>
-      <c r="RR3" s="101" t="s">
+      <c r="RM3" s="85"/>
+      <c r="RN3" s="85"/>
+      <c r="RO3" s="85"/>
+      <c r="RP3" s="85"/>
+      <c r="RQ3" s="96"/>
+      <c r="RR3" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="RS3" s="99"/>
-      <c r="RT3" s="99"/>
-      <c r="RU3" s="99"/>
-      <c r="RV3" s="99"/>
-      <c r="RW3" s="102"/>
-      <c r="RX3" s="98" t="s">
+      <c r="RS3" s="85"/>
+      <c r="RT3" s="85"/>
+      <c r="RU3" s="85"/>
+      <c r="RV3" s="85"/>
+      <c r="RW3" s="86"/>
+      <c r="RX3" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="RY3" s="99"/>
-      <c r="RZ3" s="99"/>
-      <c r="SA3" s="99"/>
-      <c r="SB3" s="99"/>
-      <c r="SC3" s="102"/>
-      <c r="SD3" s="98" t="s">
+      <c r="RY3" s="85"/>
+      <c r="RZ3" s="85"/>
+      <c r="SA3" s="85"/>
+      <c r="SB3" s="85"/>
+      <c r="SC3" s="86"/>
+      <c r="SD3" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="SE3" s="99"/>
-      <c r="SF3" s="99"/>
-      <c r="SG3" s="99"/>
-      <c r="SH3" s="99"/>
-      <c r="SI3" s="100"/>
-      <c r="SJ3" s="101" t="s">
+      <c r="SE3" s="85"/>
+      <c r="SF3" s="85"/>
+      <c r="SG3" s="85"/>
+      <c r="SH3" s="85"/>
+      <c r="SI3" s="96"/>
+      <c r="SJ3" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="SK3" s="99"/>
-      <c r="SL3" s="99"/>
-      <c r="SM3" s="99"/>
-      <c r="SN3" s="99"/>
-      <c r="SO3" s="100"/>
-      <c r="SP3" s="101" t="s">
+      <c r="SK3" s="85"/>
+      <c r="SL3" s="85"/>
+      <c r="SM3" s="85"/>
+      <c r="SN3" s="85"/>
+      <c r="SO3" s="96"/>
+      <c r="SP3" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="SQ3" s="99"/>
-      <c r="SR3" s="99"/>
-      <c r="SS3" s="99"/>
-      <c r="ST3" s="99"/>
-      <c r="SU3" s="102"/>
-      <c r="SV3" s="98" t="s">
+      <c r="SQ3" s="85"/>
+      <c r="SR3" s="85"/>
+      <c r="SS3" s="85"/>
+      <c r="ST3" s="85"/>
+      <c r="SU3" s="86"/>
+      <c r="SV3" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="SW3" s="99"/>
-      <c r="SX3" s="99"/>
-      <c r="SY3" s="99"/>
-      <c r="SZ3" s="99"/>
-      <c r="TA3" s="102"/>
-      <c r="TB3" s="98" t="s">
+      <c r="SW3" s="85"/>
+      <c r="SX3" s="85"/>
+      <c r="SY3" s="85"/>
+      <c r="SZ3" s="85"/>
+      <c r="TA3" s="86"/>
+      <c r="TB3" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="TC3" s="99"/>
-      <c r="TD3" s="99"/>
-      <c r="TE3" s="99"/>
-      <c r="TF3" s="99"/>
-      <c r="TG3" s="100"/>
-      <c r="TH3" s="101" t="s">
+      <c r="TC3" s="85"/>
+      <c r="TD3" s="85"/>
+      <c r="TE3" s="85"/>
+      <c r="TF3" s="85"/>
+      <c r="TG3" s="96"/>
+      <c r="TH3" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="TI3" s="99"/>
-      <c r="TJ3" s="99"/>
-      <c r="TK3" s="99"/>
-      <c r="TL3" s="99"/>
-      <c r="TM3" s="100"/>
-      <c r="TN3" s="101" t="s">
+      <c r="TI3" s="85"/>
+      <c r="TJ3" s="85"/>
+      <c r="TK3" s="85"/>
+      <c r="TL3" s="85"/>
+      <c r="TM3" s="96"/>
+      <c r="TN3" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="TO3" s="99"/>
-      <c r="TP3" s="99"/>
-      <c r="TQ3" s="99"/>
-      <c r="TR3" s="99"/>
-      <c r="TS3" s="102"/>
-      <c r="TT3" s="98" t="s">
+      <c r="TO3" s="85"/>
+      <c r="TP3" s="85"/>
+      <c r="TQ3" s="85"/>
+      <c r="TR3" s="85"/>
+      <c r="TS3" s="86"/>
+      <c r="TT3" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="TU3" s="99"/>
-      <c r="TV3" s="99"/>
-      <c r="TW3" s="99"/>
-      <c r="TX3" s="99"/>
-      <c r="TY3" s="102"/>
-      <c r="TZ3" s="98" t="s">
+      <c r="TU3" s="85"/>
+      <c r="TV3" s="85"/>
+      <c r="TW3" s="85"/>
+      <c r="TX3" s="85"/>
+      <c r="TY3" s="86"/>
+      <c r="TZ3" s="84" t="s">
         <v>149</v>
       </c>
-      <c r="UA3" s="99"/>
-      <c r="UB3" s="99"/>
-      <c r="UC3" s="99"/>
-      <c r="UD3" s="99"/>
-      <c r="UE3" s="100"/>
-      <c r="UF3" s="101" t="s">
+      <c r="UA3" s="85"/>
+      <c r="UB3" s="85"/>
+      <c r="UC3" s="85"/>
+      <c r="UD3" s="85"/>
+      <c r="UE3" s="96"/>
+      <c r="UF3" s="103" t="s">
         <v>150</v>
       </c>
-      <c r="UG3" s="99"/>
-      <c r="UH3" s="99"/>
-      <c r="UI3" s="99"/>
-      <c r="UJ3" s="99"/>
-      <c r="UK3" s="100"/>
-      <c r="UL3" s="101" t="s">
+      <c r="UG3" s="85"/>
+      <c r="UH3" s="85"/>
+      <c r="UI3" s="85"/>
+      <c r="UJ3" s="85"/>
+      <c r="UK3" s="96"/>
+      <c r="UL3" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="UM3" s="99"/>
-      <c r="UN3" s="99"/>
-      <c r="UO3" s="99"/>
-      <c r="UP3" s="99"/>
-      <c r="UQ3" s="102"/>
-      <c r="UR3" s="98" t="s">
+      <c r="UM3" s="85"/>
+      <c r="UN3" s="85"/>
+      <c r="UO3" s="85"/>
+      <c r="UP3" s="85"/>
+      <c r="UQ3" s="86"/>
+      <c r="UR3" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="US3" s="99"/>
-      <c r="UT3" s="99"/>
-      <c r="UU3" s="99"/>
-      <c r="UV3" s="99"/>
-      <c r="UW3" s="102"/>
-      <c r="UX3" s="98" t="s">
+      <c r="US3" s="85"/>
+      <c r="UT3" s="85"/>
+      <c r="UU3" s="85"/>
+      <c r="UV3" s="85"/>
+      <c r="UW3" s="86"/>
+      <c r="UX3" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="UY3" s="99"/>
-      <c r="UZ3" s="99"/>
-      <c r="VA3" s="99"/>
-      <c r="VB3" s="99"/>
-      <c r="VC3" s="100"/>
-      <c r="VD3" s="101" t="s">
+      <c r="UY3" s="85"/>
+      <c r="UZ3" s="85"/>
+      <c r="VA3" s="85"/>
+      <c r="VB3" s="85"/>
+      <c r="VC3" s="96"/>
+      <c r="VD3" s="103" t="s">
         <v>154</v>
       </c>
-      <c r="VE3" s="99"/>
-      <c r="VF3" s="99"/>
-      <c r="VG3" s="99"/>
-      <c r="VH3" s="99"/>
-      <c r="VI3" s="100"/>
-      <c r="VJ3" s="101" t="s">
+      <c r="VE3" s="85"/>
+      <c r="VF3" s="85"/>
+      <c r="VG3" s="85"/>
+      <c r="VH3" s="85"/>
+      <c r="VI3" s="96"/>
+      <c r="VJ3" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="VK3" s="99"/>
-      <c r="VL3" s="99"/>
-      <c r="VM3" s="99"/>
-      <c r="VN3" s="99"/>
-      <c r="VO3" s="102"/>
-      <c r="VP3" s="98" t="s">
+      <c r="VK3" s="85"/>
+      <c r="VL3" s="85"/>
+      <c r="VM3" s="85"/>
+      <c r="VN3" s="85"/>
+      <c r="VO3" s="86"/>
+      <c r="VP3" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="VQ3" s="99"/>
-      <c r="VR3" s="99"/>
-      <c r="VS3" s="99"/>
-      <c r="VT3" s="99"/>
-      <c r="VU3" s="102"/>
-      <c r="VV3" s="98" t="s">
+      <c r="VQ3" s="85"/>
+      <c r="VR3" s="85"/>
+      <c r="VS3" s="85"/>
+      <c r="VT3" s="85"/>
+      <c r="VU3" s="86"/>
+      <c r="VV3" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="VW3" s="99"/>
-      <c r="VX3" s="99"/>
-      <c r="VY3" s="99"/>
-      <c r="VZ3" s="99"/>
-      <c r="WA3" s="100"/>
-      <c r="WB3" s="101" t="s">
+      <c r="VW3" s="85"/>
+      <c r="VX3" s="85"/>
+      <c r="VY3" s="85"/>
+      <c r="VZ3" s="85"/>
+      <c r="WA3" s="96"/>
+      <c r="WB3" s="103" t="s">
         <v>158</v>
       </c>
-      <c r="WC3" s="99"/>
-      <c r="WD3" s="99"/>
-      <c r="WE3" s="99"/>
-      <c r="WF3" s="99"/>
-      <c r="WG3" s="100"/>
-      <c r="WH3" s="101" t="s">
+      <c r="WC3" s="85"/>
+      <c r="WD3" s="85"/>
+      <c r="WE3" s="85"/>
+      <c r="WF3" s="85"/>
+      <c r="WG3" s="96"/>
+      <c r="WH3" s="103" t="s">
         <v>159</v>
       </c>
-      <c r="WI3" s="99"/>
-      <c r="WJ3" s="99"/>
-      <c r="WK3" s="99"/>
-      <c r="WL3" s="99"/>
-      <c r="WM3" s="102"/>
-      <c r="WN3" s="98" t="s">
+      <c r="WI3" s="85"/>
+      <c r="WJ3" s="85"/>
+      <c r="WK3" s="85"/>
+      <c r="WL3" s="85"/>
+      <c r="WM3" s="86"/>
+      <c r="WN3" s="84" t="s">
         <v>160</v>
       </c>
-      <c r="WO3" s="99"/>
-      <c r="WP3" s="99"/>
-      <c r="WQ3" s="99"/>
-      <c r="WR3" s="99"/>
-      <c r="WS3" s="102"/>
-      <c r="WT3" s="98" t="s">
+      <c r="WO3" s="85"/>
+      <c r="WP3" s="85"/>
+      <c r="WQ3" s="85"/>
+      <c r="WR3" s="85"/>
+      <c r="WS3" s="86"/>
+      <c r="WT3" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="WU3" s="99"/>
-      <c r="WV3" s="99"/>
-      <c r="WW3" s="99"/>
-      <c r="WX3" s="99"/>
-      <c r="WY3" s="100"/>
-      <c r="WZ3" s="101" t="s">
+      <c r="WU3" s="85"/>
+      <c r="WV3" s="85"/>
+      <c r="WW3" s="85"/>
+      <c r="WX3" s="85"/>
+      <c r="WY3" s="96"/>
+      <c r="WZ3" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="XA3" s="99"/>
-      <c r="XB3" s="99"/>
-      <c r="XC3" s="99"/>
-      <c r="XD3" s="99"/>
-      <c r="XE3" s="100"/>
-      <c r="XF3" s="101" t="s">
+      <c r="XA3" s="85"/>
+      <c r="XB3" s="85"/>
+      <c r="XC3" s="85"/>
+      <c r="XD3" s="85"/>
+      <c r="XE3" s="96"/>
+      <c r="XF3" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="XG3" s="99"/>
-      <c r="XH3" s="99"/>
-      <c r="XI3" s="99"/>
-      <c r="XJ3" s="99"/>
-      <c r="XK3" s="102"/>
-      <c r="XL3" s="98" t="s">
+      <c r="XG3" s="85"/>
+      <c r="XH3" s="85"/>
+      <c r="XI3" s="85"/>
+      <c r="XJ3" s="85"/>
+      <c r="XK3" s="86"/>
+      <c r="XL3" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="XM3" s="99"/>
-      <c r="XN3" s="99"/>
-      <c r="XO3" s="99"/>
-      <c r="XP3" s="99"/>
-      <c r="XQ3" s="102"/>
-      <c r="XR3" s="98" t="s">
+      <c r="XM3" s="85"/>
+      <c r="XN3" s="85"/>
+      <c r="XO3" s="85"/>
+      <c r="XP3" s="85"/>
+      <c r="XQ3" s="86"/>
+      <c r="XR3" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="XS3" s="99"/>
-      <c r="XT3" s="99"/>
-      <c r="XU3" s="99"/>
-      <c r="XV3" s="99"/>
-      <c r="XW3" s="100"/>
-      <c r="XX3" s="101" t="s">
+      <c r="XS3" s="85"/>
+      <c r="XT3" s="85"/>
+      <c r="XU3" s="85"/>
+      <c r="XV3" s="85"/>
+      <c r="XW3" s="96"/>
+      <c r="XX3" s="103" t="s">
         <v>166</v>
       </c>
-      <c r="XY3" s="99"/>
-      <c r="XZ3" s="99"/>
-      <c r="YA3" s="99"/>
-      <c r="YB3" s="99"/>
-      <c r="YC3" s="100"/>
-      <c r="YD3" s="101" t="s">
+      <c r="XY3" s="85"/>
+      <c r="XZ3" s="85"/>
+      <c r="YA3" s="85"/>
+      <c r="YB3" s="85"/>
+      <c r="YC3" s="96"/>
+      <c r="YD3" s="103" t="s">
         <v>167</v>
       </c>
-      <c r="YE3" s="99"/>
-      <c r="YF3" s="99"/>
-      <c r="YG3" s="99"/>
-      <c r="YH3" s="99"/>
-      <c r="YI3" s="102"/>
-      <c r="YJ3" s="98" t="s">
+      <c r="YE3" s="85"/>
+      <c r="YF3" s="85"/>
+      <c r="YG3" s="85"/>
+      <c r="YH3" s="85"/>
+      <c r="YI3" s="86"/>
+      <c r="YJ3" s="84" t="s">
         <v>168</v>
       </c>
-      <c r="YK3" s="99"/>
-      <c r="YL3" s="99"/>
-      <c r="YM3" s="99"/>
-      <c r="YN3" s="99"/>
-      <c r="YO3" s="102"/>
-      <c r="YP3" s="98" t="s">
+      <c r="YK3" s="85"/>
+      <c r="YL3" s="85"/>
+      <c r="YM3" s="85"/>
+      <c r="YN3" s="85"/>
+      <c r="YO3" s="86"/>
+      <c r="YP3" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="YQ3" s="99"/>
-      <c r="YR3" s="99"/>
-      <c r="YS3" s="99"/>
-      <c r="YT3" s="99"/>
-      <c r="YU3" s="100"/>
-      <c r="YV3" s="101" t="s">
+      <c r="YQ3" s="85"/>
+      <c r="YR3" s="85"/>
+      <c r="YS3" s="85"/>
+      <c r="YT3" s="85"/>
+      <c r="YU3" s="96"/>
+      <c r="YV3" s="103" t="s">
         <v>170</v>
       </c>
-      <c r="YW3" s="99"/>
-      <c r="YX3" s="99"/>
-      <c r="YY3" s="99"/>
-      <c r="YZ3" s="99"/>
-      <c r="ZA3" s="100"/>
-      <c r="ZB3" s="101" t="s">
+      <c r="YW3" s="85"/>
+      <c r="YX3" s="85"/>
+      <c r="YY3" s="85"/>
+      <c r="YZ3" s="85"/>
+      <c r="ZA3" s="96"/>
+      <c r="ZB3" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="ZC3" s="99"/>
-      <c r="ZD3" s="99"/>
-      <c r="ZE3" s="99"/>
-      <c r="ZF3" s="99"/>
-      <c r="ZG3" s="102"/>
-      <c r="ZH3" s="98" t="s">
+      <c r="ZC3" s="85"/>
+      <c r="ZD3" s="85"/>
+      <c r="ZE3" s="85"/>
+      <c r="ZF3" s="85"/>
+      <c r="ZG3" s="86"/>
+      <c r="ZH3" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="ZI3" s="99"/>
-      <c r="ZJ3" s="99"/>
-      <c r="ZK3" s="99"/>
-      <c r="ZL3" s="99"/>
-      <c r="ZM3" s="102"/>
-      <c r="ZN3" s="98" t="s">
+      <c r="ZI3" s="85"/>
+      <c r="ZJ3" s="85"/>
+      <c r="ZK3" s="85"/>
+      <c r="ZL3" s="85"/>
+      <c r="ZM3" s="86"/>
+      <c r="ZN3" s="84" t="s">
         <v>173</v>
       </c>
-      <c r="ZO3" s="99"/>
-      <c r="ZP3" s="99"/>
-      <c r="ZQ3" s="99"/>
-      <c r="ZR3" s="99"/>
-      <c r="ZS3" s="100"/>
-      <c r="ZT3" s="101" t="s">
+      <c r="ZO3" s="85"/>
+      <c r="ZP3" s="85"/>
+      <c r="ZQ3" s="85"/>
+      <c r="ZR3" s="85"/>
+      <c r="ZS3" s="96"/>
+      <c r="ZT3" s="103" t="s">
         <v>174</v>
       </c>
-      <c r="ZU3" s="99"/>
-      <c r="ZV3" s="99"/>
-      <c r="ZW3" s="99"/>
-      <c r="ZX3" s="99"/>
-      <c r="ZY3" s="100"/>
-      <c r="ZZ3" s="101" t="s">
+      <c r="ZU3" s="85"/>
+      <c r="ZV3" s="85"/>
+      <c r="ZW3" s="85"/>
+      <c r="ZX3" s="85"/>
+      <c r="ZY3" s="96"/>
+      <c r="ZZ3" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="AAA3" s="99"/>
-      <c r="AAB3" s="99"/>
-      <c r="AAC3" s="99"/>
-      <c r="AAD3" s="99"/>
-      <c r="AAE3" s="102"/>
-      <c r="AAF3" s="98" t="s">
+      <c r="AAA3" s="85"/>
+      <c r="AAB3" s="85"/>
+      <c r="AAC3" s="85"/>
+      <c r="AAD3" s="85"/>
+      <c r="AAE3" s="86"/>
+      <c r="AAF3" s="84" t="s">
         <v>176</v>
       </c>
-      <c r="AAG3" s="99"/>
-      <c r="AAH3" s="99"/>
-      <c r="AAI3" s="99"/>
-      <c r="AAJ3" s="99"/>
-      <c r="AAK3" s="102"/>
-      <c r="AAL3" s="103" t="s">
+      <c r="AAG3" s="85"/>
+      <c r="AAH3" s="85"/>
+      <c r="AAI3" s="85"/>
+      <c r="AAJ3" s="85"/>
+      <c r="AAK3" s="86"/>
+      <c r="AAL3" s="100" t="s">
         <v>177</v>
       </c>
-      <c r="AAM3" s="104"/>
-      <c r="AAN3" s="104"/>
-      <c r="AAO3" s="104"/>
-      <c r="AAP3" s="105"/>
-      <c r="AAQ3" s="98" t="s">
+      <c r="AAM3" s="101"/>
+      <c r="AAN3" s="101"/>
+      <c r="AAO3" s="101"/>
+      <c r="AAP3" s="102"/>
+      <c r="AAQ3" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="AAR3" s="99"/>
-      <c r="AAS3" s="99"/>
-      <c r="AAT3" s="99"/>
-      <c r="AAU3" s="102"/>
+      <c r="AAR3" s="85"/>
+      <c r="AAS3" s="85"/>
+      <c r="AAT3" s="85"/>
+      <c r="AAU3" s="86"/>
       <c r="AAV3" s="44" t="s">
         <v>179</v>
       </c>
@@ -6667,476 +6683,476 @@
       <c r="AAZ3" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="ABA3" s="106" t="s">
+      <c r="ABA3" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="ABB3" s="107"/>
-      <c r="ABC3" s="107"/>
-      <c r="ABD3" s="107"/>
-      <c r="ABE3" s="108"/>
-      <c r="ABF3" s="106" t="s">
+      <c r="ABB3" s="98"/>
+      <c r="ABC3" s="98"/>
+      <c r="ABD3" s="98"/>
+      <c r="ABE3" s="99"/>
+      <c r="ABF3" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="ABG3" s="107"/>
-      <c r="ABH3" s="107"/>
-      <c r="ABI3" s="107"/>
-      <c r="ABJ3" s="108"/>
-      <c r="ABK3" s="106" t="s">
+      <c r="ABG3" s="98"/>
+      <c r="ABH3" s="98"/>
+      <c r="ABI3" s="98"/>
+      <c r="ABJ3" s="99"/>
+      <c r="ABK3" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="ABL3" s="107"/>
-      <c r="ABM3" s="107"/>
-      <c r="ABN3" s="107"/>
-      <c r="ABO3" s="108"/>
-      <c r="ABP3" s="106" t="s">
+      <c r="ABL3" s="98"/>
+      <c r="ABM3" s="98"/>
+      <c r="ABN3" s="98"/>
+      <c r="ABO3" s="99"/>
+      <c r="ABP3" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="ABQ3" s="107"/>
-      <c r="ABR3" s="107"/>
-      <c r="ABS3" s="107"/>
-      <c r="ABT3" s="108"/>
-      <c r="ABU3" s="106" t="s">
+      <c r="ABQ3" s="98"/>
+      <c r="ABR3" s="98"/>
+      <c r="ABS3" s="98"/>
+      <c r="ABT3" s="99"/>
+      <c r="ABU3" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="ABV3" s="107"/>
-      <c r="ABW3" s="107"/>
-      <c r="ABX3" s="107"/>
-      <c r="ABY3" s="108"/>
-      <c r="ABZ3" s="106" t="s">
+      <c r="ABV3" s="98"/>
+      <c r="ABW3" s="98"/>
+      <c r="ABX3" s="98"/>
+      <c r="ABY3" s="99"/>
+      <c r="ABZ3" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="ACA3" s="107"/>
-      <c r="ACB3" s="107"/>
-      <c r="ACC3" s="107"/>
-      <c r="ACD3" s="108"/>
-      <c r="ACE3" s="103" t="s">
+      <c r="ACA3" s="98"/>
+      <c r="ACB3" s="98"/>
+      <c r="ACC3" s="98"/>
+      <c r="ACD3" s="99"/>
+      <c r="ACE3" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="ACF3" s="104"/>
-      <c r="ACG3" s="104"/>
-      <c r="ACH3" s="104"/>
-      <c r="ACI3" s="105"/>
-      <c r="ACJ3" s="98" t="s">
+      <c r="ACF3" s="101"/>
+      <c r="ACG3" s="101"/>
+      <c r="ACH3" s="101"/>
+      <c r="ACI3" s="102"/>
+      <c r="ACJ3" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="ACK3" s="99"/>
-      <c r="ACL3" s="99"/>
-      <c r="ACM3" s="99"/>
-      <c r="ACN3" s="102"/>
-      <c r="ACO3" s="98" t="s">
+      <c r="ACK3" s="85"/>
+      <c r="ACL3" s="85"/>
+      <c r="ACM3" s="85"/>
+      <c r="ACN3" s="86"/>
+      <c r="ACO3" s="84" t="s">
         <v>192</v>
       </c>
-      <c r="ACP3" s="99"/>
-      <c r="ACQ3" s="99"/>
-      <c r="ACR3" s="99"/>
-      <c r="ACS3" s="100"/>
-      <c r="ACT3" s="101" t="s">
+      <c r="ACP3" s="85"/>
+      <c r="ACQ3" s="85"/>
+      <c r="ACR3" s="85"/>
+      <c r="ACS3" s="96"/>
+      <c r="ACT3" s="103" t="s">
         <v>193</v>
       </c>
-      <c r="ACU3" s="99"/>
-      <c r="ACV3" s="99"/>
-      <c r="ACW3" s="99"/>
-      <c r="ACX3" s="100"/>
-      <c r="ACY3" s="101" t="s">
+      <c r="ACU3" s="85"/>
+      <c r="ACV3" s="85"/>
+      <c r="ACW3" s="85"/>
+      <c r="ACX3" s="96"/>
+      <c r="ACY3" s="103" t="s">
         <v>194</v>
       </c>
-      <c r="ACZ3" s="99"/>
-      <c r="ADA3" s="99"/>
-      <c r="ADB3" s="99"/>
-      <c r="ADC3" s="102"/>
-      <c r="ADD3" s="98" t="s">
+      <c r="ACZ3" s="85"/>
+      <c r="ADA3" s="85"/>
+      <c r="ADB3" s="85"/>
+      <c r="ADC3" s="86"/>
+      <c r="ADD3" s="84" t="s">
         <v>195</v>
       </c>
-      <c r="ADE3" s="99"/>
-      <c r="ADF3" s="99"/>
-      <c r="ADG3" s="99"/>
-      <c r="ADH3" s="102"/>
-      <c r="ADI3" s="98" t="s">
+      <c r="ADE3" s="85"/>
+      <c r="ADF3" s="85"/>
+      <c r="ADG3" s="85"/>
+      <c r="ADH3" s="86"/>
+      <c r="ADI3" s="84" t="s">
         <v>196</v>
       </c>
-      <c r="ADJ3" s="99"/>
-      <c r="ADK3" s="99"/>
-      <c r="ADL3" s="99"/>
-      <c r="ADM3" s="102"/>
-      <c r="ADN3" s="98" t="s">
+      <c r="ADJ3" s="85"/>
+      <c r="ADK3" s="85"/>
+      <c r="ADL3" s="85"/>
+      <c r="ADM3" s="86"/>
+      <c r="ADN3" s="84" t="s">
         <v>197</v>
       </c>
-      <c r="ADO3" s="99"/>
-      <c r="ADP3" s="99"/>
-      <c r="ADQ3" s="99"/>
-      <c r="ADR3" s="102"/>
-      <c r="ADS3" s="98" t="s">
+      <c r="ADO3" s="85"/>
+      <c r="ADP3" s="85"/>
+      <c r="ADQ3" s="85"/>
+      <c r="ADR3" s="86"/>
+      <c r="ADS3" s="84" t="s">
         <v>198</v>
       </c>
-      <c r="ADT3" s="99"/>
-      <c r="ADU3" s="99"/>
-      <c r="ADV3" s="99"/>
-      <c r="ADW3" s="102"/>
-      <c r="ADX3" s="98" t="s">
+      <c r="ADT3" s="85"/>
+      <c r="ADU3" s="85"/>
+      <c r="ADV3" s="85"/>
+      <c r="ADW3" s="86"/>
+      <c r="ADX3" s="84" t="s">
         <v>199</v>
       </c>
-      <c r="ADY3" s="99"/>
-      <c r="ADZ3" s="99"/>
-      <c r="AEA3" s="99"/>
-      <c r="AEB3" s="102"/>
-      <c r="AEC3" s="98" t="s">
+      <c r="ADY3" s="85"/>
+      <c r="ADZ3" s="85"/>
+      <c r="AEA3" s="85"/>
+      <c r="AEB3" s="86"/>
+      <c r="AEC3" s="84" t="s">
         <v>200</v>
       </c>
-      <c r="AED3" s="99"/>
-      <c r="AEE3" s="99"/>
-      <c r="AEF3" s="99"/>
-      <c r="AEG3" s="102"/>
-      <c r="AEH3" s="98" t="s">
+      <c r="AED3" s="85"/>
+      <c r="AEE3" s="85"/>
+      <c r="AEF3" s="85"/>
+      <c r="AEG3" s="86"/>
+      <c r="AEH3" s="84" t="s">
         <v>201</v>
       </c>
-      <c r="AEI3" s="99"/>
-      <c r="AEJ3" s="99"/>
-      <c r="AEK3" s="99"/>
-      <c r="AEL3" s="102"/>
-      <c r="AEM3" s="98" t="s">
+      <c r="AEI3" s="85"/>
+      <c r="AEJ3" s="85"/>
+      <c r="AEK3" s="85"/>
+      <c r="AEL3" s="86"/>
+      <c r="AEM3" s="84" t="s">
         <v>202</v>
       </c>
-      <c r="AEN3" s="99"/>
-      <c r="AEO3" s="99"/>
-      <c r="AEP3" s="99"/>
-      <c r="AEQ3" s="102"/>
-      <c r="AER3" s="98" t="s">
+      <c r="AEN3" s="85"/>
+      <c r="AEO3" s="85"/>
+      <c r="AEP3" s="85"/>
+      <c r="AEQ3" s="86"/>
+      <c r="AER3" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="AES3" s="99"/>
-      <c r="AET3" s="99"/>
-      <c r="AEU3" s="99"/>
-      <c r="AEV3" s="102"/>
-      <c r="AEW3" s="98" t="s">
+      <c r="AES3" s="85"/>
+      <c r="AET3" s="85"/>
+      <c r="AEU3" s="85"/>
+      <c r="AEV3" s="86"/>
+      <c r="AEW3" s="84" t="s">
         <v>204</v>
       </c>
-      <c r="AEX3" s="99"/>
-      <c r="AEY3" s="99"/>
-      <c r="AEZ3" s="99"/>
-      <c r="AFA3" s="99"/>
-      <c r="AFB3" s="102"/>
-      <c r="AFC3" s="98" t="s">
+      <c r="AEX3" s="85"/>
+      <c r="AEY3" s="85"/>
+      <c r="AEZ3" s="85"/>
+      <c r="AFA3" s="85"/>
+      <c r="AFB3" s="86"/>
+      <c r="AFC3" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="AFD3" s="99"/>
-      <c r="AFE3" s="99"/>
-      <c r="AFF3" s="99"/>
-      <c r="AFG3" s="99"/>
-      <c r="AFH3" s="102"/>
-      <c r="AFI3" s="98" t="s">
+      <c r="AFD3" s="85"/>
+      <c r="AFE3" s="85"/>
+      <c r="AFF3" s="85"/>
+      <c r="AFG3" s="85"/>
+      <c r="AFH3" s="86"/>
+      <c r="AFI3" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="AFJ3" s="99"/>
-      <c r="AFK3" s="99"/>
-      <c r="AFL3" s="99"/>
-      <c r="AFM3" s="99"/>
-      <c r="AFN3" s="102"/>
-      <c r="AFO3" s="98" t="s">
+      <c r="AFJ3" s="85"/>
+      <c r="AFK3" s="85"/>
+      <c r="AFL3" s="85"/>
+      <c r="AFM3" s="85"/>
+      <c r="AFN3" s="86"/>
+      <c r="AFO3" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="AFP3" s="99"/>
-      <c r="AFQ3" s="99"/>
-      <c r="AFR3" s="99"/>
-      <c r="AFS3" s="99"/>
-      <c r="AFT3" s="102"/>
-      <c r="AFU3" s="98" t="s">
+      <c r="AFP3" s="85"/>
+      <c r="AFQ3" s="85"/>
+      <c r="AFR3" s="85"/>
+      <c r="AFS3" s="85"/>
+      <c r="AFT3" s="86"/>
+      <c r="AFU3" s="84" t="s">
         <v>208</v>
       </c>
-      <c r="AFV3" s="99"/>
-      <c r="AFW3" s="99"/>
-      <c r="AFX3" s="99"/>
-      <c r="AFY3" s="99"/>
-      <c r="AFZ3" s="102"/>
-      <c r="AGA3" s="98" t="s">
+      <c r="AFV3" s="85"/>
+      <c r="AFW3" s="85"/>
+      <c r="AFX3" s="85"/>
+      <c r="AFY3" s="85"/>
+      <c r="AFZ3" s="86"/>
+      <c r="AGA3" s="84" t="s">
         <v>209</v>
       </c>
-      <c r="AGB3" s="99"/>
-      <c r="AGC3" s="99"/>
-      <c r="AGD3" s="99"/>
-      <c r="AGE3" s="99"/>
-      <c r="AGF3" s="102"/>
-      <c r="AGG3" s="98" t="s">
+      <c r="AGB3" s="85"/>
+      <c r="AGC3" s="85"/>
+      <c r="AGD3" s="85"/>
+      <c r="AGE3" s="85"/>
+      <c r="AGF3" s="86"/>
+      <c r="AGG3" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="AGH3" s="99"/>
-      <c r="AGI3" s="99"/>
-      <c r="AGJ3" s="99"/>
-      <c r="AGK3" s="99"/>
-      <c r="AGL3" s="102"/>
-      <c r="AGM3" s="98" t="s">
+      <c r="AGH3" s="85"/>
+      <c r="AGI3" s="85"/>
+      <c r="AGJ3" s="85"/>
+      <c r="AGK3" s="85"/>
+      <c r="AGL3" s="86"/>
+      <c r="AGM3" s="84" t="s">
         <v>211</v>
       </c>
-      <c r="AGN3" s="99"/>
-      <c r="AGO3" s="99"/>
-      <c r="AGP3" s="99"/>
-      <c r="AGQ3" s="99"/>
-      <c r="AGR3" s="102"/>
-      <c r="AGS3" s="98" t="s">
+      <c r="AGN3" s="85"/>
+      <c r="AGO3" s="85"/>
+      <c r="AGP3" s="85"/>
+      <c r="AGQ3" s="85"/>
+      <c r="AGR3" s="86"/>
+      <c r="AGS3" s="84" t="s">
         <v>212</v>
       </c>
-      <c r="AGT3" s="99"/>
-      <c r="AGU3" s="99"/>
-      <c r="AGV3" s="99"/>
-      <c r="AGW3" s="99"/>
-      <c r="AGX3" s="102"/>
-      <c r="AGY3" s="98" t="s">
+      <c r="AGT3" s="85"/>
+      <c r="AGU3" s="85"/>
+      <c r="AGV3" s="85"/>
+      <c r="AGW3" s="85"/>
+      <c r="AGX3" s="86"/>
+      <c r="AGY3" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="AGZ3" s="99"/>
-      <c r="AHA3" s="99"/>
-      <c r="AHB3" s="99"/>
-      <c r="AHC3" s="99"/>
-      <c r="AHD3" s="102"/>
-      <c r="AHE3" s="98" t="s">
+      <c r="AGZ3" s="85"/>
+      <c r="AHA3" s="85"/>
+      <c r="AHB3" s="85"/>
+      <c r="AHC3" s="85"/>
+      <c r="AHD3" s="86"/>
+      <c r="AHE3" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="AHF3" s="99"/>
-      <c r="AHG3" s="99"/>
-      <c r="AHH3" s="99"/>
-      <c r="AHI3" s="99"/>
-      <c r="AHJ3" s="102"/>
-      <c r="AHK3" s="98" t="s">
+      <c r="AHF3" s="85"/>
+      <c r="AHG3" s="85"/>
+      <c r="AHH3" s="85"/>
+      <c r="AHI3" s="85"/>
+      <c r="AHJ3" s="86"/>
+      <c r="AHK3" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="AHL3" s="99"/>
-      <c r="AHM3" s="99"/>
-      <c r="AHN3" s="99"/>
-      <c r="AHO3" s="99"/>
-      <c r="AHP3" s="102"/>
-      <c r="AHQ3" s="98" t="s">
+      <c r="AHL3" s="85"/>
+      <c r="AHM3" s="85"/>
+      <c r="AHN3" s="85"/>
+      <c r="AHO3" s="85"/>
+      <c r="AHP3" s="86"/>
+      <c r="AHQ3" s="84" t="s">
         <v>216</v>
       </c>
-      <c r="AHR3" s="99"/>
-      <c r="AHS3" s="99"/>
-      <c r="AHT3" s="99"/>
-      <c r="AHU3" s="99"/>
-      <c r="AHV3" s="102"/>
-      <c r="AHW3" s="98" t="s">
+      <c r="AHR3" s="85"/>
+      <c r="AHS3" s="85"/>
+      <c r="AHT3" s="85"/>
+      <c r="AHU3" s="85"/>
+      <c r="AHV3" s="86"/>
+      <c r="AHW3" s="84" t="s">
         <v>217</v>
       </c>
-      <c r="AHX3" s="99"/>
-      <c r="AHY3" s="99"/>
-      <c r="AHZ3" s="99"/>
-      <c r="AIA3" s="99"/>
-      <c r="AIB3" s="102"/>
-      <c r="AIC3" s="98" t="s">
+      <c r="AHX3" s="85"/>
+      <c r="AHY3" s="85"/>
+      <c r="AHZ3" s="85"/>
+      <c r="AIA3" s="85"/>
+      <c r="AIB3" s="86"/>
+      <c r="AIC3" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="AID3" s="99"/>
-      <c r="AIE3" s="99"/>
-      <c r="AIF3" s="99"/>
-      <c r="AIG3" s="99"/>
-      <c r="AIH3" s="102"/>
-      <c r="AII3" s="98" t="s">
+      <c r="AID3" s="85"/>
+      <c r="AIE3" s="85"/>
+      <c r="AIF3" s="85"/>
+      <c r="AIG3" s="85"/>
+      <c r="AIH3" s="86"/>
+      <c r="AII3" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="AIJ3" s="99"/>
-      <c r="AIK3" s="99"/>
-      <c r="AIL3" s="99"/>
-      <c r="AIM3" s="99"/>
-      <c r="AIN3" s="102"/>
-      <c r="AIO3" s="98" t="s">
+      <c r="AIJ3" s="85"/>
+      <c r="AIK3" s="85"/>
+      <c r="AIL3" s="85"/>
+      <c r="AIM3" s="85"/>
+      <c r="AIN3" s="86"/>
+      <c r="AIO3" s="84" t="s">
         <v>220</v>
       </c>
-      <c r="AIP3" s="99"/>
-      <c r="AIQ3" s="99"/>
-      <c r="AIR3" s="99"/>
-      <c r="AIS3" s="99"/>
-      <c r="AIT3" s="102"/>
-      <c r="AIU3" s="98" t="s">
+      <c r="AIP3" s="85"/>
+      <c r="AIQ3" s="85"/>
+      <c r="AIR3" s="85"/>
+      <c r="AIS3" s="85"/>
+      <c r="AIT3" s="86"/>
+      <c r="AIU3" s="84" t="s">
         <v>221</v>
       </c>
-      <c r="AIV3" s="99"/>
-      <c r="AIW3" s="99"/>
-      <c r="AIX3" s="99"/>
-      <c r="AIY3" s="99"/>
-      <c r="AIZ3" s="102"/>
-      <c r="AJA3" s="98" t="s">
+      <c r="AIV3" s="85"/>
+      <c r="AIW3" s="85"/>
+      <c r="AIX3" s="85"/>
+      <c r="AIY3" s="85"/>
+      <c r="AIZ3" s="86"/>
+      <c r="AJA3" s="84" t="s">
         <v>222</v>
       </c>
-      <c r="AJB3" s="99"/>
-      <c r="AJC3" s="99"/>
-      <c r="AJD3" s="99"/>
-      <c r="AJE3" s="99"/>
-      <c r="AJF3" s="102"/>
-      <c r="AJG3" s="98" t="s">
+      <c r="AJB3" s="85"/>
+      <c r="AJC3" s="85"/>
+      <c r="AJD3" s="85"/>
+      <c r="AJE3" s="85"/>
+      <c r="AJF3" s="86"/>
+      <c r="AJG3" s="84" t="s">
         <v>223</v>
       </c>
-      <c r="AJH3" s="99"/>
-      <c r="AJI3" s="99"/>
-      <c r="AJJ3" s="99"/>
-      <c r="AJK3" s="99"/>
-      <c r="AJL3" s="102"/>
-      <c r="AJM3" s="98" t="s">
+      <c r="AJH3" s="85"/>
+      <c r="AJI3" s="85"/>
+      <c r="AJJ3" s="85"/>
+      <c r="AJK3" s="85"/>
+      <c r="AJL3" s="86"/>
+      <c r="AJM3" s="84" t="s">
         <v>224</v>
       </c>
-      <c r="AJN3" s="99"/>
-      <c r="AJO3" s="99"/>
-      <c r="AJP3" s="99"/>
-      <c r="AJQ3" s="99"/>
-      <c r="AJR3" s="102"/>
-      <c r="AJS3" s="98" t="s">
+      <c r="AJN3" s="85"/>
+      <c r="AJO3" s="85"/>
+      <c r="AJP3" s="85"/>
+      <c r="AJQ3" s="85"/>
+      <c r="AJR3" s="86"/>
+      <c r="AJS3" s="84" t="s">
         <v>225</v>
       </c>
-      <c r="AJT3" s="99"/>
-      <c r="AJU3" s="99"/>
-      <c r="AJV3" s="99"/>
-      <c r="AJW3" s="99"/>
-      <c r="AJX3" s="102"/>
-      <c r="AJY3" s="98" t="s">
+      <c r="AJT3" s="85"/>
+      <c r="AJU3" s="85"/>
+      <c r="AJV3" s="85"/>
+      <c r="AJW3" s="85"/>
+      <c r="AJX3" s="86"/>
+      <c r="AJY3" s="84" t="s">
         <v>226</v>
       </c>
-      <c r="AJZ3" s="99"/>
-      <c r="AKA3" s="99"/>
-      <c r="AKB3" s="99"/>
-      <c r="AKC3" s="99"/>
-      <c r="AKD3" s="102"/>
-      <c r="AKE3" s="98" t="s">
+      <c r="AJZ3" s="85"/>
+      <c r="AKA3" s="85"/>
+      <c r="AKB3" s="85"/>
+      <c r="AKC3" s="85"/>
+      <c r="AKD3" s="86"/>
+      <c r="AKE3" s="84" t="s">
         <v>227</v>
       </c>
-      <c r="AKF3" s="99"/>
-      <c r="AKG3" s="99"/>
-      <c r="AKH3" s="99"/>
-      <c r="AKI3" s="99"/>
-      <c r="AKJ3" s="102"/>
-      <c r="AKK3" s="98" t="s">
+      <c r="AKF3" s="85"/>
+      <c r="AKG3" s="85"/>
+      <c r="AKH3" s="85"/>
+      <c r="AKI3" s="85"/>
+      <c r="AKJ3" s="86"/>
+      <c r="AKK3" s="84" t="s">
         <v>228</v>
       </c>
-      <c r="AKL3" s="99"/>
-      <c r="AKM3" s="99"/>
-      <c r="AKN3" s="99"/>
-      <c r="AKO3" s="99"/>
-      <c r="AKP3" s="102"/>
-      <c r="AKQ3" s="98" t="s">
+      <c r="AKL3" s="85"/>
+      <c r="AKM3" s="85"/>
+      <c r="AKN3" s="85"/>
+      <c r="AKO3" s="85"/>
+      <c r="AKP3" s="86"/>
+      <c r="AKQ3" s="84" t="s">
         <v>229</v>
       </c>
-      <c r="AKR3" s="99"/>
-      <c r="AKS3" s="99"/>
-      <c r="AKT3" s="99"/>
-      <c r="AKU3" s="99"/>
-      <c r="AKV3" s="102"/>
-      <c r="AKW3" s="98" t="s">
+      <c r="AKR3" s="85"/>
+      <c r="AKS3" s="85"/>
+      <c r="AKT3" s="85"/>
+      <c r="AKU3" s="85"/>
+      <c r="AKV3" s="86"/>
+      <c r="AKW3" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="AKX3" s="99"/>
-      <c r="AKY3" s="99"/>
-      <c r="AKZ3" s="99"/>
-      <c r="ALA3" s="99"/>
-      <c r="ALB3" s="102"/>
-      <c r="ALC3" s="98" t="s">
+      <c r="AKX3" s="85"/>
+      <c r="AKY3" s="85"/>
+      <c r="AKZ3" s="85"/>
+      <c r="ALA3" s="85"/>
+      <c r="ALB3" s="86"/>
+      <c r="ALC3" s="84" t="s">
         <v>231</v>
       </c>
-      <c r="ALD3" s="99"/>
-      <c r="ALE3" s="99"/>
-      <c r="ALF3" s="99"/>
-      <c r="ALG3" s="99"/>
-      <c r="ALH3" s="102"/>
-      <c r="ALI3" s="98" t="s">
+      <c r="ALD3" s="85"/>
+      <c r="ALE3" s="85"/>
+      <c r="ALF3" s="85"/>
+      <c r="ALG3" s="85"/>
+      <c r="ALH3" s="86"/>
+      <c r="ALI3" s="84" t="s">
         <v>232</v>
       </c>
-      <c r="ALJ3" s="99"/>
-      <c r="ALK3" s="99"/>
-      <c r="ALL3" s="99"/>
-      <c r="ALM3" s="99"/>
-      <c r="ALN3" s="102"/>
-      <c r="ALO3" s="98" t="s">
+      <c r="ALJ3" s="85"/>
+      <c r="ALK3" s="85"/>
+      <c r="ALL3" s="85"/>
+      <c r="ALM3" s="85"/>
+      <c r="ALN3" s="86"/>
+      <c r="ALO3" s="84" t="s">
         <v>233</v>
       </c>
-      <c r="ALP3" s="99"/>
-      <c r="ALQ3" s="99"/>
-      <c r="ALR3" s="99"/>
-      <c r="ALS3" s="99"/>
-      <c r="ALT3" s="102"/>
-      <c r="ALU3" s="98" t="s">
+      <c r="ALP3" s="85"/>
+      <c r="ALQ3" s="85"/>
+      <c r="ALR3" s="85"/>
+      <c r="ALS3" s="85"/>
+      <c r="ALT3" s="86"/>
+      <c r="ALU3" s="84" t="s">
         <v>234</v>
       </c>
-      <c r="ALV3" s="99"/>
-      <c r="ALW3" s="99"/>
-      <c r="ALX3" s="99"/>
-      <c r="ALY3" s="99"/>
-      <c r="ALZ3" s="102"/>
-      <c r="AMA3" s="98" t="s">
+      <c r="ALV3" s="85"/>
+      <c r="ALW3" s="85"/>
+      <c r="ALX3" s="85"/>
+      <c r="ALY3" s="85"/>
+      <c r="ALZ3" s="86"/>
+      <c r="AMA3" s="84" t="s">
         <v>235</v>
       </c>
-      <c r="AMB3" s="99"/>
-      <c r="AMC3" s="99"/>
-      <c r="AMD3" s="99"/>
-      <c r="AME3" s="99"/>
-      <c r="AMF3" s="102"/>
-      <c r="AMG3" s="98" t="s">
+      <c r="AMB3" s="85"/>
+      <c r="AMC3" s="85"/>
+      <c r="AMD3" s="85"/>
+      <c r="AME3" s="85"/>
+      <c r="AMF3" s="86"/>
+      <c r="AMG3" s="84" t="s">
         <v>236</v>
       </c>
-      <c r="AMH3" s="99"/>
-      <c r="AMI3" s="99"/>
-      <c r="AMJ3" s="99"/>
-      <c r="AMK3" s="99"/>
-      <c r="AML3" s="102"/>
-      <c r="AMM3" s="98" t="s">
+      <c r="AMH3" s="85"/>
+      <c r="AMI3" s="85"/>
+      <c r="AMJ3" s="85"/>
+      <c r="AMK3" s="85"/>
+      <c r="AML3" s="86"/>
+      <c r="AMM3" s="84" t="s">
         <v>237</v>
       </c>
-      <c r="AMN3" s="99"/>
-      <c r="AMO3" s="99"/>
-      <c r="AMP3" s="99"/>
-      <c r="AMQ3" s="99"/>
-      <c r="AMR3" s="102"/>
-      <c r="AMS3" s="98" t="s">
+      <c r="AMN3" s="85"/>
+      <c r="AMO3" s="85"/>
+      <c r="AMP3" s="85"/>
+      <c r="AMQ3" s="85"/>
+      <c r="AMR3" s="86"/>
+      <c r="AMS3" s="84" t="s">
         <v>238</v>
       </c>
-      <c r="AMT3" s="99"/>
-      <c r="AMU3" s="99"/>
-      <c r="AMV3" s="99"/>
-      <c r="AMW3" s="99"/>
-      <c r="AMX3" s="102"/>
-      <c r="AMY3" s="98" t="s">
+      <c r="AMT3" s="85"/>
+      <c r="AMU3" s="85"/>
+      <c r="AMV3" s="85"/>
+      <c r="AMW3" s="85"/>
+      <c r="AMX3" s="86"/>
+      <c r="AMY3" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="AMZ3" s="99"/>
-      <c r="ANA3" s="99"/>
-      <c r="ANB3" s="99"/>
-      <c r="ANC3" s="99"/>
-      <c r="AND3" s="102"/>
-      <c r="ANE3" s="98" t="s">
+      <c r="AMZ3" s="85"/>
+      <c r="ANA3" s="85"/>
+      <c r="ANB3" s="85"/>
+      <c r="ANC3" s="85"/>
+      <c r="AND3" s="86"/>
+      <c r="ANE3" s="84" t="s">
         <v>240</v>
       </c>
-      <c r="ANF3" s="99"/>
-      <c r="ANG3" s="99"/>
-      <c r="ANH3" s="99"/>
-      <c r="ANI3" s="99"/>
-      <c r="ANJ3" s="102"/>
-      <c r="ANK3" s="98" t="s">
+      <c r="ANF3" s="85"/>
+      <c r="ANG3" s="85"/>
+      <c r="ANH3" s="85"/>
+      <c r="ANI3" s="85"/>
+      <c r="ANJ3" s="86"/>
+      <c r="ANK3" s="84" t="s">
         <v>241</v>
       </c>
-      <c r="ANL3" s="99"/>
-      <c r="ANM3" s="99"/>
-      <c r="ANN3" s="99"/>
-      <c r="ANO3" s="99"/>
-      <c r="ANP3" s="102"/>
-      <c r="ANQ3" s="98" t="s">
+      <c r="ANL3" s="85"/>
+      <c r="ANM3" s="85"/>
+      <c r="ANN3" s="85"/>
+      <c r="ANO3" s="85"/>
+      <c r="ANP3" s="86"/>
+      <c r="ANQ3" s="84" t="s">
         <v>242</v>
       </c>
-      <c r="ANR3" s="99"/>
-      <c r="ANS3" s="99"/>
-      <c r="ANT3" s="99"/>
-      <c r="ANU3" s="99"/>
-      <c r="ANV3" s="102"/>
-      <c r="ANW3" s="98" t="s">
+      <c r="ANR3" s="85"/>
+      <c r="ANS3" s="85"/>
+      <c r="ANT3" s="85"/>
+      <c r="ANU3" s="85"/>
+      <c r="ANV3" s="86"/>
+      <c r="ANW3" s="84" t="s">
         <v>243</v>
       </c>
-      <c r="ANX3" s="99"/>
-      <c r="ANY3" s="99"/>
-      <c r="ANZ3" s="99"/>
-      <c r="AOA3" s="99"/>
-      <c r="AOB3" s="102"/>
+      <c r="ANX3" s="85"/>
+      <c r="ANY3" s="85"/>
+      <c r="ANZ3" s="85"/>
+      <c r="AOA3" s="85"/>
+      <c r="AOB3" s="86"/>
       <c r="AOC3" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="AOD3" s="98" t="s">
+      <c r="AOD3" s="84" t="s">
         <v>245</v>
       </c>
-      <c r="AOE3" s="99"/>
-      <c r="AOF3" s="99"/>
-      <c r="AOG3" s="99"/>
-      <c r="AOH3" s="102"/>
+      <c r="AOE3" s="85"/>
+      <c r="AOF3" s="85"/>
+      <c r="AOG3" s="85"/>
+      <c r="AOH3" s="86"/>
       <c r="AOI3" s="22" t="s">
         <v>246</v>
       </c>
@@ -7152,492 +7168,504 @@
       <c r="AOM3" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="AON3" s="106" t="s">
+      <c r="AON3" s="97" t="s">
         <v>251</v>
       </c>
-      <c r="AOO3" s="107"/>
-      <c r="AOP3" s="107"/>
-      <c r="AOQ3" s="107"/>
-      <c r="AOR3" s="108"/>
-      <c r="AOS3" s="106" t="s">
+      <c r="AOO3" s="98"/>
+      <c r="AOP3" s="98"/>
+      <c r="AOQ3" s="98"/>
+      <c r="AOR3" s="99"/>
+      <c r="AOS3" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="AOT3" s="107"/>
-      <c r="AOU3" s="107"/>
-      <c r="AOV3" s="107"/>
-      <c r="AOW3" s="108"/>
-      <c r="AOX3" s="106" t="s">
+      <c r="AOT3" s="98"/>
+      <c r="AOU3" s="98"/>
+      <c r="AOV3" s="98"/>
+      <c r="AOW3" s="99"/>
+      <c r="AOX3" s="97" t="s">
         <v>253</v>
       </c>
-      <c r="AOY3" s="107"/>
-      <c r="AOZ3" s="107"/>
-      <c r="APA3" s="107"/>
-      <c r="APB3" s="108"/>
-      <c r="APC3" s="106" t="s">
+      <c r="AOY3" s="98"/>
+      <c r="AOZ3" s="98"/>
+      <c r="APA3" s="98"/>
+      <c r="APB3" s="99"/>
+      <c r="APC3" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="APD3" s="107"/>
-      <c r="APE3" s="107"/>
-      <c r="APF3" s="107"/>
-      <c r="APG3" s="108"/>
-      <c r="APH3" s="106" t="s">
+      <c r="APD3" s="98"/>
+      <c r="APE3" s="98"/>
+      <c r="APF3" s="98"/>
+      <c r="APG3" s="99"/>
+      <c r="APH3" s="97" t="s">
         <v>255</v>
       </c>
-      <c r="API3" s="107"/>
-      <c r="APJ3" s="107"/>
-      <c r="APK3" s="107"/>
-      <c r="APL3" s="108"/>
-      <c r="APM3" s="106" t="s">
+      <c r="API3" s="98"/>
+      <c r="APJ3" s="98"/>
+      <c r="APK3" s="98"/>
+      <c r="APL3" s="99"/>
+      <c r="APM3" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="APN3" s="107"/>
-      <c r="APO3" s="107"/>
-      <c r="APP3" s="107"/>
-      <c r="APQ3" s="108"/>
-      <c r="APR3" s="103" t="s">
+      <c r="APN3" s="98"/>
+      <c r="APO3" s="98"/>
+      <c r="APP3" s="98"/>
+      <c r="APQ3" s="99"/>
+      <c r="APR3" s="100" t="s">
         <v>257</v>
       </c>
-      <c r="APS3" s="104"/>
-      <c r="APT3" s="104"/>
-      <c r="APU3" s="104"/>
-      <c r="APV3" s="105"/>
-      <c r="APW3" s="98" t="s">
+      <c r="APS3" s="101"/>
+      <c r="APT3" s="101"/>
+      <c r="APU3" s="101"/>
+      <c r="APV3" s="102"/>
+      <c r="APW3" s="84" t="s">
         <v>258</v>
       </c>
-      <c r="APX3" s="99"/>
-      <c r="APY3" s="99"/>
-      <c r="APZ3" s="99"/>
-      <c r="AQA3" s="102"/>
-      <c r="AQB3" s="98" t="s">
+      <c r="APX3" s="85"/>
+      <c r="APY3" s="85"/>
+      <c r="APZ3" s="85"/>
+      <c r="AQA3" s="86"/>
+      <c r="AQB3" s="84" t="s">
         <v>259</v>
       </c>
-      <c r="AQC3" s="99"/>
-      <c r="AQD3" s="99"/>
-      <c r="AQE3" s="99"/>
-      <c r="AQF3" s="100"/>
-      <c r="AQG3" s="101" t="s">
+      <c r="AQC3" s="85"/>
+      <c r="AQD3" s="85"/>
+      <c r="AQE3" s="85"/>
+      <c r="AQF3" s="96"/>
+      <c r="AQG3" s="103" t="s">
         <v>260</v>
       </c>
-      <c r="AQH3" s="99"/>
-      <c r="AQI3" s="99"/>
-      <c r="AQJ3" s="99"/>
-      <c r="AQK3" s="100"/>
-      <c r="AQL3" s="101" t="s">
+      <c r="AQH3" s="85"/>
+      <c r="AQI3" s="85"/>
+      <c r="AQJ3" s="85"/>
+      <c r="AQK3" s="96"/>
+      <c r="AQL3" s="103" t="s">
         <v>261</v>
       </c>
-      <c r="AQM3" s="99"/>
-      <c r="AQN3" s="99"/>
-      <c r="AQO3" s="99"/>
-      <c r="AQP3" s="102"/>
-      <c r="AQQ3" s="98" t="s">
+      <c r="AQM3" s="85"/>
+      <c r="AQN3" s="85"/>
+      <c r="AQO3" s="85"/>
+      <c r="AQP3" s="86"/>
+      <c r="AQQ3" s="84" t="s">
         <v>262</v>
       </c>
-      <c r="AQR3" s="99"/>
-      <c r="AQS3" s="99"/>
-      <c r="AQT3" s="99"/>
-      <c r="AQU3" s="102"/>
-      <c r="AQV3" s="98" t="s">
+      <c r="AQR3" s="85"/>
+      <c r="AQS3" s="85"/>
+      <c r="AQT3" s="85"/>
+      <c r="AQU3" s="86"/>
+      <c r="AQV3" s="84" t="s">
         <v>263</v>
       </c>
-      <c r="AQW3" s="99"/>
-      <c r="AQX3" s="99"/>
-      <c r="AQY3" s="99"/>
-      <c r="AQZ3" s="102"/>
-      <c r="ARA3" s="98" t="s">
+      <c r="AQW3" s="85"/>
+      <c r="AQX3" s="85"/>
+      <c r="AQY3" s="85"/>
+      <c r="AQZ3" s="86"/>
+      <c r="ARA3" s="84" t="s">
         <v>264</v>
       </c>
-      <c r="ARB3" s="99"/>
-      <c r="ARC3" s="99"/>
-      <c r="ARD3" s="99"/>
-      <c r="ARE3" s="102"/>
-      <c r="ARF3" s="98" t="s">
+      <c r="ARB3" s="85"/>
+      <c r="ARC3" s="85"/>
+      <c r="ARD3" s="85"/>
+      <c r="ARE3" s="86"/>
+      <c r="ARF3" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="ARG3" s="99"/>
-      <c r="ARH3" s="99"/>
-      <c r="ARI3" s="99"/>
-      <c r="ARJ3" s="102"/>
-      <c r="ARK3" s="98" t="s">
+      <c r="ARG3" s="85"/>
+      <c r="ARH3" s="85"/>
+      <c r="ARI3" s="85"/>
+      <c r="ARJ3" s="86"/>
+      <c r="ARK3" s="84" t="s">
         <v>266</v>
       </c>
-      <c r="ARL3" s="99"/>
-      <c r="ARM3" s="99"/>
-      <c r="ARN3" s="99"/>
-      <c r="ARO3" s="102"/>
-      <c r="ARP3" s="98" t="s">
+      <c r="ARL3" s="85"/>
+      <c r="ARM3" s="85"/>
+      <c r="ARN3" s="85"/>
+      <c r="ARO3" s="86"/>
+      <c r="ARP3" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="ARQ3" s="99"/>
-      <c r="ARR3" s="99"/>
-      <c r="ARS3" s="99"/>
-      <c r="ART3" s="102"/>
-      <c r="ARU3" s="98" t="s">
+      <c r="ARQ3" s="85"/>
+      <c r="ARR3" s="85"/>
+      <c r="ARS3" s="85"/>
+      <c r="ART3" s="86"/>
+      <c r="ARU3" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="ARV3" s="99"/>
-      <c r="ARW3" s="99"/>
-      <c r="ARX3" s="99"/>
-      <c r="ARY3" s="102"/>
-      <c r="ARZ3" s="98" t="s">
+      <c r="ARV3" s="85"/>
+      <c r="ARW3" s="85"/>
+      <c r="ARX3" s="85"/>
+      <c r="ARY3" s="86"/>
+      <c r="ARZ3" s="84" t="s">
         <v>269</v>
       </c>
-      <c r="ASA3" s="99"/>
-      <c r="ASB3" s="99"/>
-      <c r="ASC3" s="99"/>
-      <c r="ASD3" s="102"/>
-      <c r="ASE3" s="98" t="s">
+      <c r="ASA3" s="85"/>
+      <c r="ASB3" s="85"/>
+      <c r="ASC3" s="85"/>
+      <c r="ASD3" s="86"/>
+      <c r="ASE3" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="ASF3" s="99"/>
-      <c r="ASG3" s="99"/>
-      <c r="ASH3" s="99"/>
-      <c r="ASI3" s="102"/>
-      <c r="ASJ3" s="98" t="s">
+      <c r="ASF3" s="85"/>
+      <c r="ASG3" s="85"/>
+      <c r="ASH3" s="85"/>
+      <c r="ASI3" s="86"/>
+      <c r="ASJ3" s="84" t="s">
         <v>271</v>
       </c>
-      <c r="ASK3" s="99"/>
-      <c r="ASL3" s="99"/>
-      <c r="ASM3" s="99"/>
-      <c r="ASN3" s="99"/>
-      <c r="ASO3" s="102"/>
-      <c r="ASP3" s="98" t="s">
+      <c r="ASK3" s="85"/>
+      <c r="ASL3" s="85"/>
+      <c r="ASM3" s="85"/>
+      <c r="ASN3" s="85"/>
+      <c r="ASO3" s="86"/>
+      <c r="ASP3" s="84" t="s">
         <v>272</v>
       </c>
-      <c r="ASQ3" s="99"/>
-      <c r="ASR3" s="99"/>
-      <c r="ASS3" s="99"/>
-      <c r="AST3" s="99"/>
-      <c r="ASU3" s="102"/>
-      <c r="ASV3" s="98" t="s">
+      <c r="ASQ3" s="85"/>
+      <c r="ASR3" s="85"/>
+      <c r="ASS3" s="85"/>
+      <c r="AST3" s="85"/>
+      <c r="ASU3" s="86"/>
+      <c r="ASV3" s="84" t="s">
         <v>273</v>
       </c>
-      <c r="ASW3" s="99"/>
-      <c r="ASX3" s="99"/>
-      <c r="ASY3" s="99"/>
-      <c r="ASZ3" s="99"/>
-      <c r="ATA3" s="102"/>
-      <c r="ATB3" s="98" t="s">
+      <c r="ASW3" s="85"/>
+      <c r="ASX3" s="85"/>
+      <c r="ASY3" s="85"/>
+      <c r="ASZ3" s="85"/>
+      <c r="ATA3" s="86"/>
+      <c r="ATB3" s="84" t="s">
         <v>274</v>
       </c>
-      <c r="ATC3" s="99"/>
-      <c r="ATD3" s="99"/>
-      <c r="ATE3" s="99"/>
-      <c r="ATF3" s="99"/>
-      <c r="ATG3" s="100"/>
-      <c r="ATH3" s="98" t="s">
+      <c r="ATC3" s="85"/>
+      <c r="ATD3" s="85"/>
+      <c r="ATE3" s="85"/>
+      <c r="ATF3" s="85"/>
+      <c r="ATG3" s="96"/>
+      <c r="ATH3" s="84" t="s">
         <v>275</v>
       </c>
-      <c r="ATI3" s="99"/>
-      <c r="ATJ3" s="99"/>
-      <c r="ATK3" s="99"/>
-      <c r="ATL3" s="99"/>
-      <c r="ATM3" s="102"/>
-      <c r="ATN3" s="98" t="s">
+      <c r="ATI3" s="85"/>
+      <c r="ATJ3" s="85"/>
+      <c r="ATK3" s="85"/>
+      <c r="ATL3" s="85"/>
+      <c r="ATM3" s="86"/>
+      <c r="ATN3" s="84" t="s">
         <v>276</v>
       </c>
-      <c r="ATO3" s="99"/>
-      <c r="ATP3" s="99"/>
-      <c r="ATQ3" s="99"/>
-      <c r="ATR3" s="99"/>
-      <c r="ATS3" s="102"/>
-      <c r="ATT3" s="98" t="s">
+      <c r="ATO3" s="85"/>
+      <c r="ATP3" s="85"/>
+      <c r="ATQ3" s="85"/>
+      <c r="ATR3" s="85"/>
+      <c r="ATS3" s="86"/>
+      <c r="ATT3" s="84" t="s">
         <v>277</v>
       </c>
-      <c r="ATU3" s="99"/>
-      <c r="ATV3" s="99"/>
-      <c r="ATW3" s="99"/>
-      <c r="ATX3" s="99"/>
-      <c r="ATY3" s="102"/>
-      <c r="ATZ3" s="98" t="s">
+      <c r="ATU3" s="85"/>
+      <c r="ATV3" s="85"/>
+      <c r="ATW3" s="85"/>
+      <c r="ATX3" s="85"/>
+      <c r="ATY3" s="86"/>
+      <c r="ATZ3" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="AUA3" s="99"/>
-      <c r="AUB3" s="99"/>
-      <c r="AUC3" s="99"/>
-      <c r="AUD3" s="99"/>
-      <c r="AUE3" s="100"/>
-      <c r="AUF3" s="98" t="s">
+      <c r="AUA3" s="85"/>
+      <c r="AUB3" s="85"/>
+      <c r="AUC3" s="85"/>
+      <c r="AUD3" s="85"/>
+      <c r="AUE3" s="96"/>
+      <c r="AUF3" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="AUG3" s="99"/>
-      <c r="AUH3" s="99"/>
-      <c r="AUI3" s="99"/>
-      <c r="AUJ3" s="99"/>
-      <c r="AUK3" s="102"/>
-      <c r="AUL3" s="98" t="s">
+      <c r="AUG3" s="85"/>
+      <c r="AUH3" s="85"/>
+      <c r="AUI3" s="85"/>
+      <c r="AUJ3" s="85"/>
+      <c r="AUK3" s="86"/>
+      <c r="AUL3" s="84" t="s">
         <v>280</v>
       </c>
-      <c r="AUM3" s="99"/>
-      <c r="AUN3" s="99"/>
-      <c r="AUO3" s="99"/>
-      <c r="AUP3" s="99"/>
-      <c r="AUQ3" s="102"/>
-      <c r="AUR3" s="98" t="s">
+      <c r="AUM3" s="85"/>
+      <c r="AUN3" s="85"/>
+      <c r="AUO3" s="85"/>
+      <c r="AUP3" s="85"/>
+      <c r="AUQ3" s="86"/>
+      <c r="AUR3" s="84" t="s">
         <v>281</v>
       </c>
-      <c r="AUS3" s="99"/>
-      <c r="AUT3" s="99"/>
-      <c r="AUU3" s="99"/>
-      <c r="AUV3" s="99"/>
-      <c r="AUW3" s="102"/>
-      <c r="AUX3" s="98" t="s">
+      <c r="AUS3" s="85"/>
+      <c r="AUT3" s="85"/>
+      <c r="AUU3" s="85"/>
+      <c r="AUV3" s="85"/>
+      <c r="AUW3" s="86"/>
+      <c r="AUX3" s="84" t="s">
         <v>282</v>
       </c>
-      <c r="AUY3" s="99"/>
-      <c r="AUZ3" s="99"/>
-      <c r="AVA3" s="99"/>
-      <c r="AVB3" s="99"/>
-      <c r="AVC3" s="100"/>
-      <c r="AVD3" s="98" t="s">
+      <c r="AUY3" s="85"/>
+      <c r="AUZ3" s="85"/>
+      <c r="AVA3" s="85"/>
+      <c r="AVB3" s="85"/>
+      <c r="AVC3" s="96"/>
+      <c r="AVD3" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="AVE3" s="99"/>
-      <c r="AVF3" s="99"/>
-      <c r="AVG3" s="99"/>
-      <c r="AVH3" s="99"/>
-      <c r="AVI3" s="102"/>
-      <c r="AVJ3" s="98" t="s">
+      <c r="AVE3" s="85"/>
+      <c r="AVF3" s="85"/>
+      <c r="AVG3" s="85"/>
+      <c r="AVH3" s="85"/>
+      <c r="AVI3" s="86"/>
+      <c r="AVJ3" s="84" t="s">
         <v>284</v>
       </c>
-      <c r="AVK3" s="99"/>
-      <c r="AVL3" s="99"/>
-      <c r="AVM3" s="99"/>
-      <c r="AVN3" s="99"/>
-      <c r="AVO3" s="102"/>
-      <c r="AVP3" s="98" t="s">
+      <c r="AVK3" s="85"/>
+      <c r="AVL3" s="85"/>
+      <c r="AVM3" s="85"/>
+      <c r="AVN3" s="85"/>
+      <c r="AVO3" s="86"/>
+      <c r="AVP3" s="84" t="s">
         <v>285</v>
       </c>
-      <c r="AVQ3" s="99"/>
-      <c r="AVR3" s="99"/>
-      <c r="AVS3" s="99"/>
-      <c r="AVT3" s="99"/>
-      <c r="AVU3" s="102"/>
-      <c r="AVV3" s="98" t="s">
+      <c r="AVQ3" s="85"/>
+      <c r="AVR3" s="85"/>
+      <c r="AVS3" s="85"/>
+      <c r="AVT3" s="85"/>
+      <c r="AVU3" s="86"/>
+      <c r="AVV3" s="84" t="s">
         <v>286</v>
       </c>
-      <c r="AVW3" s="99"/>
-      <c r="AVX3" s="99"/>
-      <c r="AVY3" s="99"/>
-      <c r="AVZ3" s="99"/>
-      <c r="AWA3" s="100"/>
-      <c r="AWB3" s="98" t="s">
+      <c r="AVW3" s="85"/>
+      <c r="AVX3" s="85"/>
+      <c r="AVY3" s="85"/>
+      <c r="AVZ3" s="85"/>
+      <c r="AWA3" s="96"/>
+      <c r="AWB3" s="84" t="s">
         <v>287</v>
       </c>
-      <c r="AWC3" s="99"/>
-      <c r="AWD3" s="99"/>
-      <c r="AWE3" s="99"/>
-      <c r="AWF3" s="99"/>
-      <c r="AWG3" s="102"/>
-      <c r="AWH3" s="98" t="s">
+      <c r="AWC3" s="85"/>
+      <c r="AWD3" s="85"/>
+      <c r="AWE3" s="85"/>
+      <c r="AWF3" s="85"/>
+      <c r="AWG3" s="86"/>
+      <c r="AWH3" s="84" t="s">
         <v>288</v>
       </c>
-      <c r="AWI3" s="99"/>
-      <c r="AWJ3" s="99"/>
-      <c r="AWK3" s="99"/>
-      <c r="AWL3" s="99"/>
-      <c r="AWM3" s="102"/>
-      <c r="AWN3" s="98" t="s">
+      <c r="AWI3" s="85"/>
+      <c r="AWJ3" s="85"/>
+      <c r="AWK3" s="85"/>
+      <c r="AWL3" s="85"/>
+      <c r="AWM3" s="86"/>
+      <c r="AWN3" s="84" t="s">
         <v>289</v>
       </c>
-      <c r="AWO3" s="99"/>
-      <c r="AWP3" s="99"/>
-      <c r="AWQ3" s="99"/>
-      <c r="AWR3" s="99"/>
-      <c r="AWS3" s="102"/>
-      <c r="AWT3" s="98" t="s">
+      <c r="AWO3" s="85"/>
+      <c r="AWP3" s="85"/>
+      <c r="AWQ3" s="85"/>
+      <c r="AWR3" s="85"/>
+      <c r="AWS3" s="86"/>
+      <c r="AWT3" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="AWU3" s="99"/>
-      <c r="AWV3" s="99"/>
-      <c r="AWW3" s="99"/>
-      <c r="AWX3" s="99"/>
-      <c r="AWY3" s="100"/>
-      <c r="AWZ3" s="98" t="s">
+      <c r="AWU3" s="85"/>
+      <c r="AWV3" s="85"/>
+      <c r="AWW3" s="85"/>
+      <c r="AWX3" s="85"/>
+      <c r="AWY3" s="96"/>
+      <c r="AWZ3" s="84" t="s">
         <v>291</v>
       </c>
-      <c r="AXA3" s="99"/>
-      <c r="AXB3" s="99"/>
-      <c r="AXC3" s="99"/>
-      <c r="AXD3" s="99"/>
-      <c r="AXE3" s="102"/>
-      <c r="AXF3" s="98" t="s">
+      <c r="AXA3" s="85"/>
+      <c r="AXB3" s="85"/>
+      <c r="AXC3" s="85"/>
+      <c r="AXD3" s="85"/>
+      <c r="AXE3" s="86"/>
+      <c r="AXF3" s="84" t="s">
         <v>292</v>
       </c>
-      <c r="AXG3" s="99"/>
-      <c r="AXH3" s="99"/>
-      <c r="AXI3" s="99"/>
-      <c r="AXJ3" s="99"/>
-      <c r="AXK3" s="102"/>
-      <c r="AXL3" s="98" t="s">
+      <c r="AXG3" s="85"/>
+      <c r="AXH3" s="85"/>
+      <c r="AXI3" s="85"/>
+      <c r="AXJ3" s="85"/>
+      <c r="AXK3" s="86"/>
+      <c r="AXL3" s="84" t="s">
         <v>293</v>
       </c>
-      <c r="AXM3" s="99"/>
-      <c r="AXN3" s="99"/>
-      <c r="AXO3" s="99"/>
-      <c r="AXP3" s="99"/>
-      <c r="AXQ3" s="102"/>
-      <c r="AXR3" s="98" t="s">
+      <c r="AXM3" s="85"/>
+      <c r="AXN3" s="85"/>
+      <c r="AXO3" s="85"/>
+      <c r="AXP3" s="85"/>
+      <c r="AXQ3" s="86"/>
+      <c r="AXR3" s="84" t="s">
         <v>294</v>
       </c>
-      <c r="AXS3" s="99"/>
-      <c r="AXT3" s="99"/>
-      <c r="AXU3" s="99"/>
-      <c r="AXV3" s="99"/>
-      <c r="AXW3" s="99"/>
-      <c r="AXX3" s="98" t="s">
+      <c r="AXS3" s="85"/>
+      <c r="AXT3" s="85"/>
+      <c r="AXU3" s="85"/>
+      <c r="AXV3" s="85"/>
+      <c r="AXW3" s="85"/>
+      <c r="AXX3" s="84" t="s">
         <v>295</v>
       </c>
-      <c r="AXY3" s="99"/>
-      <c r="AXZ3" s="99"/>
-      <c r="AYA3" s="99"/>
-      <c r="AYB3" s="99"/>
-      <c r="AYC3" s="102"/>
-      <c r="AYD3" s="98" t="s">
+      <c r="AXY3" s="85"/>
+      <c r="AXZ3" s="85"/>
+      <c r="AYA3" s="85"/>
+      <c r="AYB3" s="85"/>
+      <c r="AYC3" s="86"/>
+      <c r="AYD3" s="84" t="s">
         <v>296</v>
       </c>
-      <c r="AYE3" s="99"/>
-      <c r="AYF3" s="99"/>
-      <c r="AYG3" s="99"/>
-      <c r="AYH3" s="99"/>
-      <c r="AYI3" s="102"/>
-      <c r="AYJ3" s="98" t="s">
+      <c r="AYE3" s="85"/>
+      <c r="AYF3" s="85"/>
+      <c r="AYG3" s="85"/>
+      <c r="AYH3" s="85"/>
+      <c r="AYI3" s="86"/>
+      <c r="AYJ3" s="84" t="s">
         <v>297</v>
       </c>
-      <c r="AYK3" s="99"/>
-      <c r="AYL3" s="99"/>
-      <c r="AYM3" s="99"/>
-      <c r="AYN3" s="99"/>
-      <c r="AYO3" s="102"/>
-      <c r="AYP3" s="98" t="s">
+      <c r="AYK3" s="85"/>
+      <c r="AYL3" s="85"/>
+      <c r="AYM3" s="85"/>
+      <c r="AYN3" s="85"/>
+      <c r="AYO3" s="86"/>
+      <c r="AYP3" s="84" t="s">
         <v>298</v>
       </c>
-      <c r="AYQ3" s="99"/>
-      <c r="AYR3" s="99"/>
-      <c r="AYS3" s="99"/>
-      <c r="AYT3" s="99"/>
-      <c r="AYU3" s="99"/>
-      <c r="AYV3" s="98" t="s">
+      <c r="AYQ3" s="85"/>
+      <c r="AYR3" s="85"/>
+      <c r="AYS3" s="85"/>
+      <c r="AYT3" s="85"/>
+      <c r="AYU3" s="85"/>
+      <c r="AYV3" s="84" t="s">
         <v>299</v>
       </c>
-      <c r="AYW3" s="99"/>
-      <c r="AYX3" s="99"/>
-      <c r="AYY3" s="99"/>
-      <c r="AYZ3" s="99"/>
-      <c r="AZA3" s="102"/>
-      <c r="AZB3" s="98" t="s">
+      <c r="AYW3" s="85"/>
+      <c r="AYX3" s="85"/>
+      <c r="AYY3" s="85"/>
+      <c r="AYZ3" s="85"/>
+      <c r="AZA3" s="86"/>
+      <c r="AZB3" s="84" t="s">
         <v>300</v>
       </c>
-      <c r="AZC3" s="99"/>
-      <c r="AZD3" s="99"/>
-      <c r="AZE3" s="99"/>
-      <c r="AZF3" s="99"/>
-      <c r="AZG3" s="102"/>
-      <c r="AZH3" s="98" t="s">
+      <c r="AZC3" s="85"/>
+      <c r="AZD3" s="85"/>
+      <c r="AZE3" s="85"/>
+      <c r="AZF3" s="85"/>
+      <c r="AZG3" s="86"/>
+      <c r="AZH3" s="84" t="s">
         <v>301</v>
       </c>
-      <c r="AZI3" s="99"/>
-      <c r="AZJ3" s="99"/>
-      <c r="AZK3" s="99"/>
-      <c r="AZL3" s="99"/>
-      <c r="AZM3" s="102"/>
-      <c r="AZN3" s="98" t="s">
+      <c r="AZI3" s="85"/>
+      <c r="AZJ3" s="85"/>
+      <c r="AZK3" s="85"/>
+      <c r="AZL3" s="85"/>
+      <c r="AZM3" s="86"/>
+      <c r="AZN3" s="84" t="s">
         <v>302</v>
       </c>
-      <c r="AZO3" s="99"/>
-      <c r="AZP3" s="99"/>
-      <c r="AZQ3" s="99"/>
-      <c r="AZR3" s="99"/>
-      <c r="AZS3" s="99"/>
-      <c r="AZT3" s="98" t="s">
+      <c r="AZO3" s="85"/>
+      <c r="AZP3" s="85"/>
+      <c r="AZQ3" s="85"/>
+      <c r="AZR3" s="85"/>
+      <c r="AZS3" s="85"/>
+      <c r="AZT3" s="84" t="s">
         <v>303</v>
       </c>
-      <c r="AZU3" s="99"/>
-      <c r="AZV3" s="99"/>
-      <c r="AZW3" s="99"/>
-      <c r="AZX3" s="99"/>
-      <c r="AZY3" s="102"/>
-      <c r="AZZ3" s="98" t="s">
+      <c r="AZU3" s="85"/>
+      <c r="AZV3" s="85"/>
+      <c r="AZW3" s="85"/>
+      <c r="AZX3" s="85"/>
+      <c r="AZY3" s="86"/>
+      <c r="AZZ3" s="84" t="s">
         <v>304</v>
       </c>
-      <c r="BAA3" s="99"/>
-      <c r="BAB3" s="99"/>
-      <c r="BAC3" s="99"/>
-      <c r="BAD3" s="99"/>
-      <c r="BAE3" s="102"/>
-      <c r="BAF3" s="98" t="s">
+      <c r="BAA3" s="85"/>
+      <c r="BAB3" s="85"/>
+      <c r="BAC3" s="85"/>
+      <c r="BAD3" s="85"/>
+      <c r="BAE3" s="86"/>
+      <c r="BAF3" s="84" t="s">
         <v>305</v>
       </c>
-      <c r="BAG3" s="99"/>
-      <c r="BAH3" s="99"/>
-      <c r="BAI3" s="99"/>
-      <c r="BAJ3" s="99"/>
-      <c r="BAK3" s="102"/>
-      <c r="BAL3" s="98" t="s">
+      <c r="BAG3" s="85"/>
+      <c r="BAH3" s="85"/>
+      <c r="BAI3" s="85"/>
+      <c r="BAJ3" s="85"/>
+      <c r="BAK3" s="86"/>
+      <c r="BAL3" s="84" t="s">
         <v>306</v>
       </c>
-      <c r="BAM3" s="99"/>
-      <c r="BAN3" s="99"/>
-      <c r="BAO3" s="99"/>
-      <c r="BAP3" s="99"/>
-      <c r="BAQ3" s="99"/>
-      <c r="BAR3" s="98" t="s">
+      <c r="BAM3" s="85"/>
+      <c r="BAN3" s="85"/>
+      <c r="BAO3" s="85"/>
+      <c r="BAP3" s="85"/>
+      <c r="BAQ3" s="85"/>
+      <c r="BAR3" s="84" t="s">
         <v>307</v>
       </c>
-      <c r="BAS3" s="99"/>
-      <c r="BAT3" s="99"/>
-      <c r="BAU3" s="99"/>
-      <c r="BAV3" s="99"/>
-      <c r="BAW3" s="102"/>
-      <c r="BAX3" s="98" t="s">
+      <c r="BAS3" s="85"/>
+      <c r="BAT3" s="85"/>
+      <c r="BAU3" s="85"/>
+      <c r="BAV3" s="85"/>
+      <c r="BAW3" s="86"/>
+      <c r="BAX3" s="84" t="s">
         <v>308</v>
       </c>
-      <c r="BAY3" s="99"/>
-      <c r="BAZ3" s="99"/>
-      <c r="BBA3" s="99"/>
-      <c r="BBB3" s="99"/>
-      <c r="BBC3" s="102"/>
-      <c r="BBD3" s="98" t="s">
+      <c r="BAY3" s="85"/>
+      <c r="BAZ3" s="85"/>
+      <c r="BBA3" s="85"/>
+      <c r="BBB3" s="85"/>
+      <c r="BBC3" s="86"/>
+      <c r="BBD3" s="84" t="s">
         <v>309</v>
       </c>
-      <c r="BBE3" s="99"/>
-      <c r="BBF3" s="99"/>
-      <c r="BBG3" s="99"/>
-      <c r="BBH3" s="99"/>
-      <c r="BBI3" s="102"/>
-      <c r="BBJ3" s="98" t="s">
+      <c r="BBE3" s="85"/>
+      <c r="BBF3" s="85"/>
+      <c r="BBG3" s="85"/>
+      <c r="BBH3" s="85"/>
+      <c r="BBI3" s="86"/>
+      <c r="BBJ3" s="84" t="s">
         <v>310</v>
       </c>
-      <c r="BBK3" s="99"/>
-      <c r="BBL3" s="99"/>
-      <c r="BBM3" s="99"/>
-      <c r="BBN3" s="99"/>
-      <c r="BBO3" s="99"/>
+      <c r="BBK3" s="85"/>
+      <c r="BBL3" s="85"/>
+      <c r="BBM3" s="85"/>
+      <c r="BBN3" s="85"/>
+      <c r="BBO3" s="85"/>
       <c r="BBP3" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="BBQ3" s="109" t="s">
+      <c r="BBQ3" s="87" t="s">
         <v>312</v>
       </c>
-      <c r="BBR3" s="79"/>
-      <c r="BBS3" s="79"/>
-      <c r="BBT3" s="79"/>
-      <c r="BBU3" s="80"/>
+      <c r="BBR3" s="88"/>
+      <c r="BBS3" s="88"/>
+      <c r="BBT3" s="88"/>
+      <c r="BBU3" s="89"/>
       <c r="BBV3" s="21" t="s">
         <v>313</v>
       </c>
       <c r="BBW3" s="23" t="s">
         <v>314</v>
       </c>
+      <c r="BBX3" s="92" t="s">
+        <v>326</v>
+      </c>
+      <c r="BBY3" s="92" t="s">
+        <v>325</v>
+      </c>
+      <c r="BBZ3" s="92" t="s">
+        <v>323</v>
+      </c>
+      <c r="BCA3" s="92" t="s">
+        <v>324</v>
+      </c>
     </row>
-    <row r="4" spans="1:1427" s="3" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A4" s="111"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="115"/>
+    <row r="4" spans="1:1431" s="3" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="95"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -11835,8 +11863,12 @@
       </c>
       <c r="BBV4" s="42"/>
       <c r="BBW4" s="23"/>
+      <c r="BBX4" s="93"/>
+      <c r="BBY4" s="93"/>
+      <c r="BBZ4" s="93"/>
+      <c r="BCA4" s="93"/>
     </row>
-    <row r="5" spans="1:1427" ht="16.2">
+    <row r="5" spans="1:1431" ht="16.2">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -11854,39 +11886,283 @@
         <v>322</v>
       </c>
     </row>
-    <row r="6" spans="1:1427">
+    <row r="6" spans="1:1431">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:1427" ht="15" customHeight="1">
+    <row r="7" spans="1:1431" ht="15" customHeight="1">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:1427">
+    <row r="8" spans="1:1431">
       <c r="A8" s="7"/>
     </row>
-    <row r="9" spans="1:1427">
+    <row r="9" spans="1:1431">
       <c r="A9" s="5"/>
       <c r="FF9" s="32"/>
     </row>
-    <row r="10" spans="1:1427">
+    <row r="10" spans="1:1431">
       <c r="A10" s="7"/>
     </row>
-    <row r="11" spans="1:1427">
+    <row r="11" spans="1:1431">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:1427" ht="15" customHeight="1">
+    <row r="12" spans="1:1431" ht="15" customHeight="1">
       <c r="A12" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="284">
-    <mergeCell ref="I1:P2"/>
-    <mergeCell ref="AAW1:AAZ2"/>
-    <mergeCell ref="AOJ1:AOM2"/>
-    <mergeCell ref="AAL1:AAU2"/>
-    <mergeCell ref="MP1:NI2"/>
-    <mergeCell ref="ABA1:ACD2"/>
-    <mergeCell ref="ACE1:ACN2"/>
-    <mergeCell ref="AOD1:AOH2"/>
-    <mergeCell ref="AON1:APQ2"/>
+  <mergeCells count="288">
+    <mergeCell ref="BBX3:BBX4"/>
+    <mergeCell ref="BBY3:BBY4"/>
+    <mergeCell ref="BBZ3:BBZ4"/>
+    <mergeCell ref="BCA3:BCA4"/>
+    <mergeCell ref="AQB1:BBO1"/>
+    <mergeCell ref="NJ2:OC2"/>
+    <mergeCell ref="OD2:OW2"/>
+    <mergeCell ref="OX2:PQ2"/>
+    <mergeCell ref="PR2:QK2"/>
+    <mergeCell ref="QL2:RE2"/>
+    <mergeCell ref="RF2:AAK2"/>
+    <mergeCell ref="ACO2:ADH2"/>
+    <mergeCell ref="ADI2:AEB2"/>
+    <mergeCell ref="AEC2:AEV2"/>
+    <mergeCell ref="AEW2:AOB2"/>
+    <mergeCell ref="AQB2:AQU2"/>
+    <mergeCell ref="AQV2:ARO2"/>
+    <mergeCell ref="ARP2:ASI2"/>
+    <mergeCell ref="ASJ2:BBO2"/>
+    <mergeCell ref="AAV1:AAV2"/>
+    <mergeCell ref="AOC1:AOC2"/>
+    <mergeCell ref="AOI1:AOI2"/>
+    <mergeCell ref="APR1:AQA2"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AJ3"/>
+    <mergeCell ref="AL3:AQ3"/>
+    <mergeCell ref="AR3:AW3"/>
+    <mergeCell ref="AX3:BC3"/>
+    <mergeCell ref="BD3:BI3"/>
+    <mergeCell ref="BJ3:BO3"/>
+    <mergeCell ref="BP3:BU3"/>
+    <mergeCell ref="BV3:CA3"/>
+    <mergeCell ref="CB3:CG3"/>
+    <mergeCell ref="CH3:CM3"/>
+    <mergeCell ref="CN3:CS3"/>
+    <mergeCell ref="CU3:CZ3"/>
+    <mergeCell ref="DA3:DF3"/>
+    <mergeCell ref="DG3:DL3"/>
+    <mergeCell ref="DM3:DR3"/>
+    <mergeCell ref="DS3:DX3"/>
+    <mergeCell ref="DY3:ED3"/>
+    <mergeCell ref="EE3:EJ3"/>
+    <mergeCell ref="EK3:EP3"/>
+    <mergeCell ref="EQ3:EV3"/>
+    <mergeCell ref="EW3:FB3"/>
+    <mergeCell ref="FE3:FI3"/>
+    <mergeCell ref="FJ3:FN3"/>
+    <mergeCell ref="FO3:FS3"/>
+    <mergeCell ref="FT3:FX3"/>
+    <mergeCell ref="FY3:GC3"/>
+    <mergeCell ref="GD3:GH3"/>
+    <mergeCell ref="GI3:GM3"/>
+    <mergeCell ref="GN3:GR3"/>
+    <mergeCell ref="GS3:GW3"/>
+    <mergeCell ref="GY3:HD3"/>
+    <mergeCell ref="HE3:HJ3"/>
+    <mergeCell ref="HK3:HP3"/>
+    <mergeCell ref="HQ3:HV3"/>
+    <mergeCell ref="HW3:IB3"/>
+    <mergeCell ref="IC3:IH3"/>
+    <mergeCell ref="II3:IN3"/>
+    <mergeCell ref="IO3:IT3"/>
+    <mergeCell ref="IU3:IZ3"/>
+    <mergeCell ref="JA3:JF3"/>
+    <mergeCell ref="JH3:JM3"/>
+    <mergeCell ref="JN3:JS3"/>
+    <mergeCell ref="JT3:JY3"/>
+    <mergeCell ref="JZ3:KE3"/>
+    <mergeCell ref="KF3:KK3"/>
+    <mergeCell ref="KL3:KQ3"/>
+    <mergeCell ref="KR3:KW3"/>
+    <mergeCell ref="KX3:LC3"/>
+    <mergeCell ref="LD3:LI3"/>
+    <mergeCell ref="LJ3:LO3"/>
+    <mergeCell ref="LQ3:LU3"/>
+    <mergeCell ref="LV3:LZ3"/>
+    <mergeCell ref="MA3:ME3"/>
+    <mergeCell ref="MF3:MJ3"/>
+    <mergeCell ref="MK3:MO3"/>
+    <mergeCell ref="MP3:MT3"/>
+    <mergeCell ref="MU3:MY3"/>
+    <mergeCell ref="MZ3:ND3"/>
+    <mergeCell ref="NE3:NI3"/>
+    <mergeCell ref="NJ3:NN3"/>
+    <mergeCell ref="NO3:NS3"/>
+    <mergeCell ref="NT3:NX3"/>
+    <mergeCell ref="NY3:OC3"/>
+    <mergeCell ref="OD3:OH3"/>
+    <mergeCell ref="OI3:OM3"/>
+    <mergeCell ref="ON3:OR3"/>
+    <mergeCell ref="OS3:OW3"/>
+    <mergeCell ref="OX3:PB3"/>
+    <mergeCell ref="PC3:PG3"/>
+    <mergeCell ref="PH3:PL3"/>
+    <mergeCell ref="PM3:PQ3"/>
+    <mergeCell ref="PR3:PV3"/>
+    <mergeCell ref="PW3:QA3"/>
+    <mergeCell ref="QB3:QF3"/>
+    <mergeCell ref="QG3:QK3"/>
+    <mergeCell ref="QL3:QP3"/>
+    <mergeCell ref="QQ3:QU3"/>
+    <mergeCell ref="QV3:QZ3"/>
+    <mergeCell ref="RA3:RE3"/>
+    <mergeCell ref="RF3:RK3"/>
+    <mergeCell ref="RL3:RQ3"/>
+    <mergeCell ref="RR3:RW3"/>
+    <mergeCell ref="RX3:SC3"/>
+    <mergeCell ref="SD3:SI3"/>
+    <mergeCell ref="SJ3:SO3"/>
+    <mergeCell ref="SP3:SU3"/>
+    <mergeCell ref="SV3:TA3"/>
+    <mergeCell ref="TB3:TG3"/>
+    <mergeCell ref="TH3:TM3"/>
+    <mergeCell ref="TN3:TS3"/>
+    <mergeCell ref="TT3:TY3"/>
+    <mergeCell ref="TZ3:UE3"/>
+    <mergeCell ref="UF3:UK3"/>
+    <mergeCell ref="UL3:UQ3"/>
+    <mergeCell ref="UR3:UW3"/>
+    <mergeCell ref="UX3:VC3"/>
+    <mergeCell ref="VD3:VI3"/>
+    <mergeCell ref="VJ3:VO3"/>
+    <mergeCell ref="VP3:VU3"/>
+    <mergeCell ref="VV3:WA3"/>
+    <mergeCell ref="WB3:WG3"/>
+    <mergeCell ref="WH3:WM3"/>
+    <mergeCell ref="WN3:WS3"/>
+    <mergeCell ref="WT3:WY3"/>
+    <mergeCell ref="WZ3:XE3"/>
+    <mergeCell ref="XF3:XK3"/>
+    <mergeCell ref="XL3:XQ3"/>
+    <mergeCell ref="XR3:XW3"/>
+    <mergeCell ref="XX3:YC3"/>
+    <mergeCell ref="YD3:YI3"/>
+    <mergeCell ref="YJ3:YO3"/>
+    <mergeCell ref="YP3:YU3"/>
+    <mergeCell ref="YV3:ZA3"/>
+    <mergeCell ref="ZB3:ZG3"/>
+    <mergeCell ref="ZH3:ZM3"/>
+    <mergeCell ref="ZN3:ZS3"/>
+    <mergeCell ref="ZT3:ZY3"/>
+    <mergeCell ref="ZZ3:AAE3"/>
+    <mergeCell ref="AAF3:AAK3"/>
+    <mergeCell ref="AAL3:AAP3"/>
+    <mergeCell ref="AAQ3:AAU3"/>
+    <mergeCell ref="ABA3:ABE3"/>
+    <mergeCell ref="ABF3:ABJ3"/>
+    <mergeCell ref="ABK3:ABO3"/>
+    <mergeCell ref="ABP3:ABT3"/>
+    <mergeCell ref="ABU3:ABY3"/>
+    <mergeCell ref="ABZ3:ACD3"/>
+    <mergeCell ref="ACE3:ACI3"/>
+    <mergeCell ref="ACJ3:ACN3"/>
+    <mergeCell ref="ACO3:ACS3"/>
+    <mergeCell ref="ACT3:ACX3"/>
+    <mergeCell ref="ACY3:ADC3"/>
+    <mergeCell ref="ADD3:ADH3"/>
+    <mergeCell ref="ADI3:ADM3"/>
+    <mergeCell ref="ADN3:ADR3"/>
+    <mergeCell ref="ADS3:ADW3"/>
+    <mergeCell ref="ADX3:AEB3"/>
+    <mergeCell ref="AEC3:AEG3"/>
+    <mergeCell ref="AEH3:AEL3"/>
+    <mergeCell ref="AEM3:AEQ3"/>
+    <mergeCell ref="AER3:AEV3"/>
+    <mergeCell ref="AEW3:AFB3"/>
+    <mergeCell ref="AFC3:AFH3"/>
+    <mergeCell ref="AFI3:AFN3"/>
+    <mergeCell ref="AFO3:AFT3"/>
+    <mergeCell ref="AFU3:AFZ3"/>
+    <mergeCell ref="AGA3:AGF3"/>
+    <mergeCell ref="AGG3:AGL3"/>
+    <mergeCell ref="AGM3:AGR3"/>
+    <mergeCell ref="AGS3:AGX3"/>
+    <mergeCell ref="AGY3:AHD3"/>
+    <mergeCell ref="AHE3:AHJ3"/>
+    <mergeCell ref="AHK3:AHP3"/>
+    <mergeCell ref="AHQ3:AHV3"/>
+    <mergeCell ref="AHW3:AIB3"/>
+    <mergeCell ref="AIC3:AIH3"/>
+    <mergeCell ref="AII3:AIN3"/>
+    <mergeCell ref="AIO3:AIT3"/>
+    <mergeCell ref="AIU3:AIZ3"/>
+    <mergeCell ref="AJA3:AJF3"/>
+    <mergeCell ref="AJG3:AJL3"/>
+    <mergeCell ref="AJM3:AJR3"/>
+    <mergeCell ref="AJS3:AJX3"/>
+    <mergeCell ref="AJY3:AKD3"/>
+    <mergeCell ref="AKE3:AKJ3"/>
+    <mergeCell ref="AKK3:AKP3"/>
+    <mergeCell ref="AKQ3:AKV3"/>
+    <mergeCell ref="AKW3:ALB3"/>
+    <mergeCell ref="ALC3:ALH3"/>
+    <mergeCell ref="ALI3:ALN3"/>
+    <mergeCell ref="ALO3:ALT3"/>
+    <mergeCell ref="ALU3:ALZ3"/>
+    <mergeCell ref="AMA3:AMF3"/>
+    <mergeCell ref="AMG3:AML3"/>
+    <mergeCell ref="AMM3:AMR3"/>
+    <mergeCell ref="AMS3:AMX3"/>
+    <mergeCell ref="AMY3:AND3"/>
+    <mergeCell ref="ANE3:ANJ3"/>
+    <mergeCell ref="ANK3:ANP3"/>
+    <mergeCell ref="ANQ3:ANV3"/>
+    <mergeCell ref="ANW3:AOB3"/>
+    <mergeCell ref="AOD3:AOH3"/>
+    <mergeCell ref="AON3:AOR3"/>
+    <mergeCell ref="AOS3:AOW3"/>
+    <mergeCell ref="AOX3:APB3"/>
+    <mergeCell ref="APC3:APG3"/>
+    <mergeCell ref="APH3:APL3"/>
+    <mergeCell ref="APM3:APQ3"/>
+    <mergeCell ref="APR3:APV3"/>
+    <mergeCell ref="APW3:AQA3"/>
+    <mergeCell ref="AQB3:AQF3"/>
+    <mergeCell ref="AQG3:AQK3"/>
+    <mergeCell ref="AQL3:AQP3"/>
+    <mergeCell ref="AQQ3:AQU3"/>
+    <mergeCell ref="AQV3:AQZ3"/>
+    <mergeCell ref="ARA3:ARE3"/>
+    <mergeCell ref="ARF3:ARJ3"/>
+    <mergeCell ref="ARK3:ARO3"/>
+    <mergeCell ref="ARP3:ART3"/>
+    <mergeCell ref="ARU3:ARY3"/>
+    <mergeCell ref="ARZ3:ASD3"/>
+    <mergeCell ref="ASE3:ASI3"/>
+    <mergeCell ref="ASJ3:ASO3"/>
+    <mergeCell ref="ASP3:ASU3"/>
+    <mergeCell ref="ASV3:ATA3"/>
+    <mergeCell ref="ATB3:ATG3"/>
+    <mergeCell ref="ATH3:ATM3"/>
+    <mergeCell ref="ATN3:ATS3"/>
+    <mergeCell ref="ATT3:ATY3"/>
+    <mergeCell ref="ATZ3:AUE3"/>
+    <mergeCell ref="AUF3:AUK3"/>
+    <mergeCell ref="AUL3:AUQ3"/>
+    <mergeCell ref="AUR3:AUW3"/>
+    <mergeCell ref="AXX3:AYC3"/>
+    <mergeCell ref="AYD3:AYI3"/>
+    <mergeCell ref="AYJ3:AYO3"/>
+    <mergeCell ref="AYP3:AYU3"/>
+    <mergeCell ref="AYV3:AZA3"/>
+    <mergeCell ref="AUX3:AVC3"/>
+    <mergeCell ref="AVD3:AVI3"/>
+    <mergeCell ref="AVJ3:AVO3"/>
+    <mergeCell ref="AVP3:AVU3"/>
+    <mergeCell ref="AVV3:AWA3"/>
+    <mergeCell ref="AWB3:AWG3"/>
+    <mergeCell ref="AWH3:AWM3"/>
+    <mergeCell ref="AWN3:AWS3"/>
+    <mergeCell ref="AWT3:AWY3"/>
     <mergeCell ref="BBD3:BBI3"/>
     <mergeCell ref="BBJ3:BBO3"/>
     <mergeCell ref="BBQ3:BBU3"/>
@@ -11911,257 +12187,17 @@
     <mergeCell ref="AXF3:AXK3"/>
     <mergeCell ref="AXL3:AXQ3"/>
     <mergeCell ref="AXR3:AXW3"/>
-    <mergeCell ref="AXX3:AYC3"/>
-    <mergeCell ref="AYD3:AYI3"/>
-    <mergeCell ref="AYJ3:AYO3"/>
-    <mergeCell ref="AYP3:AYU3"/>
-    <mergeCell ref="AYV3:AZA3"/>
-    <mergeCell ref="AUX3:AVC3"/>
-    <mergeCell ref="AVD3:AVI3"/>
-    <mergeCell ref="AVJ3:AVO3"/>
-    <mergeCell ref="AVP3:AVU3"/>
-    <mergeCell ref="AVV3:AWA3"/>
-    <mergeCell ref="AWB3:AWG3"/>
-    <mergeCell ref="AWH3:AWM3"/>
-    <mergeCell ref="AWN3:AWS3"/>
-    <mergeCell ref="AWT3:AWY3"/>
-    <mergeCell ref="ASV3:ATA3"/>
-    <mergeCell ref="ATB3:ATG3"/>
-    <mergeCell ref="ATH3:ATM3"/>
-    <mergeCell ref="ATN3:ATS3"/>
-    <mergeCell ref="ATT3:ATY3"/>
-    <mergeCell ref="ATZ3:AUE3"/>
-    <mergeCell ref="AUF3:AUK3"/>
-    <mergeCell ref="AUL3:AUQ3"/>
-    <mergeCell ref="AUR3:AUW3"/>
-    <mergeCell ref="ARA3:ARE3"/>
-    <mergeCell ref="ARF3:ARJ3"/>
-    <mergeCell ref="ARK3:ARO3"/>
-    <mergeCell ref="ARP3:ART3"/>
-    <mergeCell ref="ARU3:ARY3"/>
-    <mergeCell ref="ARZ3:ASD3"/>
-    <mergeCell ref="ASE3:ASI3"/>
-    <mergeCell ref="ASJ3:ASO3"/>
-    <mergeCell ref="ASP3:ASU3"/>
-    <mergeCell ref="APH3:APL3"/>
-    <mergeCell ref="APM3:APQ3"/>
-    <mergeCell ref="APR3:APV3"/>
-    <mergeCell ref="APW3:AQA3"/>
-    <mergeCell ref="AQB3:AQF3"/>
-    <mergeCell ref="AQG3:AQK3"/>
-    <mergeCell ref="AQL3:AQP3"/>
-    <mergeCell ref="AQQ3:AQU3"/>
-    <mergeCell ref="AQV3:AQZ3"/>
-    <mergeCell ref="ANE3:ANJ3"/>
-    <mergeCell ref="ANK3:ANP3"/>
-    <mergeCell ref="ANQ3:ANV3"/>
-    <mergeCell ref="ANW3:AOB3"/>
-    <mergeCell ref="AOD3:AOH3"/>
-    <mergeCell ref="AON3:AOR3"/>
-    <mergeCell ref="AOS3:AOW3"/>
-    <mergeCell ref="AOX3:APB3"/>
-    <mergeCell ref="APC3:APG3"/>
-    <mergeCell ref="ALC3:ALH3"/>
-    <mergeCell ref="ALI3:ALN3"/>
-    <mergeCell ref="ALO3:ALT3"/>
-    <mergeCell ref="ALU3:ALZ3"/>
-    <mergeCell ref="AMA3:AMF3"/>
-    <mergeCell ref="AMG3:AML3"/>
-    <mergeCell ref="AMM3:AMR3"/>
-    <mergeCell ref="AMS3:AMX3"/>
-    <mergeCell ref="AMY3:AND3"/>
-    <mergeCell ref="AJA3:AJF3"/>
-    <mergeCell ref="AJG3:AJL3"/>
-    <mergeCell ref="AJM3:AJR3"/>
-    <mergeCell ref="AJS3:AJX3"/>
-    <mergeCell ref="AJY3:AKD3"/>
-    <mergeCell ref="AKE3:AKJ3"/>
-    <mergeCell ref="AKK3:AKP3"/>
-    <mergeCell ref="AKQ3:AKV3"/>
-    <mergeCell ref="AKW3:ALB3"/>
-    <mergeCell ref="AGY3:AHD3"/>
-    <mergeCell ref="AHE3:AHJ3"/>
-    <mergeCell ref="AHK3:AHP3"/>
-    <mergeCell ref="AHQ3:AHV3"/>
-    <mergeCell ref="AHW3:AIB3"/>
-    <mergeCell ref="AIC3:AIH3"/>
-    <mergeCell ref="AII3:AIN3"/>
-    <mergeCell ref="AIO3:AIT3"/>
-    <mergeCell ref="AIU3:AIZ3"/>
-    <mergeCell ref="AEW3:AFB3"/>
-    <mergeCell ref="AFC3:AFH3"/>
-    <mergeCell ref="AFI3:AFN3"/>
-    <mergeCell ref="AFO3:AFT3"/>
-    <mergeCell ref="AFU3:AFZ3"/>
-    <mergeCell ref="AGA3:AGF3"/>
-    <mergeCell ref="AGG3:AGL3"/>
-    <mergeCell ref="AGM3:AGR3"/>
-    <mergeCell ref="AGS3:AGX3"/>
-    <mergeCell ref="ADD3:ADH3"/>
-    <mergeCell ref="ADI3:ADM3"/>
-    <mergeCell ref="ADN3:ADR3"/>
-    <mergeCell ref="ADS3:ADW3"/>
-    <mergeCell ref="ADX3:AEB3"/>
-    <mergeCell ref="AEC3:AEG3"/>
-    <mergeCell ref="AEH3:AEL3"/>
-    <mergeCell ref="AEM3:AEQ3"/>
-    <mergeCell ref="AER3:AEV3"/>
-    <mergeCell ref="ABK3:ABO3"/>
-    <mergeCell ref="ABP3:ABT3"/>
-    <mergeCell ref="ABU3:ABY3"/>
-    <mergeCell ref="ABZ3:ACD3"/>
-    <mergeCell ref="ACE3:ACI3"/>
-    <mergeCell ref="ACJ3:ACN3"/>
-    <mergeCell ref="ACO3:ACS3"/>
-    <mergeCell ref="ACT3:ACX3"/>
-    <mergeCell ref="ACY3:ADC3"/>
-    <mergeCell ref="ZH3:ZM3"/>
-    <mergeCell ref="ZN3:ZS3"/>
-    <mergeCell ref="ZT3:ZY3"/>
-    <mergeCell ref="ZZ3:AAE3"/>
-    <mergeCell ref="AAF3:AAK3"/>
-    <mergeCell ref="AAL3:AAP3"/>
-    <mergeCell ref="AAQ3:AAU3"/>
-    <mergeCell ref="ABA3:ABE3"/>
-    <mergeCell ref="ABF3:ABJ3"/>
-    <mergeCell ref="XF3:XK3"/>
-    <mergeCell ref="XL3:XQ3"/>
-    <mergeCell ref="XR3:XW3"/>
-    <mergeCell ref="XX3:YC3"/>
-    <mergeCell ref="YD3:YI3"/>
-    <mergeCell ref="YJ3:YO3"/>
-    <mergeCell ref="YP3:YU3"/>
-    <mergeCell ref="YV3:ZA3"/>
-    <mergeCell ref="ZB3:ZG3"/>
-    <mergeCell ref="VD3:VI3"/>
-    <mergeCell ref="VJ3:VO3"/>
-    <mergeCell ref="VP3:VU3"/>
-    <mergeCell ref="VV3:WA3"/>
-    <mergeCell ref="WB3:WG3"/>
-    <mergeCell ref="WH3:WM3"/>
-    <mergeCell ref="WN3:WS3"/>
-    <mergeCell ref="WT3:WY3"/>
-    <mergeCell ref="WZ3:XE3"/>
-    <mergeCell ref="TB3:TG3"/>
-    <mergeCell ref="TH3:TM3"/>
-    <mergeCell ref="TN3:TS3"/>
-    <mergeCell ref="TT3:TY3"/>
-    <mergeCell ref="TZ3:UE3"/>
-    <mergeCell ref="UF3:UK3"/>
-    <mergeCell ref="UL3:UQ3"/>
-    <mergeCell ref="UR3:UW3"/>
-    <mergeCell ref="UX3:VC3"/>
-    <mergeCell ref="RA3:RE3"/>
-    <mergeCell ref="RF3:RK3"/>
-    <mergeCell ref="RL3:RQ3"/>
-    <mergeCell ref="RR3:RW3"/>
-    <mergeCell ref="RX3:SC3"/>
-    <mergeCell ref="SD3:SI3"/>
-    <mergeCell ref="SJ3:SO3"/>
-    <mergeCell ref="SP3:SU3"/>
-    <mergeCell ref="SV3:TA3"/>
-    <mergeCell ref="PH3:PL3"/>
-    <mergeCell ref="PM3:PQ3"/>
-    <mergeCell ref="PR3:PV3"/>
-    <mergeCell ref="PW3:QA3"/>
-    <mergeCell ref="QB3:QF3"/>
-    <mergeCell ref="QG3:QK3"/>
-    <mergeCell ref="QL3:QP3"/>
-    <mergeCell ref="QQ3:QU3"/>
-    <mergeCell ref="QV3:QZ3"/>
-    <mergeCell ref="NO3:NS3"/>
-    <mergeCell ref="NT3:NX3"/>
-    <mergeCell ref="NY3:OC3"/>
-    <mergeCell ref="OD3:OH3"/>
-    <mergeCell ref="OI3:OM3"/>
-    <mergeCell ref="ON3:OR3"/>
-    <mergeCell ref="OS3:OW3"/>
-    <mergeCell ref="OX3:PB3"/>
-    <mergeCell ref="PC3:PG3"/>
-    <mergeCell ref="LV3:LZ3"/>
-    <mergeCell ref="MA3:ME3"/>
-    <mergeCell ref="MF3:MJ3"/>
-    <mergeCell ref="MK3:MO3"/>
-    <mergeCell ref="MP3:MT3"/>
-    <mergeCell ref="MU3:MY3"/>
-    <mergeCell ref="MZ3:ND3"/>
-    <mergeCell ref="NE3:NI3"/>
-    <mergeCell ref="NJ3:NN3"/>
-    <mergeCell ref="JT3:JY3"/>
-    <mergeCell ref="JZ3:KE3"/>
-    <mergeCell ref="KF3:KK3"/>
-    <mergeCell ref="KL3:KQ3"/>
-    <mergeCell ref="KR3:KW3"/>
-    <mergeCell ref="KX3:LC3"/>
-    <mergeCell ref="LD3:LI3"/>
-    <mergeCell ref="LJ3:LO3"/>
-    <mergeCell ref="LQ3:LU3"/>
-    <mergeCell ref="HQ3:HV3"/>
-    <mergeCell ref="HW3:IB3"/>
-    <mergeCell ref="IC3:IH3"/>
-    <mergeCell ref="II3:IN3"/>
-    <mergeCell ref="IO3:IT3"/>
-    <mergeCell ref="IU3:IZ3"/>
-    <mergeCell ref="JA3:JF3"/>
-    <mergeCell ref="JH3:JM3"/>
-    <mergeCell ref="JN3:JS3"/>
-    <mergeCell ref="FT3:FX3"/>
-    <mergeCell ref="FY3:GC3"/>
-    <mergeCell ref="GD3:GH3"/>
-    <mergeCell ref="GI3:GM3"/>
-    <mergeCell ref="GN3:GR3"/>
-    <mergeCell ref="GS3:GW3"/>
-    <mergeCell ref="GY3:HD3"/>
-    <mergeCell ref="HE3:HJ3"/>
-    <mergeCell ref="HK3:HP3"/>
-    <mergeCell ref="DS3:DX3"/>
-    <mergeCell ref="DY3:ED3"/>
-    <mergeCell ref="EE3:EJ3"/>
-    <mergeCell ref="EK3:EP3"/>
-    <mergeCell ref="EQ3:EV3"/>
-    <mergeCell ref="EW3:FB3"/>
-    <mergeCell ref="FE3:FI3"/>
-    <mergeCell ref="FJ3:FN3"/>
-    <mergeCell ref="FO3:FS3"/>
-    <mergeCell ref="BP3:BU3"/>
-    <mergeCell ref="BV3:CA3"/>
-    <mergeCell ref="CB3:CG3"/>
-    <mergeCell ref="CH3:CM3"/>
-    <mergeCell ref="CN3:CS3"/>
-    <mergeCell ref="CU3:CZ3"/>
-    <mergeCell ref="DA3:DF3"/>
-    <mergeCell ref="DG3:DL3"/>
-    <mergeCell ref="DM3:DR3"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AF3:AJ3"/>
-    <mergeCell ref="AL3:AQ3"/>
-    <mergeCell ref="AR3:AW3"/>
-    <mergeCell ref="AX3:BC3"/>
-    <mergeCell ref="BD3:BI3"/>
-    <mergeCell ref="BJ3:BO3"/>
+    <mergeCell ref="I1:P2"/>
+    <mergeCell ref="AAW1:AAZ2"/>
+    <mergeCell ref="AOJ1:AOM2"/>
+    <mergeCell ref="AAL1:AAU2"/>
+    <mergeCell ref="MP1:NI2"/>
+    <mergeCell ref="ABA1:ACD2"/>
+    <mergeCell ref="ACE1:ACN2"/>
+    <mergeCell ref="AOD1:AOH2"/>
+    <mergeCell ref="AON1:APQ2"/>
     <mergeCell ref="NJ1:AAK1"/>
     <mergeCell ref="ACO1:AOB1"/>
-    <mergeCell ref="AQB1:BBO1"/>
-    <mergeCell ref="NJ2:OC2"/>
-    <mergeCell ref="OD2:OW2"/>
-    <mergeCell ref="OX2:PQ2"/>
-    <mergeCell ref="PR2:QK2"/>
-    <mergeCell ref="QL2:RE2"/>
-    <mergeCell ref="RF2:AAK2"/>
-    <mergeCell ref="ACO2:ADH2"/>
-    <mergeCell ref="ADI2:AEB2"/>
-    <mergeCell ref="AEC2:AEV2"/>
-    <mergeCell ref="AEW2:AOB2"/>
-    <mergeCell ref="AQB2:AQU2"/>
-    <mergeCell ref="AQV2:ARO2"/>
-    <mergeCell ref="ARP2:ASI2"/>
-    <mergeCell ref="ASJ2:BBO2"/>
-    <mergeCell ref="AAV1:AAV2"/>
-    <mergeCell ref="AOC1:AOC2"/>
-    <mergeCell ref="AOI1:AOI2"/>
-    <mergeCell ref="APR1:AQA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
